--- a/clusters/cluster6.xlsx
+++ b/clusters/cluster6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>CIENTISTA DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ACOLHEDOR, APRENDI MUITO LA. | CONTRAS: NADA QUE ME INCOMODASSE, OS PROBLEMAS ERAM COISAS DO COTIDIANO DE QUALQUER EMPRESA</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA) | CONTRAS: OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ACOLHEDOR, APRENDI MUITO LA.</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NADA QUE ME INCOMODASSE, OS PROBLEMAS ERAM COISAS DO COTIDIANO DE QUALQUER EMPRESA</t>
+          <t>OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[ 0.01452693 -0.03652281 -0.06559645 ...  0.0204829  -0.02950551
- -0.00645044]</t>
+          <t>[-0.0438258  -0.00311728 -0.00894987 ...  0.02227183 -0.03338858
+  0.00369538]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -514,39 +514,37 @@
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>57.43660354614258</v>
+        <v>20.49922752380371</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4424187242984772</v>
+        <v>11.06302738189697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>HUMAN RESOURCES BUSINESS PARTNER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROS: * CAPACITACAO DE PESSOAS 
-*PROJETOS REAIS | CONTRAS: NADA A RECLAMAR E UMA EMPRESA MUITO COMPLETA</t>
+          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS | CONTRAS: EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROS: * CAPACITACAO DE PESSOAS 
-*PROJETOS REAIS</t>
+          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR E UMA EMPRESA MUITO COMPLETA</t>
+          <t>EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.00787972 -0.01808268 -0.03894053 ...  0.01861824 -0.04487384
-  0.03241472]</t>
+          <t>[-0.03251415 -0.00936428 -0.04371278 ...  0.0382624  -0.07405568
+ -0.00853541]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -556,37 +554,37 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>55.8928108215332</v>
+        <v>26.09270858764648</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.634967923164368</v>
+        <v>12.76523876190186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INTERN</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, BOA ESTRUTURA E AMBIENTE MOTIVADOR PARA EVOLUCAO PROFISSIONAL. | CONTRAS: NAO EXPERENCIEI DESVANTAGENS NA EMPRESA.</t>
+          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO | CONTRAS: PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, BOA ESTRUTURA E AMBIENTE MOTIVADOR PARA EVOLUCAO PROFISSIONAL.</t>
+          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NAO EXPERENCIEI DESVANTAGENS NA EMPRESA.</t>
+          <t>PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.01981613 -0.03246632 -0.06537274 ...  0.02963523 -0.05923722
- -0.02889588]</t>
+          <t>[-0.00990793 -0.03213819 -0.0118666  ...  0.04356232 -0.02674963
+  0.05688834]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -596,37 +594,37 @@
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>57.71572875976562</v>
+        <v>23.63278579711914</v>
       </c>
       <c r="I4" t="n">
-        <v>3.478707313537598</v>
+        <v>5.057344436645508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR IOS SENIOR</t>
+          <t>SOFTWARE DEVELOPER II</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVADOR E DASAFIADOR. MUITOS PROJETOS COMPLEXOS E CHEIOS DE MARGEM PARA CRESCIMENTO. | CONTRAS: NENHUM PONTO A DECLARAR ALEM DO FIM DO HOME OFFICE.</t>
+          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS | CONTRAS: PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVADOR E DASAFIADOR. MUITOS PROJETOS COMPLEXOS E CHEIOS DE MARGEM PARA CRESCIMENTO.</t>
+          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NENHUM PONTO A DECLARAR ALEM DO FIM DO HOME OFFICE.</t>
+          <t>PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.00161275 -0.01456848 -0.04017893 ... -0.02424894 -0.05427217
-  0.05709766]</t>
+          <t>[-0.02789134 -0.05470479 -0.00926266 ...  0.04395519 -0.02808792
+  0.02634586]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -636,37 +634,37 @@
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>30.29510498046875</v>
+        <v>15.12967681884766</v>
       </c>
       <c r="I5" t="n">
-        <v>8.189237594604492</v>
+        <v>14.49475383758545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPECIALISTA</t>
+          <t>TECH COORDINATOR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA QUE OFERECE MUITAS OPORTUNIDADES DE CRESCIMENTO E TEM EXCELENTES BENEFICIOS. | CONTRAS: ATE O MOMENTO NAO TENHO MADA CONTRA.</t>
+          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS | CONTRAS: MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA QUE OFERECE MUITAS OPORTUNIDADES DE CRESCIMENTO E TEM EXCELENTES BENEFICIOS.</t>
+          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ATE O MOMENTO NAO TENHO MADA CONTRA.</t>
+          <t>MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[ 0.02535765  0.00173774 -0.05404264 ... -0.02230474 -0.05055038
- -0.01950244]</t>
+          <t>[-0.00762256  0.02584735 -0.02923491 ...  0.03026718 -0.0541398
+  0.00995226]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -676,37 +674,37 @@
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>50.54256057739258</v>
+        <v>26.14797782897949</v>
       </c>
       <c r="I6" t="n">
-        <v>7.855549812316895</v>
+        <v>8.037781715393066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VENDEDOR COMERCIAL</t>
+          <t>COORDINATOR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA, APRENDI MUITO LA,TUDO QUE SEI HOJE PROFISSIONALMENTE DEVO A ELES, SO TENHO A AGRADECER MESMO | CONTRAS: NAO EXISTE, MESMO NAO FAZENDO PARTE DA EMPRESA, AINDA CONSIDERO UMA DAS MELHORES EMPRESAS PARA SE TRABALHAR.</t>
+          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS | CONTRAS: POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA, APRENDI MUITO LA,TUDO QUE SEI HOJE PROFISSIONALMENTE DEVO A ELES, SO TENHO A AGRADECER MESMO</t>
+          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NAO EXISTE, MESMO NAO FAZENDO PARTE DA EMPRESA, AINDA CONSIDERO UMA DAS MELHORES EMPRESAS PARA SE TRABALHAR.</t>
+          <t>POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.03907454  0.00354109 -0.05793295 ...  0.05106924 -0.05566303
- -0.0273178 ]</t>
+          <t>[-0.01766855 -0.01510581 -0.02672902 ... -0.00175118 -0.011671
+ -0.00609165]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -716,39 +714,37 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>59.23088073730469</v>
+        <v>20.56953430175781</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.742176055908203</v>
+        <v>5.458317756652832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROS: SAO VARIOS OS PROS, MAS O QUE EU QUERO DESTACAR E O TRABALHO EM EQUIPE. | CONTRAS: NADA A DECLARAR SOBRE A EMPRESA...
-ESTOU GOTANDO BATANTE DA EMPRESA.</t>
+          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL. | CONTRAS: MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROS: SAO VARIOS OS PROS, MAS O QUE EU QUERO DESTACAR E O TRABALHO EM EQUIPE.</t>
+          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR SOBRE A EMPRESA...
-ESTOU GOTANDO BATANTE DA EMPRESA.</t>
+          <t>MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.03782263  0.04199183 -0.05128176 ... -0.00313018 -0.04997594
- -0.0084773 ]</t>
+          <t>[-0.00688614  0.00202477 -0.05271452 ...  0.02446244 -0.04235929
+  0.02272051]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -758,37 +754,37 @@
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>54.75222396850586</v>
+        <v>26.54965019226074</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.317360401153564</v>
+        <v>9.337906837463379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>SENIOR SOFTWARE ENGINEER</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROS: UM BANCO ACOLHEDOR, SUPEROU MINHAS EXPECTATIVAS, POIS TRABALHAVA COM METAS, E QUANTO A COBRANCAS DE METAS ERAM SEMPRE OBJETIVAS E RESPEITOSAS, OS SUPERIORES TEM UM LADO HUMANO QUE ENTENDE OS COLABORADORES. | CONTRAS: NADA A DECLARAR SOBRE PONTOS NEGATIVOS</t>
+          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS. | CONTRAS: 100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROS: UM BANCO ACOLHEDOR, SUPEROU MINHAS EXPECTATIVAS, POIS TRABALHAVA COM METAS, E QUANTO A COBRANCAS DE METAS ERAM SEMPRE OBJETIVAS E RESPEITOSAS, OS SUPERIORES TEM UM LADO HUMANO QUE ENTENDE OS COLABORADORES.</t>
+          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR SOBRE PONTOS NEGATIVOS</t>
+          <t>100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 0.01037934 -0.02775578 -0.02143641 ... -0.01824668 -0.00653428
-  0.0416858 ]</t>
+          <t>[-0.03402437  0.03298153 -0.0103257  ...  0.01243446  0.00779956
+  0.00623011]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -798,37 +794,37 @@
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>56.19583129882812</v>
+        <v>19.40802383422852</v>
       </c>
       <c r="I9" t="n">
-        <v>9.870192527770996</v>
+        <v>13.7266321182251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESPECIALISTA EM TI</t>
+          <t>DESENVOLVEDOR DE SOFTWARE SENIOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROS: AREA BANCARIA TEM MUITOS BENEFICIOS E NA TI E BEM DINAMICA, MUITOS PROJETOS DESAFIADORES. | CONTRAS: NENHUM PONTO CONTRA TEM QUE ENTENDER O DINAMISMO DA EMPRESA E VER SE VOCE ENCAIXA.</t>
+          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO | CONTRAS: PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROS: AREA BANCARIA TEM MUITOS BENEFICIOS E NA TI E BEM DINAMICA, MUITOS PROJETOS DESAFIADORES.</t>
+          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NENHUM PONTO CONTRA TEM QUE ENTENDER O DINAMISMO DA EMPRESA E VER SE VOCE ENCAIXA.</t>
+          <t>PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.00086932  0.00028602 -0.03190619 ...  0.0299276  -0.0402564
-  0.01031047]</t>
+          <t>[-0.03871137 -0.01252955 -0.03639006 ...  0.0327953  -0.01594206
+ -0.03042865]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -838,37 +834,37 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>60.50192642211914</v>
+        <v>18.33345031738281</v>
       </c>
       <c r="I10" t="n">
-        <v>2.381764888763428</v>
+        <v>14.47093486785889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, TIME, OPORTUNIDADES, DESAFIOS E FLEXIBILIDADE. | CONTRAS: NAO VEJO NENHUM PROBLEMA AQUI NA EMPRESA</t>
+          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA. | CONTRAS: MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, TIME, OPORTUNIDADES, DESAFIOS E FLEXIBILIDADE.</t>
+          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NAO VEJO NENHUM PROBLEMA AQUI NA EMPRESA</t>
+          <t>MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.00046937 -0.0220095  -0.05465712 ...  0.03625809 -0.04200906
-  0.01841302]</t>
+          <t>[-0.00924593 -0.00519514 -0.0475946  ...  0.04141428 -0.04628262
+  0.0101373 ]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -878,37 +874,37 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>57.32912445068359</v>
+        <v>26.21185493469238</v>
       </c>
       <c r="I11" t="n">
-        <v>1.406374096870422</v>
+        <v>8.540972709655762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>UX DESIGNER</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO E TECNOLOGICO, MUITAS OPORTUNIDADES DE CRESCIMENTO E TROCA DE EXPERIENCIAS | CONTRAS: NADA A RECLAMAR. ATE O PROCESSO DE DESLIGAMENTO E RAPIDO E DIGITAL.</t>
+          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO). | CONTRAS: SEM HOME OFFICE, 100 PRESENCIAL.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO E TECNOLOGICO, MUITAS OPORTUNIDADES DE CRESCIMENTO E TROCA DE EXPERIENCIAS</t>
+          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO).</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR. ATE O PROCESSO DE DESLIGAMENTO E RAPIDO E DIGITAL.</t>
+          <t>SEM HOME OFFICE, 100 PRESENCIAL.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.02574201 -0.00201918 -0.07118837 ...  0.00805803 -0.04827897
-  0.01497405]</t>
+          <t>[-0.02140414 -0.01167127 -0.02985343 ...  0.00217901 -0.03268855
+  0.04798231]</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -918,37 +914,43 @@
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>51.55755233764648</v>
+        <v>31.14571952819824</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5704768300056458</v>
+        <v>-8.756618499755859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLUTION ANALYST I</t>
+          <t>TECH ASSISTANT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIOS BONS, AMBIENTE DE APRENDIZADO | CONTRAS: NADA CONTRA ATE ESTE MOMENTO</t>
+          <t>PROS: - BONS BENEFICIOS
+- AMBIENTE OK | CONTRAS: - 100% PRESENCIAL
+- PROGRESSAO DE CARREIRA CONGELADO
+- CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIOS BONS, AMBIENTE DE APRENDIZADO</t>
+          <t>PROS: - BONS BENEFICIOS
+- AMBIENTE OK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NADA CONTRA ATE ESTE MOMENTO</t>
+          <t>- 100% PRESENCIAL
+- PROGRESSAO DE CARREIRA CONGELADO
+- CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[ 0.04473936 -0.00448954 -0.04852573 ...  0.00542023 -0.01891005
- -0.04133012]</t>
+          <t>[-0.05445588  0.00044722 -0.02549184 ... -0.00351998  0.02360301
+ -0.01220965]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -958,37 +960,37 @@
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>48.49733352661133</v>
+        <v>17.9405689239502</v>
       </c>
       <c r="I13" t="n">
-        <v>6.821701526641846</v>
+        <v>4.557045936584473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ESPECIALISTA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, TIME TECNICO DE ALTISSIMO NIVEL COM DIVERSAS OPORTUNIDADES DE CRESCIMENTO E LIBERDADE PARA QUEM QUER COLOCAR A MAO NA MASSA. | CONTRAS: NAO HA CONTRAS ATE O MOMENTO.</t>
+          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM. | CONTRAS: PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, TIME TECNICO DE ALTISSIMO NIVEL COM DIVERSAS OPORTUNIDADES DE CRESCIMENTO E LIBERDADE PARA QUEM QUER COLOCAR A MAO NA MASSA.</t>
+          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NAO HA CONTRAS ATE O MOMENTO.</t>
+          <t>PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[ 0.01387804 -0.00783748 -0.05009683 ... -0.0020629  -0.0214489
- -0.02937333]</t>
+          <t>[-0.022436   -0.01992768 -0.02905043 ...  0.03599719 -0.02396398
+  0.0473819 ]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -998,37 +1000,43 @@
         <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>48.65776824951172</v>
+        <v>31.18086051940918</v>
       </c>
       <c r="I14" t="n">
-        <v>5.883176326751709</v>
+        <v>3.019586324691772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>DATA SCIENTIST I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO DE ACORDO COM O MERCADO, OTIMO AMBIENTE, ACOLHEDOR E CONFORTAVEL, COLABORADORES DISPOSTOS A AJUDAR E ENSINAR | CONTRAS: NADA A DECLARAR CONTRA A EMPRESA</t>
+          <t>PROS: SALARIO BOM
+VA E VR
+PLR
+PLANO DE SAUDE | CONTRAS: PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO DE ACORDO COM O MERCADO, OTIMO AMBIENTE, ACOLHEDOR E CONFORTAVEL, COLABORADORES DISPOSTOS A AJUDAR E ENSINAR</t>
+          <t>PROS: SALARIO BOM
+VA E VR
+PLR
+PLANO DE SAUDE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR CONTRA A EMPRESA</t>
+          <t>PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[ 5.2430034e-05 -4.4336622e-03 -2.6465790e-02 ...  2.2905258e-02
- -4.0412929e-02  1.3329092e-02]</t>
+          <t>[-0.00253259 -0.01500531 -0.02015976 ... -0.01365368 -0.05068402
+  0.02543421]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1038,37 +1046,37 @@
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>54.2822380065918</v>
+        <v>23.61557006835938</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7466335892677307</v>
+        <v>11.67743873596191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANALISTA DE RECURSOS HUMANOS (RH)</t>
+          <t>SYSTEM ANALYST</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM CLIMA, BOA ESTRUTURA E BONS EQUIPAMENTOS | CONTRAS: NAO TENHO NADA A DECLARAR</t>
+          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE | CONTRAS: VOLTA DO TRABALHO PRESENCIAL E PLR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM CLIMA, BOA ESTRUTURA E BONS EQUIPAMENTOS</t>
+          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A DECLARAR</t>
+          <t>VOLTA DO TRABALHO PRESENCIAL E PLR</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[ 0.01460013 -0.00221936 -0.02364453 ... -0.01948495 -0.02503704
-  0.00131923]</t>
+          <t>[-0.0200634   0.02876732 -0.01769434 ... -0.00282977 -0.06236354
+  0.01729666]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1078,37 +1086,37 @@
         <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>47.24429702758789</v>
+        <v>27.95774269104004</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5666588544845581</v>
+        <v>5.796682834625244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>ANALISTA DE PRODUTOS SENIOR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AGRADAVEL E DE OTIMA HARMONIA | CONTRAS: NENHUM CONTRA POR ENQUANTO, ATE POR TER POUCO TEMPO DE CASA</t>
+          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO. | CONTRAS: ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AGRADAVEL E DE OTIMA HARMONIA</t>
+          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NENHUM CONTRA POR ENQUANTO, ATE POR TER POUCO TEMPO DE CASA</t>
+          <t>ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[ 0.01133658 -0.01883429 -0.05534294 ... -0.00595058 -0.04936017
- -0.01051465]</t>
+          <t>[-0.01172285  0.02411461 -0.01829123 ...  0.00542515 -0.04848177
+ -0.00593545]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1118,37 +1126,37 @@
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>49.60044097900391</v>
+        <v>21.95746994018555</v>
       </c>
       <c r="I17" t="n">
-        <v>4.91890287399292</v>
+        <v>13.17204570770264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO, AMBIENTE SUPER ACOLHEDOR | CONTRAS: NAO HA CONTRAS NA MINHA VISAO</t>
+          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO | CONTRAS: REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO, AMBIENTE SUPER ACOLHEDOR</t>
+          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NAO HA CONTRAS NA MINHA VISAO</t>
+          <t>REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[ 0.0130279  -0.03927266 -0.03972061 ...  0.00197288 -0.03687624
- -0.00561335]</t>
+          <t>[ 7.9652509e-03  3.1094398e-02 -1.3423052e-02 ...  1.8924277e-02
+ -5.1967811e-02 -5.6111367e-05]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1158,37 +1166,37 @@
         <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>53.2760124206543</v>
+        <v>16.75957107543945</v>
       </c>
       <c r="I18" t="n">
-        <v>8.092554092407227</v>
+        <v>7.719043731689453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ASSISTENTE DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROS: PESSOAL E MUITO LEGAL E ACOLHEDOR LA | CONTRAS: NADA A DECLARAR, NAO POSSO RECLAMAR</t>
+          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM. | CONTRAS: TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PROS: PESSOAL E MUITO LEGAL E ACOLHEDOR LA</t>
+          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR, NAO POSSO RECLAMAR</t>
+          <t>TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[ 0.01956422  0.02344313 -0.01537918 ... -0.01666108  0.00088776
-  0.0171763 ]</t>
+          <t>[ 0.01441871  0.00776831 -0.07184187 ... -0.00066556 -0.05942653
+ -0.00812852]</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1198,37 +1206,37 @@
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>47.34559631347656</v>
+        <v>36.63257217407227</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3277918100357056</v>
+        <v>-8.824623107910156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>SOFTWARE ENGINEER I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM TRABALHAR NO BANCO | CONTRAS: NAO TENHO NADA PARA FALAR.</t>
+          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM. | CONTRAS: TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM TRABALHAR NO BANCO</t>
+          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA PARA FALAR.</t>
+          <t>TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[ 0.02451327  0.03045979 -0.01229673 ... -0.03223708 -0.02989824
- -0.00242323]</t>
+          <t>[ 0.03236371  0.01399432 -0.06004817 ...  0.00564406 -0.03995465
+ -0.0107003 ]</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1238,39 +1246,37 @@
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>45.5792121887207</v>
+        <v>29.56142425537109</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02384528517723083</v>
+        <v>6.248080253601074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>SOLUTION ANALYST</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTES BENEFICIOS.
-BOA EMPRESA PARA SE TRABALHAR | CONTRAS: NAO TENHO NADA A RECLAMAR.</t>
+          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO | CONTRAS: O MODELO DE TRABALHO E PRESENCIAL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTES BENEFICIOS.
-BOA EMPRESA PARA SE TRABALHAR</t>
+          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A RECLAMAR.</t>
+          <t>O MODELO DE TRABALHO E PRESENCIAL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[ 0.00264665 -0.00599658 -0.03570063 ... -0.02134025 -0.02199212
-  0.00613713]</t>
+          <t>[-0.0058362  -0.00183759 -0.04115825 ...  0.0335162  -0.03881507
+  0.00181562]</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1280,37 +1286,37 @@
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>48.28387832641602</v>
+        <v>27.55909156799316</v>
       </c>
       <c r="I21" t="n">
-        <v>0.859868586063385</v>
+        <v>7.146690368652344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS PLENO</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM, GOSTO MUITO DA EMPRESA | CONTRAS: NADA A DECLARAR, EMPRESA MUITO BOA</t>
+          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO | CONTRAS: CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM, GOSTO MUITO DA EMPRESA</t>
+          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR, EMPRESA MUITO BOA</t>
+          <t>CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-0.02361506 -0.0019777  -0.04119215 ...  0.01405601 -0.03702303
-  0.0048838 ]</t>
+          <t>[-0.00043166 -0.01386358 -0.03909747 ...  0.00539202 -0.03425965
+  0.0146108 ]</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1320,37 +1326,37 @@
         <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>54.46553421020508</v>
+        <v>25.98324775695801</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.298999071121216</v>
+        <v>14.29172801971436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE DEVELOPER</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, PLR , BENEFICIOS , CARRERIA | CONTRAS: NADA CONTRA. OTIMA EMPRESA PRA TRABALHAR.</t>
+          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR. | CONTRAS: 100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, PLR , BENEFICIOS , CARRERIA</t>
+          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NADA CONTRA. OTIMA EMPRESA PRA TRABALHAR.</t>
+          <t>100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.02018963  0.00049575 -0.06527117 ...  0.01357999 -0.06529307
-  0.00130658]</t>
+          <t>[-0.00708406 -0.01625802 -0.03750843 ...  0.01130126 -0.02051
+ -0.0089985 ]</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1360,37 +1366,37 @@
         <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>59.83593368530273</v>
+        <v>24.60717964172363</v>
       </c>
       <c r="I23" t="n">
-        <v>1.109482169151306</v>
+        <v>12.36594581604004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROS: CHANCES DE CRESCIMENTO E ESTA NUMA EMPRESA NUMA CRESCENTE | CONTRAS: NADA A ACRESCENTAR DE CONTRA</t>
+          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS. | CONTRAS: 100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PROS: CHANCES DE CRESCIMENTO E ESTA NUMA EMPRESA NUMA CRESCENTE</t>
+          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NADA A ACRESCENTAR DE CONTRA</t>
+          <t>100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[ 0.02269069 -0.01624697 -0.02509054 ...  0.00867862 -0.01084271
-  0.04571559]</t>
+          <t>[-0.02547093 -0.01929995 -0.0313032  ... -0.00465169 -0.02023621
+  0.02151981]</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1400,37 +1406,37 @@
         <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>50.58882141113281</v>
+        <v>24.00044822692871</v>
       </c>
       <c r="I24" t="n">
-        <v>2.346800327301025</v>
+        <v>11.8871955871582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA QUE VALORIZA AS PESSOAS E AS DESAFIAS DIARIAMENTE. | CONTRAS: NAO VEJO PROBLEMAS RELEVANTES A SEREM CONSIDERADOS.</t>
+          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR | CONTRAS: 100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA QUE VALORIZA AS PESSOAS E AS DESAFIAS DIARIAMENTE.</t>
+          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NAO VEJO PROBLEMAS RELEVANTES A SEREM CONSIDERADOS.</t>
+          <t>100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[ 0.02889354 -0.02869408 -0.03189548 ...  0.02777488  0.0063195
- -0.00287149]</t>
+          <t>[ 0.00110986 -0.01979508 -0.0535312  ...  0.02560485 -0.00948574
+  0.0272726 ]</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1440,37 +1446,37 @@
         <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>54.94802474975586</v>
+        <v>23.56113243103027</v>
       </c>
       <c r="I25" t="n">
-        <v>2.648966550827026</v>
+        <v>14.62997722625732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS PLENO</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROS: TEMOS MUITA LIBERDADE E BOM AMBIENTE. | CONTRAS: POR ENQUANTO NADA CONTA A EMPRESA.</t>
+          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO | CONTRAS: TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PROS: TEMOS MUITA LIBERDADE E BOM AMBIENTE.</t>
+          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POR ENQUANTO NADA CONTA A EMPRESA.</t>
+          <t>TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-0.02122522  0.03642613 -0.04174011 ...  0.00914089 -0.04348097
- -0.01738569]</t>
+          <t>[-0.01757893  0.01576287 -0.04012255 ...  0.02515227 -0.04236136
+  0.04911643]</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1480,37 +1486,43 @@
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>55.07464981079102</v>
+        <v>24.11562538146973</v>
       </c>
       <c r="I26" t="n">
-        <v>-4.351020812988281</v>
+        <v>8.791925430297852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TECH LEAD</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, QUE FAVORECE O CRESCIMENTO PROFISSIONAL | CONTRAS: SEM NEGATIVAS, AMBIENTE MUITO BOM</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS)
+USO DE TECNOLOGIAS DE PONTA | CONTRAS: RETORNO A 100% PRESENCIAL (LAYOFF FORCADO)
+PLANO DE CARREIRA NEBULOSO
+POUCO RECONHECIMENTO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, QUE FAVORECE O CRESCIMENTO PROFISSIONAL</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS)
+USO DE TECNOLOGIAS DE PONTA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SEM NEGATIVAS, AMBIENTE MUITO BOM</t>
+          <t>RETORNO A 100% PRESENCIAL (LAYOFF FORCADO)
+PLANO DE CARREIRA NEBULOSO
+POUCO RECONHECIMENTO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[-0.0205219  -0.00564955 -0.03672867 ... -0.01978544 -0.02810378
- -0.02481566]</t>
+          <t>[ 0.01199566  0.01893803 -0.01301699 ...  0.00274754 -0.00437767
+  0.02387016]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1520,49 +1532,37 @@
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>58.48954391479492</v>
+        <v>19.72633171081543</v>
       </c>
       <c r="I27" t="n">
-        <v>10.29491806030273</v>
+        <v>4.279922962188721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA DE SISTEMAS SENIOR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-O 
-TIME 
-EXELENTE | CONTRAS: NAO 
-TENHO C
-CONTAS
-NO INTER</t>
+          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS. | CONTRAS: INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-O 
-TIME 
-EXELENTE</t>
+          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NAO 
-TENHO C
-CONTAS
-NO INTER</t>
+          <t>INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[ 4.0511344e-02 -9.8399221e-05 -7.4254036e-02 ...  8.7629752e-03
- -1.6050365e-02 -1.4656734e-02]</t>
+          <t>[-0.03905979 -0.01892735 -0.04387609 ... -0.02559904 -0.05607947
+ -0.00620377]</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1572,37 +1572,37 @@
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>46.56588745117188</v>
+        <v>34.20361709594727</v>
       </c>
       <c r="I28" t="n">
-        <v>10.824631690979</v>
+        <v>-9.070182800292969</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROCESSOS SENIOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVACAO COLABORACAO DIRECIONAMENTO TRANSPARENCIA | CONTRAS: NAO SE APLICA NO MOMENTO</t>
+          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS. | CONTRAS: SEM HOME OFFICE NA ESCALA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVACAO COLABORACAO DIRECIONAMENTO TRANSPARENCIA</t>
+          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NAO SE APLICA NO MOMENTO</t>
+          <t>SEM HOME OFFICE NA ESCALA.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[-0.00438838  0.03356946 -0.05393551 ... -0.00237335 -0.02612469
- -0.04360159]</t>
+          <t>[-0.0144873  -0.00390625 -0.04008721 ... -0.00473012 -0.01181669
+  0.04208991]</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1612,37 +1612,37 @@
         <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>43.56952285766602</v>
+        <v>31.22425270080566</v>
       </c>
       <c r="I29" t="n">
-        <v>6.96528148651123</v>
+        <v>-9.198022842407227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TECHNICAL PRODUCT MANAGER</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EM CONSTANTE DESENVOLVIMENTO COM OTIMAS OPORTUNIDADES DE CRESCIMENTO PESSOAL E PROFISSIONAL. | CONTRAS: NAO REALIZAREI A AVALIACAO NESSE MOMENTO</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES. | CONTRAS: TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EM CONSTANTE DESENVOLVIMENTO COM OTIMAS OPORTUNIDADES DE CRESCIMENTO PESSOAL E PROFISSIONAL.</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NAO REALIZAREI A AVALIACAO NESSE MOMENTO</t>
+          <t>TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[-0.00097303  0.0346932  -0.0491894  ... -0.0216941  -0.01086152
-  0.01027691]</t>
+          <t>[ 0.00363109  0.01176187 -0.05575768 ...  0.030246   -0.03092512
+  0.02623926]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1652,37 +1652,37 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>43.80743789672852</v>
+        <v>3.581512212753296</v>
       </c>
       <c r="I30" t="n">
-        <v>5.477280139923096</v>
+        <v>-11.09129524230957</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>DEV JUNIOR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROS: E UMA EMPRESA MARAVILHOSA PARA SE TRABALHAR | CONTRAS: NAO TENHO OQUE RECLAMAR DO INTER</t>
+          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA | CONTRAS: PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PROS: E UMA EMPRESA MARAVILHOSA PARA SE TRABALHAR</t>
+          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NAO TENHO OQUE RECLAMAR DO INTER</t>
+          <t>PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[ 0.02602442 -0.00847965 -0.04516036 ... -0.00970611 -0.0174784
-  0.00648418]</t>
+          <t>[-0.01787235  0.00643799 -0.01736414 ...  0.03730499 -0.04226557
+  0.02513584]</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1692,37 +1692,37 @@
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>47.67811965942383</v>
+        <v>25.91458892822266</v>
       </c>
       <c r="I31" t="n">
-        <v>2.564628601074219</v>
+        <v>11.29129695892334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANALISTA DE RECURSOS HUMANOS</t>
+          <t>SQUAD LEADER</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE ORGANIZACAO PARA SE TRABALHAR. | CONTRAS: NENHUMA AVALIACAO CONTRA ESTA ORGANIZACAO.</t>
+          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO | CONTRAS: 100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE ORGANIZACAO PARA SE TRABALHAR.</t>
+          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NENHUMA AVALIACAO CONTRA ESTA ORGANIZACAO.</t>
+          <t>100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[ 0.0100752  -0.03734778 -0.05872737 ...  0.02135812  0.01063412
-  0.01029956]</t>
+          <t>[-0.04350725 -0.00287309 -0.02427576 ... -0.01688447 -0.03493161
+  0.00302849]</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1732,37 +1732,41 @@
         <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>54.18447494506836</v>
+        <v>21.2242431640625</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9969310164451599</v>
+        <v>7.922753810882568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ESTAGIO</t>
+          <t>DEV III</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROS: GRANDE CHANCE DE SER CONTRATADO | CONTRAS: NAO VEJO PONTO NEGATIVO, TEM QUE SE ESFORCAR COMO EM QUALQUER OUTRO EMPREGO.</t>
+          <t>PROS: APRENDIZADO CONTINUO
+VL E VR MUITO BONS | CONTRAS: FULL PRESENCIAL
+REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PROS: GRANDE CHANCE DE SER CONTRATADO</t>
+          <t>PROS: APRENDIZADO CONTINUO
+VL E VR MUITO BONS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NAO VEJO PONTO NEGATIVO, TEM QUE SE ESFORCAR COMO EM QUALQUER OUTRO EMPREGO.</t>
+          <t>FULL PRESENCIAL
+REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[-0.00945722 -0.01147991 -0.04065632 ... -0.00047861 -0.0228692
-  0.02800057]</t>
+          <t>[-0.010778   -0.03392081 -0.03182153 ...  0.02591266 -0.05815608
+  0.04350714]</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1772,37 +1776,37 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>58.73246383666992</v>
+        <v>23.65350341796875</v>
       </c>
       <c r="I33" t="n">
-        <v>5.991972923278809</v>
+        <v>6.45112133026123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANALISTA DE TI PLENO</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROS: SALARIO NA FAIXA DE MERCADO BENEFICIOS MUITO BONS AMBIENTE AGRADAVEL | CONTRAS: NENHUMA RELEVANTE VISTO QUE A EMPRESA TEM CRESCIDO E MANTIDO OS PROS.</t>
+          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS | CONTRAS: - PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PROS: SALARIO NA FAIXA DE MERCADO BENEFICIOS MUITO BONS AMBIENTE AGRADAVEL</t>
+          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NENHUMA RELEVANTE VISTO QUE A EMPRESA TEM CRESCIDO E MANTIDO OS PROS.</t>
+          <t>- PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[-0.03377223  0.02264182 -0.04045385 ...  0.02740509 -0.01244121
-  0.02598388]</t>
+          <t>[-0.02541626  0.02196439 -0.04190537 ... -0.01536224 -0.0488499
+  0.00873388]</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1812,37 +1816,37 @@
         <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>56.01532363891602</v>
+        <v>13.32884407043457</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.882535457611084</v>
+        <v>5.715915679931641</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAYROLL SPECIALIST</t>
+          <t>ASSISTENTE DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROS: MUITAS OPORTUNIDADES DE CONHECIMENTO E CRESCIMENTO. | CONTRAS: NAO TENHO NADA CONTRA TRABALHAR NO INTER.</t>
+          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO | CONTRAS: PRESENCIAL, MAS NO GERAL E BEM BOM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PROS: MUITAS OPORTUNIDADES DE CONHECIMENTO E CRESCIMENTO.</t>
+          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA CONTRA TRABALHAR NO INTER.</t>
+          <t>PRESENCIAL, MAS NO GERAL E BEM BOM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[ 0.02487562 -0.0165646  -0.06246758 ...  0.01254813 -0.05124482
-  0.01206818]</t>
+          <t>[ 0.00030224 -0.01368882 -0.04453738 ...  0.02075723 -0.03951803
+ -0.03395725]</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1852,37 +1856,37 @@
         <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>61.30027008056641</v>
+        <v>28.90815544128418</v>
       </c>
       <c r="I35" t="n">
-        <v>6.02365779876709</v>
+        <v>12.15354633331299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR DE SOFTWARE</t>
+          <t>ESPECIALISTA PRODUTOS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROS: O SALARIO E OS BENEFICIOS SAO MUITO BONS. | CONTRAS: SEM CONTRAS ATE O MOMENTO.</t>
+          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO | CONTRAS: NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PROS: O SALARIO E OS BENEFICIOS SAO MUITO BONS.</t>
+          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SEM CONTRAS ATE O MOMENTO.</t>
+          <t>NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[ 0.00717268 -0.01265999 -0.05021759 ... -0.01978401 -0.03542127
- -0.04642694]</t>
+          <t>[ 0.00732761 -0.03277314 -0.01279992 ...  0.0139608  -0.06537861
+ -0.03167481]</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1892,37 +1896,41 @@
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>51.12383651733398</v>
+        <v>34.40410614013672</v>
       </c>
       <c r="I36" t="n">
-        <v>9.909923553466797</v>
+        <v>-3.885645389556885</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>ESPECIALISTA ANDROID DEVELOPER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROS: BOA PRA TRABALHAR HOJE EM DIA | CONTRAS: SEM DETALHES A FALAR NO MOMENTO</t>
+          <t>PROS: SALARIO MUITO BOM
+EQUIPE AGRADAVEL DE TRABALHAR | CONTRAS: 100% PRESENCIAL
+DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PROS: BOA PRA TRABALHAR HOJE EM DIA</t>
+          <t>PROS: SALARIO MUITO BOM
+EQUIPE AGRADAVEL DE TRABALHAR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SEM DETALHES A FALAR NO MOMENTO</t>
+          <t>100% PRESENCIAL
+DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[-0.00628163  0.04979985 -0.05953295 ... -0.02524439 -0.03239506
- -0.01368659]</t>
+          <t>[-0.02801224 -0.00712489 -0.04093913 ...  0.01233824 -0.01299394
+ -0.01588033]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1932,37 +1940,37 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>44.31813049316406</v>
+        <v>18.73393821716309</v>
       </c>
       <c r="I37" t="n">
-        <v>4.197440624237061</v>
+        <v>13.9360466003418</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ADVOGADO</t>
+          <t>ANALISTA DE SISTEMAS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROS: TICKET ALTISSIMO E MUITAS OPORTUNIDADES PARA QUEM ESTA INICIANDO NA CARREIRA. | CONTRAS: NADA RELACIONADO A INSTITUICAO / EMPRESA</t>
+          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS. | CONTRAS: DEU FIM AO TRABALHO HOME OFFICE.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PROS: TICKET ALTISSIMO E MUITAS OPORTUNIDADES PARA QUEM ESTA INICIANDO NA CARREIRA.</t>
+          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NADA RELACIONADO A INSTITUICAO / EMPRESA</t>
+          <t>DEU FIM AO TRABALHO HOME OFFICE.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[ 0.00326537  0.00866162 -0.0309525  ...  0.02328753 -0.0282864
-  0.00925309]</t>
+          <t>[-0.00751774 -0.0080816  -0.05902507 ... -0.00833176 -0.0856968
+  0.02625751]</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1972,37 +1980,37 @@
         <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>51.86174011230469</v>
+        <v>36.31041717529297</v>
       </c>
       <c r="I38" t="n">
-        <v>-2.960567712783813</v>
+        <v>-9.445346832275391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SQUAD LEAD</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CONSTRUIR, CLIMA AGRADAVEL. | CONTRAS: NADA RELACIONADO A INSTITUICAO / EMPRESA.</t>
+          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR | CONTRAS: SEM HOME OFFICE NO MOMENTO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CONSTRUIR, CLIMA AGRADAVEL.</t>
+          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NADA RELACIONADO A INSTITUICAO / EMPRESA.</t>
+          <t>SEM HOME OFFICE NO MOMENTO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[-0.0126322   0.00284063 -0.03937019 ...  0.02479248 -0.02906416
-  0.00067149]</t>
+          <t>[-0.02944578  0.0173924  -0.02663165 ... -0.0101181  -0.07891993
+ -0.01868301]</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2012,37 +2020,37 @@
         <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>51.92155456542969</v>
+        <v>31.73666000366211</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.969881296157837</v>
+        <v>-9.436236381530762</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADES FLEXIBILIDADE CONSTANTE MUDANCA AMBIENTE AGRADAVEL | CONTRAS: NAO TENHO NENHUM CONTRA EM RELACAO A TRABALHAR NA INSTITUICAO</t>
+          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS. | CONTRAS: DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADES FLEXIBILIDADE CONSTANTE MUDANCA AMBIENTE AGRADAVEL</t>
+          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUM CONTRA EM RELACAO A TRABALHAR NA INSTITUICAO</t>
+          <t>DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[ 0.01693775 -0.02108627 -0.04265674 ... -0.01393125 -0.04055355
-  0.02188512]</t>
+          <t>[-0.01602102  0.00126419  0.01252013 ... -0.00280203 -0.0302542
+  0.05500225]</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2052,37 +2060,43 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>59.78895950317383</v>
+        <v>14.21165370941162</v>
       </c>
       <c r="I40" t="n">
-        <v>4.303928375244141</v>
+        <v>7.315498352050781</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ASSISTENTE JURIDICO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROS: TOPISSIMO MELHOR EMPRESA DO PAIS | CONTRAS: NENHUM NADA A RECLAMAR DESSA EMPRESA MARAVILHOSA</t>
+          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO | CONTRAS: ENGESSADO
+POUCO INCLUSIVO
+PRESENCIAL
+HOSTIL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PROS: TOPISSIMO MELHOR EMPRESA DO PAIS</t>
+          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NENHUM NADA A RECLAMAR DESSA EMPRESA MARAVILHOSA</t>
+          <t>ENGESSADO
+POUCO INCLUSIVO
+PRESENCIAL
+HOSTIL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[-0.02694438 -0.00067832 -0.01861421 ...  0.02573176 -0.05127363
-  0.03840299]</t>
+          <t>[ 0.00894576 -0.00388305  0.02473573 ... -0.00192661 -0.05435414
+  0.01708661]</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2092,37 +2106,43 @@
         <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>56.37178421020508</v>
+        <v>23.94898223876953</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.840223431587219</v>
+        <v>2.087709665298462</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DIRETOR GERAL</t>
+          <t>ANALISTA CX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROS: DINAMICA E AGIL, MARCA EMPREGADORA E TIME IOVEM | CONTRAS: NAO TENHO NADA A DECLARAR</t>
+          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
+SINDICATO
+MUITAS COISAS BOAS | CONTRAS: AMBIENTE DAS PESSOAS
+SEM HOME OFFICE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PROS: DINAMICA E AGIL, MARCA EMPREGADORA E TIME IOVEM</t>
+          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
+SINDICATO
+MUITAS COISAS BOAS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A DECLARAR</t>
+          <t>AMBIENTE DAS PESSOAS
+SEM HOME OFFICE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[ 0.01460013 -0.00221936 -0.02364453 ... -0.01948495 -0.02503704
-  0.00131923]</t>
+          <t>[-0.01684366  0.00100497 -0.07823515 ... -0.00793744 -0.07085627
+ -0.03130072]</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2132,37 +2152,37 @@
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>47.24372100830078</v>
+        <v>31.49416732788086</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5668359994888306</v>
+        <v>-10.6739444732666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CUSTOMER ADVISOR</t>
+          <t>ANALISTA PLD JR.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, COLEGAS, SALARIO, BENEFICIOS, OPORTUNIDADES. | CONTRAS: NAO HA CONTRAS A SER RELATADO.</t>
+          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO | CONTRAS: EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, COLEGAS, SALARIO, BENEFICIOS, OPORTUNIDADES.</t>
+          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NAO HA CONTRAS A SER RELATADO.</t>
+          <t>EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[ 0.00551439 -0.02232239 -0.03380834 ...  0.01394022 -0.01522824
-  0.04262925]</t>
+          <t>[-0.01021104 -0.00791429 -0.07070427 ...  0.0288446  -0.03560557
+  0.01936547]</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2172,37 +2192,37 @@
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>52.68732452392578</v>
+        <v>24.10695648193359</v>
       </c>
       <c r="I43" t="n">
-        <v>5.982763767242432</v>
+        <v>13.54149532318115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS DE PONTA NO MERCADO | CONTRAS: SEM NADA CONTRA PRA FALAR</t>
+          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS | CONTRAS: RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS DE PONTA NO MERCADO</t>
+          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SEM NADA CONTRA PRA FALAR</t>
+          <t>RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[ 0.02266148  0.00286421 -0.01236751 ... -0.02025331 -0.00909454
-  0.04189113]</t>
+          <t>[-0.02452936  0.05529533  0.00593045 ...  0.01231852 -0.03857494
+  0.00633162]</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2212,37 +2232,37 @@
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>51.46426391601562</v>
+        <v>26.09322166442871</v>
       </c>
       <c r="I44" t="n">
-        <v>3.788963317871094</v>
+        <v>-6.637841701507568</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>CONSULTOR DE CREDITO IMOBILIARIO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROS: BOA EMPRESA PARA SE TRABALHAR | CONTRAS: SEM GRANDES CONTRAS PARA COMENTAR</t>
+          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PROS: BOA EMPRESA PARA SE TRABALHAR</t>
+          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SEM GRANDES CONTRAS PARA COMENTAR</t>
+          <t>INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[-0.01724212 -0.00781752 -0.02740469 ... -0.00267956 -0.04169679
-  0.01401913]</t>
+          <t>[-0.02797371 -0.02313296 -0.02991615 ...  0.01230501 -0.05130238
+  0.02245873]</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2252,37 +2272,37 @@
         <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>52.47259140014648</v>
+        <v>30.91649627685547</v>
       </c>
       <c r="I45" t="n">
-        <v>10.70302867889404</v>
+        <v>3.032783508300781</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DESENOLVEDOR PLENO</t>
+          <t>DEV PLENO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE, GESTAO E LIDERANCA | CONTRAS: NAO TEM NADA A DESEJAR NOS CONTRAS</t>
+          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO | CONTRAS: VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE, GESTAO E LIDERANCA</t>
+          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NAO TEM NADA A DESEJAR NOS CONTRAS</t>
+          <t>VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[ 0.02781919  0.00207463 -0.02122035 ... -0.00419425 -0.02863678
- -0.01181388]</t>
+          <t>[ 0.01611797  0.01080743 -0.037294   ... -0.01419023 -0.06588516
+ -0.03491707]</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2292,37 +2312,39 @@
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>49.25892639160156</v>
+        <v>31.56978416442871</v>
       </c>
       <c r="I46" t="n">
-        <v>3.090714454650879</v>
+        <v>10.65482425689697</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SENIOR DEVELOPER</t>
+          <t>ESPECIALISTA JAVA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROS: - BOM AMBIENTE DE TRABALHO - SALARIO COMPETITIVO - BONS BENEFICIOS | CONTRAS: NENHUM CONTRA ATE O MOMENTO</t>
+          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO
+SALARIO COMPETITIVO | CONTRAS: A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PROS: - BOM AMBIENTE DE TRABALHO - SALARIO COMPETITIVO - BONS BENEFICIOS</t>
+          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO
+SALARIO COMPETITIVO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NENHUM CONTRA ATE O MOMENTO</t>
+          <t>A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[ 0.04036127 -0.01543321 -0.05677567 ... -0.00670984 -0.04535154
- -0.02008173]</t>
+          <t>[-0.03676634  0.01169682 -0.02794434 ...  0.01770367 -0.07985572
+  0.00353923]</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2332,37 +2354,37 @@
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>49.20564651489258</v>
+        <v>31.48137855529785</v>
       </c>
       <c r="I47" t="n">
-        <v>6.230245590209961</v>
+        <v>7.737504959106445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO</t>
+          <t>DESENVOLVEDOR ESPECIALISTA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROS: OTIMO CONVIVIO E RECONHECIMENTO DE FUNCIONARIO. | CONTRAS: NADA A RECLAMAR. EMPRESA OTIMA DE TRABALHAR</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM. | CONTRAS: IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PROS: OTIMO CONVIVIO E RECONHECIMENTO DE FUNCIONARIO.</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR. EMPRESA OTIMA DE TRABALHAR</t>
+          <t>IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[-0.02309656  0.00036437 -0.06303891 ...  0.01691145 -0.02799484
- -0.01130971]</t>
+          <t>[-0.0061265   0.0424964   0.00132409 ...  0.02722853 -0.05162622
+  0.00306863]</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2372,37 +2394,37 @@
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>56.59976959228516</v>
+        <v>31.60236930847168</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.6150891184806824</v>
+        <v>3.653406620025635</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JUNIOR IOS DEVELOPER</t>
+          <t>ENGENHEIRO DE SOFTWARE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROS: E MUITO TRANQUILO O AMBIENTE DE TRABALHO E TAMBEM POSSUI BASTANTE LIBERDADE PARA TRABALHAR | CONTRAS: NAO VEJO NENHUM CONTRA DE TRABALHAR NA EMPRESA</t>
+          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO | CONTRAS: NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PROS: E MUITO TRANQUILO O AMBIENTE DE TRABALHO E TAMBEM POSSUI BASTANTE LIBERDADE PARA TRABALHAR</t>
+          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NAO VEJO NENHUM CONTRA DE TRABALHAR NA EMPRESA</t>
+          <t>NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[-0.00094667 -0.01300235 -0.05979402 ...  0.01605358 -0.07490977
-  0.03184723]</t>
+          <t>[-0.0176176   0.00220679 -0.04976745 ... -0.01403018 -0.08203598
+  0.00976108]</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2412,37 +2434,37 @@
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>59.5481071472168</v>
+        <v>31.56018447875977</v>
       </c>
       <c r="I49" t="n">
-        <v>3.815850734710693</v>
+        <v>-5.897038459777832</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>ANALISTA DE SUCESSO DO CLIENTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DO SIDICATO BANCARIO COMO VR,VA | CONTRAS: NAO TENHO CONTRAS NO MOMENTO</t>
+          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES | CONTRAS: AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DO SIDICATO BANCARIO COMO VR,VA</t>
+          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NAO TENHO CONTRAS NO MOMENTO</t>
+          <t>AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[-0.00335878  0.00010328 -0.05070563 ... -0.02304706 -0.05300623
- -0.04379369]</t>
+          <t>[-0.02494424 -0.01219768 -0.07671119 ...  0.00949674 -0.04595485
+ -0.0012539 ]</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2452,37 +2474,37 @@
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>49.99340057373047</v>
+        <v>31.65691947937012</v>
       </c>
       <c r="I50" t="n">
-        <v>8.299845695495605</v>
+        <v>-11.50908660888672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>SENIOR SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE, SALARIO NA MEDIA DO MERCADO | CONTRAS: NAO TENHO NADA A RELATAR</t>
+          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS | CONTRAS: PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE, SALARIO NA MEDIA DO MERCADO</t>
+          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A RELATAR</t>
+          <t>PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[ 0.01136187  0.00436451 -0.02997122 ...  0.00040961 -0.03000084
-  0.016182  ]</t>
+          <t>[-0.029526    0.01786759 -0.00287653 ...  0.02043194 -0.03840799
+  0.00841968]</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2492,37 +2514,39 @@
         <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>46.80779266357422</v>
+        <v>11.48367881774902</v>
       </c>
       <c r="I51" t="n">
-        <v>1.302104234695435</v>
+        <v>-17.47047233581543</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>BUSINESS INTELLIGENCE ANALYST</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE E LUGAR ACOLHEDOR. | CONTRAS: NAO IDENTIFIQUEI NENHUM PONTO NEGATIVO.</t>
+          <t>PROS: * CULTURA,
+* VALE ALIMENTACAO E REFEICAO | CONTRAS: * TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE E LUGAR ACOLHEDOR.</t>
+          <t>PROS: * CULTURA,
+* VALE ALIMENTACAO E REFEICAO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NAO IDENTIFIQUEI NENHUM PONTO NEGATIVO.</t>
+          <t>* TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[-0.00678327 -0.04714917 -0.04727371 ...  0.00136552 -0.01730146
-  0.00519732]</t>
+          <t>[-0.01669043  0.01544436 -0.03681854 ...  0.03294783 -0.03137436
+  0.0255557 ]</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2532,37 +2556,37 @@
         <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>56.12352752685547</v>
+        <v>31.91829109191895</v>
       </c>
       <c r="I52" t="n">
-        <v>7.096489429473877</v>
+        <v>2.200096607208252</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TALENT MANAGEMENT SPECIALIST</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE - EMPRESA COM MINDSET DE REALMENTE SIMPLIFICAR AS COISAS, ALEM DE TIMES COM OLHAR MUITO COLABORATIVO, PARCERIA E RESULTADOS. ALEM DE UMA OTIMA ESTRUTURA FISICA, INTER CAFE E AMBIENTE SAUDAVEL, DIVERSO E DINAMICO. | CONTRAS: NADA A DECLARAR SOBRE CONTRAS ATE O MOMENTO. SOU APAIXONADO POR TUDO ISSO AQUI!</t>
+          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL | CONTRAS: MODELO PRESENCIAL NAO E O IDEAL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE - EMPRESA COM MINDSET DE REALMENTE SIMPLIFICAR AS COISAS, ALEM DE TIMES COM OLHAR MUITO COLABORATIVO, PARCERIA E RESULTADOS. ALEM DE UMA OTIMA ESTRUTURA FISICA, INTER CAFE E AMBIENTE SAUDAVEL, DIVERSO E DINAMICO.</t>
+          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NADA A DECLARAR SOBRE CONTRAS ATE O MOMENTO. SOU APAIXONADO POR TUDO ISSO AQUI!</t>
+          <t>MODELO PRESENCIAL NAO E O IDEAL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[ 0.0019329  -0.01431299 -0.02804563 ... -0.00359239 -0.0164415
-  0.00590643]</t>
+          <t>[-0.02130434 -0.01228214 -0.02957812 ...  0.02286534 -0.04956627
+ -0.01770853]</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2572,37 +2596,37 @@
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>49.76268005371094</v>
+        <v>26.42032814025879</v>
       </c>
       <c r="I53" t="n">
-        <v>9.610208511352539</v>
+        <v>5.576284408569336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DESENVOLVEDORA SALESFORCE</t>
+          <t>IT ANALYST</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROS: PROJETOS MUITO ATRATIVOS E CONTRUTIVOS PESSOAS EXECELENTES PARA TRABALHAR EM EQUIPE SALARIO E BENEFICIOS MUITO BONS E MUITOS OUTRAS BENEFICIOS DE SE TRABALHAR NO INTER | CONTRAS: EMPRESA OTIMA NAO TEM NENHUM TOPICO CONTRA PARA APONTAR, TUDO MUITO BOM, ADORO TRABALHAR NO INTER, SANGUE LARANJA NA VEIA KKKK</t>
+          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO | CONTRAS: DISTANTE, NAO OFERECE HOME OFFICE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PROS: PROJETOS MUITO ATRATIVOS E CONTRUTIVOS PESSOAS EXECELENTES PARA TRABALHAR EM EQUIPE SALARIO E BENEFICIOS MUITO BONS E MUITOS OUTRAS BENEFICIOS DE SE TRABALHAR NO INTER</t>
+          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>EMPRESA OTIMA NAO TEM NENHUM TOPICO CONTRA PARA APONTAR, TUDO MUITO BOM, ADORO TRABALHAR NO INTER, SANGUE LARANJA NA VEIA KKKK</t>
+          <t>DISTANTE, NAO OFERECE HOME OFFICE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.00605169 -0.00537091 -0.05363655 ...  0.03804055 -0.0527777
- -0.00101652]</t>
+          <t>[-0.00903472 -0.0430213  -0.03302381 ... -0.00499433 -0.04782555
+ -0.06385677]</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2612,37 +2636,37 @@
         <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>61.77243041992188</v>
+        <v>32.63411712646484</v>
       </c>
       <c r="I54" t="n">
-        <v>5.201848983764648</v>
+        <v>-4.443916797637939</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EXCELENTE, AMBIENTE SUPER AGRADAVEL, PESSOAS COMPETENTES E ATENCIOSAS, LUGAR MUITO BACANA PARA TRABALHAR E PARA TER UM CRESCIMENTO DE CARREIRA. | CONTRAS: ATE O MOMENTO NAO PUDE PERCEBER NENHUM PONTO NEGATIVO DA EMPRESA, ESTOU GOSTANDO MUITO DE TRABALHAR LA E ESPERO QUE CONTINUE ASSIM, ESTA SENDO UMA EXPERIENCIA INCRIVEL.</t>
+          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM. | CONTRAS: NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EXCELENTE, AMBIENTE SUPER AGRADAVEL, PESSOAS COMPETENTES E ATENCIOSAS, LUGAR MUITO BACANA PARA TRABALHAR E PARA TER UM CRESCIMENTO DE CARREIRA.</t>
+          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ATE O MOMENTO NAO PUDE PERCEBER NENHUM PONTO NEGATIVO DA EMPRESA, ESTOU GOSTANDO MUITO DE TRABALHAR LA E ESPERO QUE CONTINUE ASSIM, ESTA SENDO UMA EXPERIENCIA INCRIVEL.</t>
+          <t>NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-0.05754082  0.01617067 -0.01828755 ...  0.01800535 -0.08044073
-  0.00548339]</t>
+          <t>[-0.0048904   0.02640477 -0.02015734 ...  0.00309795 -0.0738818
+  0.01202965]</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2652,37 +2676,37 @@
         <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>62.36495590209961</v>
+        <v>26.29502105712891</v>
       </c>
       <c r="I55" t="n">
-        <v>3.153105497360229</v>
+        <v>-1.536371231079102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROS: LEGAL TRABALHAR LA,TECNOLOGIA E UM OTIMO APRENDIZADO COM PESSOAS PARA TE AJUDAR EM TODOS OS MOMENTOS E EM VARIAS AREAS DE CONHECIMENTO PARA A VIDA E CARREIRA | CONTRAS: NADA A RECLAMAR,ELES SEMPRE FAZEM O MELHIR PARA OS FUNCIONARIOS E SEMPRE ESTAO PREOCUPADOS COM O BEM ESTAR DE CADA UM,COM VARIOS ENSINAMENTOS</t>
+          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO. | CONTRAS: REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PROS: LEGAL TRABALHAR LA,TECNOLOGIA E UM OTIMO APRENDIZADO COM PESSOAS PARA TE AJUDAR EM TODOS OS MOMENTOS E EM VARIAS AREAS DE CONHECIMENTO PARA A VIDA E CARREIRA</t>
+          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR,ELES SEMPRE FAZEM O MELHIR PARA OS FUNCIONARIOS E SEMPRE ESTAO PREOCUPADOS COM O BEM ESTAR DE CADA UM,COM VARIOS ENSINAMENTOS</t>
+          <t>REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[-0.03714947 -0.02310717 -0.05130471 ...  0.02036811  0.00019609
- -0.00834062]</t>
+          <t>[-0.02016704  0.00849408 -0.02590217 ...  0.05731423 -0.04219189
+  0.01139898]</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2692,37 +2716,37 @@
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>62.11136627197266</v>
+        <v>30.02121925354004</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.9362171292304993</v>
+        <v>3.331588983535767</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ATENDENTE COMERCIAL</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROS: UMA EXCELENTE EMPRESA PARA TRABALHAR. CARGA HORARIA REDUZIDA, SALARIO, COMISSAO, VT, VR, VA, VALE CULTURA, PLANO DE SAUDE E ODONTOLOGICO E PL. | CONTRAS: SEM PONTOS NEGATIVOS PARA RESSALTAR. COBRANCA EM RELACAO A META E FEITA COMO EM OUTRAS INSTITUICOES FINANCEIRAS. MELHORAR UM POUCO A GESTAO.</t>
+          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO | CONTRAS: TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PROS: UMA EXCELENTE EMPRESA PARA TRABALHAR. CARGA HORARIA REDUZIDA, SALARIO, COMISSAO, VT, VR, VA, VALE CULTURA, PLANO DE SAUDE E ODONTOLOGICO E PL.</t>
+          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SEM PONTOS NEGATIVOS PARA RESSALTAR. COBRANCA EM RELACAO A META E FEITA COMO EM OUTRAS INSTITUICOES FINANCEIRAS. MELHORAR UM POUCO A GESTAO.</t>
+          <t>TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[-0.01305362 -0.00663625 -0.03060005 ... -0.00158138 -0.04706544
- -0.01772551]</t>
+          <t>[-0.01095673  0.00585248 -0.05050302 ...  0.01934971 -0.02732784
+  0.01088443]</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2732,37 +2756,37 @@
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>51.59651565551758</v>
+        <v>24.75686645507812</v>
       </c>
       <c r="I57" t="n">
-        <v>17.61201667785645</v>
+        <v>11.05401134490967</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ANALISTA COMPLIANCE PL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROS: OS PONTOS POSITIVOS DA EMPRESA QUE EU DESTACO SAO: CULTURA ORGANIZACIONAL, VALORIZACAO DOS COLABORADORES, AMBIENTE AGRADAVEL, BOA REMUNERACAO E OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: EU ENTREI NA EMPRESA RECENTEMENTE E AINDA NAO IDENTIFIQUEI OS PONTOS NEGATIVOS, ESTOU MUITO SATISFEITO E RECOMENDO ESTA EMPRESA PARA OS FUTUROS COLABORADORES.</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO . | CONTRAS: SER 100% PRESENCIAL, ELEVADORES, .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PROS: OS PONTOS POSITIVOS DA EMPRESA QUE EU DESTACO SAO: CULTURA ORGANIZACIONAL, VALORIZACAO DOS COLABORADORES, AMBIENTE AGRADAVEL, BOA REMUNERACAO E OPORTUNIDADE DE CRESCIMENTO.</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO .</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EU ENTREI NA EMPRESA RECENTEMENTE E AINDA NAO IDENTIFIQUEI OS PONTOS NEGATIVOS, ESTOU MUITO SATISFEITO E RECOMENDO ESTA EMPRESA PARA OS FUTUROS COLABORADORES.</t>
+          <t>SER 100% PRESENCIAL, ELEVADORES, .</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[-0.05181232 -0.00413186 -0.059106   ... -0.00165482 -0.0532917
- -0.0130949 ]</t>
+          <t>[-0.00590224 -0.01635947 -0.03692302 ...  0.02030727  0.00050024
+  0.03071524]</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2772,37 +2796,37 @@
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>62.47174072265625</v>
+        <v>24.44738388061523</v>
       </c>
       <c r="I58" t="n">
-        <v>3.218962430953979</v>
+        <v>11.9696798324585</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROS: BOM LOCAL DE TRABALHO, REMUNERACAO COMPATIVEL COM OUTROS BANCO, HORARIO DE TRABALHO DIFERENCIADO, AREA PARA OS FUNCIONARIOS, MAQUINAS DE CAFE E CHA GRATIS | CONTRAS: NAO HA VALE REFEICAO IGUAL OUTROS BANCOS. NAO HA MUITO PONTOS NEGATIVOS, O BANCO ESTA CRESCENDO MUITO, JUNTO COM TODOS OS FUNCIONARIOS!!!!!!</t>
+          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS | CONTRAS: PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PROS: BOM LOCAL DE TRABALHO, REMUNERACAO COMPATIVEL COM OUTROS BANCO, HORARIO DE TRABALHO DIFERENCIADO, AREA PARA OS FUNCIONARIOS, MAQUINAS DE CAFE E CHA GRATIS</t>
+          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NAO HA VALE REFEICAO IGUAL OUTROS BANCOS. NAO HA MUITO PONTOS NEGATIVOS, O BANCO ESTA CRESCENDO MUITO, JUNTO COM TODOS OS FUNCIONARIOS!!!!!!</t>
+          <t>PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[-0.01952742  0.00517956 -0.03575438 ...  0.0082107  -0.0319976
-  0.00978453]</t>
+          <t>[-0.00155248  0.00417445 -0.0323936  ... -0.01322622  0.01064199
+  0.00918604]</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2812,37 +2836,39 @@
         <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>51.80661392211914</v>
+        <v>18.16805267333984</v>
       </c>
       <c r="I59" t="n">
-        <v>17.30024909973145</v>
+        <v>13.50238227844238</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>ADVISOR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO MUITO BOM, LEVE, SEM MUITA PRESSAO, MESMO COM O HOME OFFICE, NAO HA MICROGERENCIAMENTO DOS FUNCIONARIOS. GESTORES HUMANOS E QUE SABEM LIDAR COM OS DEMAIS TRABALHADORES. SALARIO E BENEFICIOS COMPETITIVOS. | CONTRAS: NAO TENHO NENHUM CONTRA PARA PONTUAR ATE ENTAO.</t>
+          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA | CONTRAS: 100% PRESENCIAL PARA UM BANCO DIGITAL
+COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO MUITO BOM, LEVE, SEM MUITA PRESSAO, MESMO COM O HOME OFFICE, NAO HA MICROGERENCIAMENTO DOS FUNCIONARIOS. GESTORES HUMANOS E QUE SABEM LIDAR COM OS DEMAIS TRABALHADORES. SALARIO E BENEFICIOS COMPETITIVOS.</t>
+          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUM CONTRA PARA PONTUAR ATE ENTAO.</t>
+          <t>100% PRESENCIAL PARA UM BANCO DIGITAL
+COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[ 0.01794802 -0.01955577 -0.03009034 ... -0.0271298  -0.0449717
-  0.0175282 ]</t>
+          <t>[-0.01730546 -0.04033493 -0.04737912 ...  0.01170828 -0.03661618
+ -0.01998857]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2852,37 +2878,37 @@
         <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>51.5948600769043</v>
+        <v>26.42802810668945</v>
       </c>
       <c r="I60" t="n">
-        <v>6.723287582397461</v>
+        <v>13.61470222473145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR. ALEM DE SALARIOS E BENEFICIOS HA UM CLIMA MUITO BOM. FACIL ACESSO AOS GESTORES. OTIMA ESTRUTURA E EQUIPAMENTOS. OS PROCESSOS SAO SEMPRE REVISTOS EM FUNCAO DO CRESCIMENTO DA EMPRESA. ISSO NOS FAZ BUSCAR APERFEICOAMENTO TAMBEM. | CONTRAS: NADA A OPINAR NO MOMENTO.</t>
+          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA | CONTRAS: SISTEMA HIBRIDO PARA A TI</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR. ALEM DE SALARIOS E BENEFICIOS HA UM CLIMA MUITO BOM. FACIL ACESSO AOS GESTORES. OTIMA ESTRUTURA E EQUIPAMENTOS. OS PROCESSOS SAO SEMPRE REVISTOS EM FUNCAO DO CRESCIMENTO DA EMPRESA. ISSO NOS FAZ BUSCAR APERFEICOAMENTO TAMBEM.</t>
+          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NADA A OPINAR NO MOMENTO.</t>
+          <t>SISTEMA HIBRIDO PARA A TI</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[-0.0010522   0.0237767  -0.04969539 ... -0.00077463 -0.01659535
- -0.01524745]</t>
+          <t>[-0.03604996 -0.01304029 -0.03730661 ...  0.02044741 -0.00815835
+  0.03348633]</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2892,37 +2918,39 @@
         <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>44.5906982421875</v>
+        <v>28.62464332580566</v>
       </c>
       <c r="I61" t="n">
-        <v>2.601203680038452</v>
+        <v>-0.2451537102460861</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NETWORK ENGINNER</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA. LIBERDADE EM PROPOR SOLUCOES DE MELHORIA PARA O NEGOCIO, CRIATIVIDADE, EMPREENDEDORISMO, E MUITO MAIS. BOM RELACIONAMENTO COM AS LIDERANCAS, COORDENACAO E GESTAO. PROXIMIDADE QUE FACILITA O ECOSSISTEMA DO INTER. BENEFICIOS NO GERAL SAO OTIMOS. | CONTRAS: SEM PODER DE AVALIACAO PARA INFORMAR UM CONTRA. SO TENHO PROS.</t>
+          <t>PROS: AMBIENTE SAUDAVEL
+BENEFICIOS COMPATIVEIS COM A CATEGORIA | CONTRAS: TRABALHO PRESENCIAL E HORARIO FIXO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA. LIBERDADE EM PROPOR SOLUCOES DE MELHORIA PARA O NEGOCIO, CRIATIVIDADE, EMPREENDEDORISMO, E MUITO MAIS. BOM RELACIONAMENTO COM AS LIDERANCAS, COORDENACAO E GESTAO. PROXIMIDADE QUE FACILITA O ECOSSISTEMA DO INTER. BENEFICIOS NO GERAL SAO OTIMOS.</t>
+          <t>PROS: AMBIENTE SAUDAVEL
+BENEFICIOS COMPATIVEIS COM A CATEGORIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SEM PODER DE AVALIACAO PARA INFORMAR UM CONTRA. SO TENHO PROS.</t>
+          <t>TRABALHO PRESENCIAL E HORARIO FIXO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[-0.02347242  0.00950549 -0.01057544 ... -0.03010832 -0.04246168
-  0.01852705]</t>
+          <t>[-0.00211129 -0.00563196 -0.03501553 ...  0.02274149 -0.0361327
+  0.02899092]</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2932,37 +2960,37 @@
         <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>55.04689788818359</v>
+        <v>28.77200317382812</v>
       </c>
       <c r="I62" t="n">
-        <v>11.73198795318604</v>
+        <v>6.845802307128906</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR FULLSTACK</t>
+          <t>IOS DEVELOPER</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROS: ESTOU AQUI FAZ 1 ANO, E ATE AGORA ESTA MARAVILHOSO. AS PESSOAS ESTAO DISPOSTAS A TE AJUDAR, MESMO SENDO DE OUTRA SQUAD. VALORIZAM SEU TRABALHO | CONTRAS: NENHUM PONTO CONTRA NADA A RECLAMAR POR ENQUANTO</t>
+          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS | CONTRAS: QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PROS: ESTOU AQUI FAZ 1 ANO, E ATE AGORA ESTA MARAVILHOSO. AS PESSOAS ESTAO DISPOSTAS A TE AJUDAR, MESMO SENDO DE OUTRA SQUAD. VALORIZAM SEU TRABALHO</t>
+          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NENHUM PONTO CONTRA NADA A RECLAMAR POR ENQUANTO</t>
+          <t>QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[ 0.02588512 -0.02983158 -0.04747744 ...  0.00161669  0.00238258
-  0.02074116]</t>
+          <t>[-0.00886755  0.00672509 -0.04435385 ...  0.02535574 -0.05670657
+  0.029976  ]</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2972,37 +3000,37 @@
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>51.91781997680664</v>
+        <v>32.55181121826172</v>
       </c>
       <c r="I63" t="n">
-        <v>2.123978614807129</v>
+        <v>14.29541492462158</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR, VALORIZAM O FUNCIONARIO, AMBIENTE AGRADAVEL, DINAMICO, RICO E DIVERSO. | CONTRAS: NENHUM QUE EU POSSA LEVANTAR.</t>
+          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO, | CONTRAS: NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR, VALORIZAM O FUNCIONARIO, AMBIENTE AGRADAVEL, DINAMICO, RICO E DIVERSO.</t>
+          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO,</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NENHUM QUE EU POSSA LEVANTAR.</t>
+          <t>NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[ 0.01875886  0.04641286 -0.01764626 ... -0.02898035 -0.00134882
-  0.03050653]</t>
+          <t>[-0.00621002 -0.01614256 -0.04314301 ...  0.01560406 -0.0659321
+  0.00651388]</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3012,37 +3040,37 @@
         <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>44.35456848144531</v>
+        <v>31.55323791503906</v>
       </c>
       <c r="I64" t="n">
-        <v>0.67027747631073</v>
+        <v>-2.039183616638184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SR TECH MANAGER</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROS: * SALARIO COMPATIVEL COM O MERCADO; * EXCELENTE CLIMA ORGANIZACIONAL; | CONTRAS: NAO TENHO NENHUM ITEM CONTRA, A EMPRESA OFERECE TUDO QUE UM PROFISSIONAL PRECISA PARA EXERCER SUA FUNCAO.</t>
+          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS. | CONTRAS: A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PROS: * SALARIO COMPATIVEL COM O MERCADO; * EXCELENTE CLIMA ORGANIZACIONAL;</t>
+          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUM ITEM CONTRA, A EMPRESA OFERECE TUDO QUE UM PROFISSIONAL PRECISA PARA EXERCER SUA FUNCAO.</t>
+          <t>A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[-0.02237243 -0.03104247 -0.05650573 ... -0.00687553 -0.0779082
-  0.01181178]</t>
+          <t>[-0.02092     0.00450584 -0.01262232 ... -0.00884494 -0.03947626
+  0.00902032]</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3052,37 +3080,43 @@
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>60.50120544433594</v>
+        <v>-44.53565216064453</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9258826971054077</v>
+        <v>-6.01927661895752</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>SOFTWARE DEVELOPER I</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: NADA ATE O MOMENTO, MAS ACREDITO QUE ISSO VAI VARIAR DE ACORDO COM O GESTOR. O MEU E MARAVILHOSO!</t>
+          <t>PROS: LIDERANCAS MUITO BOAS
+FEEDBACK PRODUTIVO
+EMPRESA BEM ORGANIZADA
+PRIORIZA SEGURANCA | CONTRAS: TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E OPORTUNIDADES DE CRESCIMENTO.</t>
+          <t>PROS: LIDERANCAS MUITO BOAS
+FEEDBACK PRODUTIVO
+EMPRESA BEM ORGANIZADA
+PRIORIZA SEGURANCA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NADA ATE O MOMENTO, MAS ACREDITO QUE ISSO VAI VARIAR DE ACORDO COM O GESTOR. O MEU E MARAVILHOSO!</t>
+          <t>TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[-0.02924372  0.01431197 -0.0128308  ... -0.02189871 -0.04672961
- -0.00537636]</t>
+          <t>[-0.03022974  0.01149145 -0.0239025  ...  0.00643007 -0.04882653
+ -0.0148055 ]</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3092,37 +3126,37 @@
         <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>42.77766418457031</v>
+        <v>28.36406707763672</v>
       </c>
       <c r="I66" t="n">
-        <v>3.547912359237671</v>
+        <v>8.752964019775391</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOFTWARE DEV III</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EXCELENTE PARA SE TRABALHAR E CRESCER PROFISSIONALMENTE. TIME DE ALTA PERFORMANCE E TECNOLOGIAS DE PONTA EM TODOS OS PRODUTOS. | CONTRAS: BANCO INTER NAO POSSUI CONTRAS</t>
+          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS | CONTRAS: PODERIA SER 100% HOME OFFICE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EXCELENTE PARA SE TRABALHAR E CRESCER PROFISSIONALMENTE. TIME DE ALTA PERFORMANCE E TECNOLOGIAS DE PONTA EM TODOS OS PRODUTOS.</t>
+          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BANCO INTER NAO POSSUI CONTRAS</t>
+          <t>PODERIA SER 100% HOME OFFICE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[ 0.03112891 -0.02511198 -0.03829128 ...  0.02349353 -0.03793884
- -0.03044363]</t>
+          <t>[ 0.00423396  0.01900599 -0.04799246 ... -0.02205734 -0.04497654
+  0.01368951]</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3132,37 +3166,45 @@
         <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>47.12502288818359</v>
+        <v>30.95514106750488</v>
       </c>
       <c r="I67" t="n">
-        <v>11.57419490814209</v>
+        <v>-6.717596530914307</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA PARA SE TRABALHAR, LUGAR DE MUITO APRENDIZADO E TROCA DE CONHECIMENTO! EXCELENTE | CONTRAS: AINDA NAO POSSUO CONTRAS SOBRE A EMPRESA</t>
+          <t>PROS: OPORTUNIDADE DE CARREIRA
+AMBIENTE DESAFIADOR
+BONS BENEFICIOS | CONTRAS: PLR
+NAO POSSUI PREVIDENCIA COMPLEMENTAR
+100% PRESENCIAL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA PARA SE TRABALHAR, LUGAR DE MUITO APRENDIZADO E TROCA DE CONHECIMENTO! EXCELENTE</t>
+          <t>PROS: OPORTUNIDADE DE CARREIRA
+AMBIENTE DESAFIADOR
+BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AINDA NAO POSSUO CONTRAS SOBRE A EMPRESA</t>
+          <t>PLR
+NAO POSSUI PREVIDENCIA COMPLEMENTAR
+100% PRESENCIAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[-0.03489363 -0.01664465 -0.03094447 ... -0.01251909 -0.0760366
- -0.02982908]</t>
+          <t>[-0.05710358  0.00225257 -0.00689728 ...  0.00310535 -0.0468839
+  0.01529546]</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3172,37 +3214,37 @@
         <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>56.86684799194336</v>
+        <v>22.30398178100586</v>
       </c>
       <c r="I68" t="n">
-        <v>2.500687599182129</v>
+        <v>6.907236099243164</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>SQUAD LEADER</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DIVERSA E SEMPRE DISPOSTA A AJUDAR NAS TAREFAS DO DIA A DIA | CONTRAS: NAO FOI ENCONTRADO NENHUM CONTRA ATE O MOMENTO</t>
+          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR. | CONTRAS: PRESENCIAL AQUI EM BELO HORIZONTE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DIVERSA E SEMPRE DISPOSTA A AJUDAR NAS TAREFAS DO DIA A DIA</t>
+          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NAO FOI ENCONTRADO NENHUM CONTRA ATE O MOMENTO</t>
+          <t>PRESENCIAL AQUI EM BELO HORIZONTE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[ 0.03902613 -0.00530011 -0.05339208 ...  0.01992047 -0.01825104
- -0.00907073]</t>
+          <t>[-0.0267741   0.01040121 -0.01733412 ...  0.01923434 -0.00520305
+  0.02066994]</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3212,37 +3254,37 @@
         <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>47.94878387451172</v>
+        <v>28.82066535949707</v>
       </c>
       <c r="I69" t="n">
-        <v>5.359412670135498</v>
+        <v>10.78156661987305</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROS: PLR, COMISSAO DE VENDAS, VR E VA, PLANO DE SAUDE. | CONTRAS: NAO VEJO PONTOS NEGATIVOS PARA A EMPRESA</t>
+          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES . | CONTRAS: SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PROS: PLR, COMISSAO DE VENDAS, VR E VA, PLANO DE SAUDE.</t>
+          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES .</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NAO VEJO PONTOS NEGATIVOS PARA A EMPRESA</t>
+          <t>SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[-0.02298694 -0.03133165 -0.04063221 ...  0.02749797 -0.04522668
-  0.00874282]</t>
+          <t>[-0.06325245 -0.01610595 -0.02022112 ...  0.00908009 -0.03945377
+  0.00033766]</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3252,37 +3294,37 @@
         <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>57.94997024536133</v>
+        <v>22.1751651763916</v>
       </c>
       <c r="I70" t="n">
-        <v>4.544081687927246</v>
+        <v>9.549093246459961</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE LUGAR PARA TRABALHAR, COM VALORIZACAO E CARREIRA ACELERADA. BOAS LIDERANCAS. BACKGROUND TECNOLOGICO PRONTO PARA FACILITAR AS ENTREGAS. | CONTRAS: SEM PONTOS CONTRAS PARA ADICIONAR.</t>
+          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS | CONTRAS: TRABALHO E NA MODALIDADE PRESENCIAL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE LUGAR PARA TRABALHAR, COM VALORIZACAO E CARREIRA ACELERADA. BOAS LIDERANCAS. BACKGROUND TECNOLOGICO PRONTO PARA FACILITAR AS ENTREGAS.</t>
+          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SEM PONTOS CONTRAS PARA ADICIONAR.</t>
+          <t>TRABALHO E NA MODALIDADE PRESENCIAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[ 0.00193805 -0.01023214 -0.04096591 ... -0.01472588 -0.0739591
-  0.01504261]</t>
+          <t>[ 0.00361396  0.00332042 -0.035672   ...  0.04430081 -0.05610407
+  0.00222194]</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3292,37 +3334,37 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>52.21924591064453</v>
+        <v>27.97001266479492</v>
       </c>
       <c r="I71" t="n">
-        <v>12.02104949951172</v>
+        <v>7.334691047668457</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>ANALISTA SOLUCOES II</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE. TANTO A EMPRESA QUANTO OS FUNCIONARIOS SEMPRE TENTANDO O MELHOR. | CONTRAS: NAO TIVE NENHUMA EXPERIENCIA NEGATIVA ATE O MOMENTO.</t>
+          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS | CONTRAS: A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE. TANTO A EMPRESA QUANTO OS FUNCIONARIOS SEMPRE TENTANDO O MELHOR.</t>
+          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NAO TIVE NENHUMA EXPERIENCIA NEGATIVA ATE O MOMENTO.</t>
+          <t>A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[-0.00537813 -0.04495493 -0.04832702 ... -0.00081677 -0.03732028
- -0.0164359 ]</t>
+          <t>[-0.02183793 -0.01178277 -0.04255221 ...  0.02948489 -0.06584557
+ -0.00546445]</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3332,37 +3374,37 @@
         <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>56.07735061645508</v>
+        <v>31.24264717102051</v>
       </c>
       <c r="I72" t="n">
-        <v>5.544548511505127</v>
+        <v>7.918139934539795</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ANALISTA DE INVESTIMENTOS</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTES LOCAL DE TRABALHO E CLIMA, OPORTUNIDADE DE DESENVOLVIMENTO | CONTRAS: NENHUMA SITUACAO QUE EU ME RECORDE</t>
+          <t>PROS: SALARIO COMPATIVEL COM O MERCADO | CONTRAS: FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTES LOCAL DE TRABALHO E CLIMA, OPORTUNIDADE DE DESENVOLVIMENTO</t>
+          <t>PROS: SALARIO COMPATIVEL COM O MERCADO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NENHUMA SITUACAO QUE EU ME RECORDE</t>
+          <t>FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[ 0.03736997 -0.01044365 -0.06316953 ... -0.03228462 -0.02428067
- -0.01740513]</t>
+          <t>[ 0.00894982  0.00058856 -0.02626846 ...  0.01054131 -0.0474486
+ -0.01670653]</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3372,37 +3414,37 @@
         <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>45.80930709838867</v>
+        <v>19.85048866271973</v>
       </c>
       <c r="I73" t="n">
-        <v>1.957791566848755</v>
+        <v>8.373468399047852</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SENIOR FRONTEND DEVELOPER</t>
+          <t>ANALISTA FRONT END SENIOR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROS: PARTICIPO DE UMA EQUIPE BACANA COM CLIMA AGRADAVEL. FLEXIBILIDADE E BOM VALE REFEICAO ALIMENTACAO. | CONTRAS: NENHUM CONTRA ATE O MOMENTO.</t>
+          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA. | CONTRAS: MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PROS: PARTICIPO DE UMA EQUIPE BACANA COM CLIMA AGRADAVEL. FLEXIBILIDADE E BOM VALE REFEICAO ALIMENTACAO.</t>
+          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NENHUM CONTRA ATE O MOMENTO.</t>
+          <t>MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[ 0.03126408 -0.0128083  -0.0677307  ... -0.00779675 -0.04180322
- -0.03755186]</t>
+          <t>[-0.03614717  0.00460614 -0.0565142  ...  0.02656751 -0.04347127
+  0.02828675]</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3412,37 +3454,37 @@
         <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>49.57923126220703</v>
+        <v>28.7296199798584</v>
       </c>
       <c r="I74" t="n">
-        <v>6.200051784515381</v>
+        <v>1.12258517742157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>COORDENADOR DE GROWTH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INCRIVEL E COM VARIOS BENEFICIOS. | CONTRAS: SEM CONTRAS, EMPRESA COM O AMBIENTE MUITO BOM E QUE SE PREOCUPA COM SEUS FUNCIONARIOS.</t>
+          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES. | CONTRAS: MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INCRIVEL E COM VARIOS BENEFICIOS.</t>
+          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SEM CONTRAS, EMPRESA COM O AMBIENTE MUITO BOM E QUE SE PREOCUPA COM SEUS FUNCIONARIOS.</t>
+          <t>MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[-0.0377121  -0.01693768 -0.058035   ...  0.0012931  -0.04556588
- -0.04440925]</t>
+          <t>[-0.0326104   0.00985104 -0.03945314 ...  0.02093988 -0.02085974
+ -0.01397331]</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3452,37 +3494,37 @@
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>61.83156585693359</v>
+        <v>20.72369766235352</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6285412907600403</v>
+        <v>6.320693969726562</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE CARREIRA, OTIMOS BENEFICIOS, CLIMA BOM ENTRE AS EQUIPES. | CONTRAS: NAO VEJO PONTOS NEGATIVOS EM SE TRABALHAR NO INTER.</t>
+          <t>PROS: EMPRESA MUITO LEGAL E ABERTA. | CONTRAS: NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE CARREIRA, OTIMOS BENEFICIOS, CLIMA BOM ENTRE AS EQUIPES.</t>
+          <t>PROS: EMPRESA MUITO LEGAL E ABERTA.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NAO VEJO PONTOS NEGATIVOS EM SE TRABALHAR NO INTER.</t>
+          <t>NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[-0.00343181 -0.02447688 -0.05251987 ...  0.02357467 -0.04290602
-  0.01644644]</t>
+          <t>[-0.00125005 -0.03532332 -0.04551557 ... -0.01581206 -0.06580534
+ -0.02316671]</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3492,37 +3534,37 @@
         <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>60.95111083984375</v>
+        <v>34.52063751220703</v>
       </c>
       <c r="I76" t="n">
-        <v>6.062961578369141</v>
+        <v>-6.497648239135742</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROS: UMA EMPRESA MARAVILHOSA QUE BUSCA SEMPRE O MELHOR PARA O COLABORADOR. | CONTRAS: NAO TENHO NADA A ADICIONAR COMO UM CONTRA DA EMPRESA.</t>
+          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES. | CONTRAS: EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PROS: UMA EMPRESA MARAVILHOSA QUE BUSCA SEMPRE O MELHOR PARA O COLABORADOR.</t>
+          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A ADICIONAR COMO UM CONTRA DA EMPRESA.</t>
+          <t>EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[-0.00369512 -0.00496678 -0.03197233 ... -0.00623591 -0.05567763
-  0.00481512]</t>
+          <t>[-0.031213    0.01288762  0.00157697 ...  0.02326969 -0.08787385
+  0.0111258 ]</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3532,37 +3574,37 @@
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>55.81590270996094</v>
+        <v>32.55148315429688</v>
       </c>
       <c r="I77" t="n">
-        <v>1.201317429542542</v>
+        <v>14.33853054046631</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, CRESCIMENTO PROFISSIONAL E MUITO INCENTIVO AO ESTUDO. | CONTRAS: AINDA NAO VI NENHUM PRO NA EMPRESA, SEMPRE FUI MUITO SANGUE LARANJA.</t>
+          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS | CONTRAS: AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, CRESCIMENTO PROFISSIONAL E MUITO INCENTIVO AO ESTUDO.</t>
+          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AINDA NAO VI NENHUM PRO NA EMPRESA, SEMPRE FUI MUITO SANGUE LARANJA.</t>
+          <t>AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[-0.05291146 -0.00157024 -0.04886984 ...  0.03070262 -0.02506903
-  0.07629614]</t>
+          <t>[-0.00431584  0.01816787 -0.04548356 ... -0.01007666 -0.03827336
+  0.00445132]</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3572,37 +3614,37 @@
         <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>56.26346588134766</v>
+        <v>31.28754997253418</v>
       </c>
       <c r="I78" t="n">
-        <v>-5.69712495803833</v>
+        <v>10.58742809295654</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MOBILE SPECIALIST</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROS: UM DOS MELHORES LUGARES PARA SE TRABALHAR, RECONHECIMENTO E VALORIZACAO DO PROFISSIONAL | CONTRAS: NO PERIODO DE UM ANO, NADA AINDA A QUESTIONAR</t>
+          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL | CONTRAS: NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PROS: UM DOS MELHORES LUGARES PARA SE TRABALHAR, RECONHECIMENTO E VALORIZACAO DO PROFISSIONAL</t>
+          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NO PERIODO DE UM ANO, NADA AINDA A QUESTIONAR</t>
+          <t>NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[ 0.01346618  0.00315222 -0.05222229 ...  0.00995943 -0.00272474
-  0.00707788]</t>
+          <t>[-0.02642378 -0.03322826 -0.03264328 ...  0.00649812 -0.05491585
+ -0.01144214]</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3612,37 +3654,37 @@
         <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>51.98876571655273</v>
+        <v>33.87486267089844</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8233439326286316</v>
+        <v>-6.824520587921143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ANALISTA DE SEGURANCA DA INFORMACAO</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO EXPONENCIAL DA EMPRESA, COM MUITAS LINHAS DE NEGOCIO. | CONTRAS: NAO HA EM RELACAO AO BENCH</t>
+          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS | CONTRAS: VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO EXPONENCIAL DA EMPRESA, COM MUITAS LINHAS DE NEGOCIO.</t>
+          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NAO HA EM RELACAO AO BENCH</t>
+          <t>VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[-0.00887678 -0.01777914 -0.06009673 ...  0.00301609 -0.02026625
-  0.01121857]</t>
+          <t>[-0.00697409  0.01524449 -0.03793512 ... -0.00186482 -0.05585504
+  0.02219568]</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3652,37 +3694,37 @@
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>45.26070785522461</v>
+        <v>33.15145492553711</v>
       </c>
       <c r="I80" t="n">
-        <v>7.974142551422119</v>
+        <v>10.96708202362061</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DEV ESPECIALISTA</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROS: MUITO TRANSPARENTE. RECONHECIMENTO PELO TRABALHO. BONS BENEFICIOS. | CONTRAS: AINDA SEM PONTOS CONTRA A COMENTAR</t>
+          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO. | CONTRAS: CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PROS: MUITO TRANSPARENTE. RECONHECIMENTO PELO TRABALHO. BONS BENEFICIOS.</t>
+          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AINDA SEM PONTOS CONTRA A COMENTAR</t>
+          <t>CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[ 0.01196305  0.00474945 -0.01662948 ... -0.01685798 -0.04159058
-  0.03777655]</t>
+          <t>[-0.01730465 -0.00278825 -0.04186657 ...  0.0088452  -0.01794557
+  0.06624416]</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3692,37 +3734,37 @@
         <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>53.96843719482422</v>
+        <v>25.03549385070801</v>
       </c>
       <c r="I81" t="n">
-        <v>13.35801792144775</v>
+        <v>-1.205379843711853</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE MESA NEGOCIOS</t>
+          <t>SRE ENGINEER</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, SUPORTE DE SUPERIORES, FERRAMENTAS DE TRABALHO COMPATIVEIS. | CONTRAS: NENHUMA INSATISFACAO A RELATAR NO PERIODO DE TRABALHO.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO | CONTRAS: 100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, SUPORTE DE SUPERIORES, FERRAMENTAS DE TRABALHO COMPATIVEIS.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NENHUMA INSATISFACAO A RELATAR NO PERIODO DE TRABALHO.</t>
+          <t>100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[-0.00979424 -0.05601176 -0.07397158 ...  0.00864422 -0.03498738
- -0.01076533]</t>
+          <t>[-0.03840589  0.00696638 -0.03128608 ...  0.02097161 -0.01085034
+  0.00628851]</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3732,37 +3774,37 @@
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>56.2493782043457</v>
+        <v>21.11562728881836</v>
       </c>
       <c r="I82" t="n">
-        <v>4.025054454803467</v>
+        <v>4.271371364593506</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>UI/UX DESIGNER PLENO</t>
+          <t>ENGENHEIRO DE DADOS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROS: POSSUI UMA CULTURA DE VALORIZACAO INTERNA MUITO INTERESSANTE, COM PROMOCOES E MERITOS. | CONTRAS: SEM NADA PARA CONSTAR NO MOMENTO.</t>
+          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO | CONTRAS: 100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PROS: POSSUI UMA CULTURA DE VALORIZACAO INTERNA MUITO INTERESSANTE, COM PROMOCOES E MERITOS.</t>
+          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SEM NADA PARA CONSTAR NO MOMENTO.</t>
+          <t>100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[ 0.00264024  0.03630519 -0.03321252 ... -0.02183647 -0.02919928
- -0.01739087]</t>
+          <t>[-0.00989991  0.01066394 -0.01530047 ... -0.02314569 -0.03312112
+  0.02320087]</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3772,37 +3814,37 @@
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>43.91897201538086</v>
+        <v>23.90046310424805</v>
       </c>
       <c r="I83" t="n">
-        <v>2.043556928634644</v>
+        <v>-1.38571310043335</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ESPECIALISTA</t>
+          <t>ASSISTANT MANAGER</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, INSPIRADORA E ALTAMENTE COMPROMETIDA COM SEUS FUNCIONARIOS | CONTRAS: NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR | CONTRAS: PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, INSPIRADORA E ALTAMENTE COMPROMETIDA COM SEUS FUNCIONARIOS</t>
+          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+          <t>PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[ 0.02034525  0.00168528 -0.04251616 ... -0.02473557 -0.04975003
- -0.0168595 ]</t>
+          <t>[ 0.02672206  0.00530708 -0.03180679 ...  0.02217198 -0.02270452
+  0.02978247]</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3812,37 +3854,37 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>50.28750610351562</v>
+        <v>25.23448181152344</v>
       </c>
       <c r="I84" t="n">
-        <v>7.831425666809082</v>
+        <v>9.201034545898438</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ADVOGADO SENIOR</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROS: DINAMICO, ALEGRE, INOVADOR, ESTRATEGICO, INSTIGANTE | CONTRAS: EU NAO VEJO PONTOS NEGATIVOS EM TRABALHAR NO INTER</t>
+          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO | CONTRAS: 0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PROS: DINAMICO, ALEGRE, INOVADOR, ESTRATEGICO, INSTIGANTE</t>
+          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>EU NAO VEJO PONTOS NEGATIVOS EM TRABALHAR NO INTER</t>
+          <t>0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[ 0.00267567 -0.03244263 -0.05560921 ...  0.01329052 -0.04778294
-  0.02225502]</t>
+          <t>[-0.06224355  0.03625593 -0.03507142 ...  0.00752351 -0.03629234
+  0.00353786]</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3852,37 +3894,37 @@
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>60.95666122436523</v>
+        <v>30.46943283081055</v>
       </c>
       <c r="I85" t="n">
-        <v>6.118739128112793</v>
+        <v>-5.584045886993408</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DEV 3</t>
+          <t>ANALISTA DE SEGURANCA DA INFORMACAO SENIOR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO E PROMOCOES AVALIADOS DE ACORDO COM MERITO DE FORMA JUSTA | CONTRAS: NA A RECLAMAR NO MOMENTO</t>
+          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO E PROMOCOES AVALIADOS DE ACORDO COM MERITO DE FORMA JUSTA</t>
+          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NA A RECLAMAR NO MOMENTO</t>
+          <t>MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[-0.00304538  0.02970875 -0.05182897 ...  0.00486397 -0.0117377
- -0.03264209]</t>
+          <t>[-0.01980272 -0.00165229 -0.03722713 ...  0.01001335 -0.03513224
+  0.03515693]</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3892,37 +3934,37 @@
         <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>44.27193069458008</v>
+        <v>26.85247611999512</v>
       </c>
       <c r="I86" t="n">
-        <v>5.982561588287354</v>
+        <v>8.59781551361084</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE DEVELOPER</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROS: LIBERDADE, ALTA TECNOLOGIA, COLABORATIVO, INOVACAO, RECONHECIMENTO | CONTRAS: NAO TEM CONTRAS EM TRABALHAR NO INTER</t>
+          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES. | CONTRAS: O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PROS: LIBERDADE, ALTA TECNOLOGIA, COLABORATIVO, INOVACAO, RECONHECIMENTO</t>
+          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NAO TEM CONTRAS EM TRABALHAR NO INTER</t>
+          <t>O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[ 0.02890466 -0.0435391  -0.04895726 ...  0.02177021 -0.03997718
- -0.01057376]</t>
+          <t>[-0.0431212  -0.0147208  -0.04119771 ...  0.02314336 -0.05330416
+  0.01423836]</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3932,37 +3974,37 @@
         <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>61.38332366943359</v>
+        <v>22.97611045837402</v>
       </c>
       <c r="I87" t="n">
-        <v>6.803143978118896</v>
+        <v>6.354546546936035</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>ANALISTA DE AUTOMACAO DE PROCESSOS JUNIOR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROS: LOCALIZACAO DO RSCRITORIO, QUALIDADE DO ESCRITORIO, TIME SENSACIONAL | CONTRAS: NENHUM, POR ENQUANTO, DESDE QUE ESTOU AQUI</t>
+          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR. | CONTRAS: MODELO PRESENCIAL E NAO TEM PLR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PROS: LOCALIZACAO DO RSCRITORIO, QUALIDADE DO ESCRITORIO, TIME SENSACIONAL</t>
+          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NENHUM, POR ENQUANTO, DESDE QUE ESTOU AQUI</t>
+          <t>MODELO PRESENCIAL E NAO TEM PLR</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[ 0.0043354   0.03320887 -0.01637933 ... -0.03438855 -0.02186291
- -0.00417055]</t>
+          <t>[-0.04694185 -0.01493592 -0.01786415 ...  0.01757115 -0.0508334
+ -0.0149321 ]</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3972,37 +4014,37 @@
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>43.07143020629883</v>
+        <v>26.56685066223145</v>
       </c>
       <c r="I88" t="n">
-        <v>1.171728372573853</v>
+        <v>5.613861560821533</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>CIENTISTA DE DADOS SENIOR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE PARA TRABALHAR EM QUE SE PODE CRESCER MUITO. | CONTRAS: NAO HA NADA CONTRA A DIZER.</t>
+          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS | CONTRAS: ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE PARA TRABALHAR EM QUE SE PODE CRESCER MUITO.</t>
+          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NAO HA NADA CONTRA A DIZER.</t>
+          <t>ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[ 0.01477188 -0.02424662 -0.02872089 ... -0.00275835 -0.02182467
-  0.01089822]</t>
+          <t>[ 0.01247508  0.01109592 -0.02342064 ...  0.02964051 -0.05869276
+  0.00753827]</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4012,37 +4054,37 @@
         <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>52.50542449951172</v>
+        <v>32.18167495727539</v>
       </c>
       <c r="I89" t="n">
-        <v>5.266654968261719</v>
+        <v>4.313594341278076</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ANALISTA DE FORMALIZACAO JUNIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, TRANQUILA DE MAIS, BOA DE TRABALHAR | CONTRAS: NADA A DECLARA, EMPRESA RENOMADA E MUITO BOA DE SE TRABALHAR</t>
+          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR | CONTRAS: MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, TRANQUILA DE MAIS, BOA DE TRABALHAR</t>
+          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NADA A DECLARA, EMPRESA RENOMADA E MUITO BOA DE SE TRABALHAR</t>
+          <t>MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[-0.02136526  0.00991865 -0.0529993  ...  0.0180432  -0.04246658
- -0.01452608]</t>
+          <t>[-0.04463721 -0.01792911 -0.05522779 ...  0.01981722 -0.06385035
+ -0.02456266]</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4052,37 +4094,37 @@
         <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>52.56266403198242</v>
+        <v>26.80645751953125</v>
       </c>
       <c r="I90" t="n">
-        <v>-5.592288017272949</v>
+        <v>7.484464645385742</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOFTWARE ENGINEER</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA PARA TRABALHAR. PARTICIPACAO NOS LUCROS. | CONTRAS: NENHUM CONTRA. E UMA EXCELENTE EMPRESA PARA SE TRABALHAR.</t>
+          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL | CONTRAS: ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA PARA TRABALHAR. PARTICIPACAO NOS LUCROS.</t>
+          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NENHUM CONTRA. E UMA EXCELENTE EMPRESA PARA SE TRABALHAR.</t>
+          <t>ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[-0.02669385 -0.00405867 -0.04811706 ...  0.01520141 -0.05577664
-  0.01093063]</t>
+          <t>[-0.01882992  0.01385336 -0.03216265 ... -0.01331801 -0.06572375
+  0.00095199]</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4092,37 +4134,37 @@
         <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>59.83434677124023</v>
+        <v>37.05435943603516</v>
       </c>
       <c r="I91" t="n">
-        <v>1.217176914215088</v>
+        <v>-10.39218902587891</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GERENTE EXECUTIVO</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO E ROTINA MUITO AGRADAVEIS | CONTRAS: NAO EXISTENCIA DE BONIFICACAO POR RESULTADO</t>
+          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO | CONTRAS: A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO E ROTINA MUITO AGRADAVEIS</t>
+          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NAO EXISTENCIA DE BONIFICACAO POR RESULTADO</t>
+          <t>A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[-0.03158334 -0.02123163 -0.0281296  ... -0.00710163 -0.035162
-  0.00765657]</t>
+          <t>[ 4.2562220e-05  3.4675654e-02 -3.8956873e-02 ...  1.0962432e-02
+ -5.4139994e-02  2.2035753e-02]</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4132,37 +4174,37 @@
         <v>6</v>
       </c>
       <c r="H92" t="n">
-        <v>20.29778671264648</v>
+        <v>18.35540962219238</v>
       </c>
       <c r="I92" t="n">
-        <v>20.44447135925293</v>
+        <v>10.47652435302734</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR. | CONTRAS: NENHUMA OPINIAO CONTRA SOBRE A EMPRESA.</t>
+          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA | CONTRAS: NAO POSSUI HOME DEFORMA DEFINIDA.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR.</t>
+          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NENHUMA OPINIAO CONTRA SOBRE A EMPRESA.</t>
+          <t>NAO POSSUI HOME DEFORMA DEFINIDA.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[-0.0257869  -0.02253564 -0.04281887 ...  0.01249754 -0.03170429
-  0.00425674]</t>
+          <t>[ 0.01055658 -0.01357716 -0.0566688  ... -0.00583292 -0.078072
+ -0.00301331]</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4172,37 +4214,37 @@
         <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>55.041015625</v>
+        <v>35.64292907714844</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3374764919281006</v>
+        <v>-6.051323413848877</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE INVESTIMENTOS</t>
+          <t>SENIOR SOFTWARE ENGINEER</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM TRABALHAR NO INTER | CONTRAS: NAO TEM AVALIACAO NEGATIVA NO PERIODO QUE FIQUEI.</t>
+          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS | CONTRAS: TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM TRABALHAR NO INTER</t>
+          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NAO TEM AVALIACAO NEGATIVA NO PERIODO QUE FIQUEI.</t>
+          <t>TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[-0.01824515 -0.04481698 -0.05610046 ... -0.02707864 -0.0346699
-  0.00093042]</t>
+          <t>[-0.02923028  0.00997796 -0.02107285 ...  0.01436391 -0.03400201
+  0.07079501]</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4212,37 +4254,37 @@
         <v>6</v>
       </c>
       <c r="H94" t="n">
-        <v>56.10958862304688</v>
+        <v>24.03276252746582</v>
       </c>
       <c r="I94" t="n">
-        <v>5.650275230407715</v>
+        <v>-5.718070983886719</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA QUE VALORIZA OS FUNCIONARIOS | CONTRAS: TODA EMPRESA TEM SEUS CONTRAS, MAS NO MOMENTO ESTOU SATISFEITA</t>
+          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO. | CONTRAS: PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA QUE VALORIZA OS FUNCIONARIOS</t>
+          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>TODA EMPRESA TEM SEUS CONTRAS, MAS NO MOMENTO ESTOU SATISFEITA</t>
+          <t>PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[-0.00177334 -0.03812392 -0.0617057  ... -0.0145097  -0.08590574
-  0.00015151]</t>
+          <t>[-0.04200723 -0.00656604 -0.00972573 ... -0.01036839 -0.02806559
+ -0.0252804 ]</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4252,37 +4294,37 @@
         <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>62.85698699951172</v>
+        <v>15.6026725769043</v>
       </c>
       <c r="I95" t="n">
-        <v>2.132048606872559</v>
+        <v>10.77883720397949</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>ANALISTA DE SUSTENTACAO PLENO</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EQUIPE, EMPRESA DINAMICA, LIDERANCA ABERTA A DISCUSSAO | CONTRAS: NAO TEM MUITO O QUE RECLAMAR DA EMPRESA EM SI</t>
+          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE. | CONTRAS: TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EQUIPE, EMPRESA DINAMICA, LIDERANCA ABERTA A DISCUSSAO</t>
+          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NAO TEM MUITO O QUE RECLAMAR DA EMPRESA EM SI</t>
+          <t>TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[-0.02315923  0.00278134 -0.03740219 ... -0.00524655 -0.05088712
-  0.0082707 ]</t>
+          <t>[-0.01390741 -0.00811709 -0.02941687 ...  0.0072409  -0.04422035
+ -0.00310236]</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4292,37 +4334,37 @@
         <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>55.23841094970703</v>
+        <v>24.11123085021973</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.26545524597168</v>
+        <v>10.36764907836914</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROS: NOVAS TECNOLOGIAS, EXCELENTE COLEGAS E AUTONOMIA | CONTRAS: NAO TENHO NADA A RECLAMAR</t>
+          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO. | CONTRAS: POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PROS: NOVAS TECNOLOGIAS, EXCELENTE COLEGAS E AUTONOMIA</t>
+          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A RECLAMAR</t>
+          <t>POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[ 0.00421884 -0.00511056 -0.02828177 ... -0.01646771 -0.01994656
-  0.01321092]</t>
+          <t>[-0.05795429 -0.00445272 -0.02166495 ... -0.00181581 -0.03352
+ -0.01316566]</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4332,37 +4374,37 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>47.96622467041016</v>
+        <v>22.47424507141113</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8764870762825012</v>
+        <v>7.842618942260742</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRODUCT ANALYST</t>
+          <t>ANALISTA JUNIOR I</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PROS: TUDO E PRO: AMBIENTE, BENEFICIOS, EQUIPE | CONTRAS: NADA DE RUIM! SINCERAMENTE, MELHOR EMPRESA NA QUAL TRABALHEI.</t>
+          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS | CONTRAS: VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PROS: TUDO E PRO: AMBIENTE, BENEFICIOS, EQUIPE</t>
+          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NADA DE RUIM! SINCERAMENTE, MELHOR EMPRESA NA QUAL TRABALHEI.</t>
+          <t>VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[-0.04349823  0.0156697  -0.05002962 ...  0.00639112 -0.03905164
- -0.02301681]</t>
+          <t>[-0.02572753  0.00813708 -0.03671625 ... -0.00742444 -0.01693461
+  0.02700856]</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4372,37 +4414,37 @@
         <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>59.01562881469727</v>
+        <v>19.07825088500977</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.7098003625869751</v>
+        <v>6.472733020782471</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ACESSOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, AUTONOMIA, TEMPO PARA LAZER | CONTRAS: NADA, SIMPLESMENTE NADA, OTIMO, E ISSO</t>
+          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO | CONTRAS: PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, AUTONOMIA, TEMPO PARA LAZER</t>
+          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NADA, SIMPLESMENTE NADA, OTIMO, E ISSO</t>
+          <t>PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[-0.00057782  0.00952421 -0.02970983 ... -0.03437508  0.00091685
- -0.03279838]</t>
+          <t>[-0.01219322 -0.03488651 -0.04655115 ...  0.0257562  -0.05618111
+  0.02621965]</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4412,37 +4454,37 @@
         <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>48.3037109375</v>
+        <v>23.49826622009277</v>
       </c>
       <c r="I99" t="n">
-        <v>-3.599848031997681</v>
+        <v>11.32306480407715</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>JOVEM APRENDIZ ADMINISTRATIVO</t>
+          <t>ASSISTENTE DE CS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM OTIMA ESTRUTURA E MUITO CUIDADO COM SEUS FUNCIONARIOS. | CONTRAS: NADA A RECLAMAR, NADA A RECLAMAR,</t>
+          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM OTIMA ESTRUTURA E MUITO CUIDADO COM SEUS FUNCIONARIOS.</t>
+          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR, NADA A RECLAMAR,</t>
+          <t>NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[ 0.01839556  0.00356211 -0.04622479 ...  0.01214139  0.01246567
-  0.01334672]</t>
+          <t>[ 0.00328592 -0.03843007 -0.03266748 ... -0.01508216 -0.03869961
+ -0.04896725]</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4452,37 +4494,37 @@
         <v>6</v>
       </c>
       <c r="H100" t="n">
-        <v>49.74436187744141</v>
+        <v>34.82442092895508</v>
       </c>
       <c r="I100" t="n">
-        <v>0.467203825712204</v>
+        <v>-4.790936470031738</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROS: STACK ATRATIVA, SALARIO E VENEFICIOS COMPETITIVOS | CONTRAS: NAO HA ITENS QUE ME DESAGRADARAM ATE O MOMENTO</t>
+          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA. | CONTRAS: TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PROS: STACK ATRATIVA, SALARIO E VENEFICIOS COMPETITIVOS</t>
+          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NAO HA ITENS QUE ME DESAGRADARAM ATE O MOMENTO</t>
+          <t>TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[ 0.00627667 -0.00754289 -0.05691685 ... -0.03321235 -0.02868444
- -0.04770098]</t>
+          <t>[-0.02146049  0.00858761 -0.00569897 ...  0.01418469 -0.01526345
+  0.03966178]</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4492,37 +4534,37 @@
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>48.66831588745117</v>
+        <v>27.1318416595459</v>
       </c>
       <c r="I101" t="n">
-        <v>7.997776031494141</v>
+        <v>11.08401584625244</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TECH LEAD</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA REALMENTE FOCADA EM RESOLVER OS PROBLEMAS DOS CLIENTES. | CONTRAS: NADA QUE INCOMODE POR ENQUANTO.</t>
+          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO | CONTRAS: TRABALHO CEM POR CENTO PRESENCIAL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA REALMENTE FOCADA EM RESOLVER OS PROBLEMAS DOS CLIENTES.</t>
+          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NADA QUE INCOMODE POR ENQUANTO.</t>
+          <t>TRABALHO CEM POR CENTO PRESENCIAL</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[-0.00306018 -0.01474355 -0.04707494 ...  0.00728429  0.00932048
-  0.00873215]</t>
+          <t>[ 0.00547284 -0.00328203 -0.03143762 ... -0.00399434 -0.04723526
+  0.02029747]</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4532,37 +4574,37 @@
         <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>52.68438339233398</v>
+        <v>25.07613754272461</v>
       </c>
       <c r="I102" t="n">
-        <v>2.226220607757568</v>
+        <v>10.51534748077393</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVEDOR.NET</t>
+          <t>ENGENHEIRO DE SOFTWARE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, EQUIPE, EQUIPAMENTOS, OPORTUNIDADES E O RESTO. | CONTRAS: NADA A DIZER, TUDO MUITO BOM PRA MIM.</t>
+          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL | CONTRAS: DEVE TRABALHAR PRESENCIAL EM BH</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, EQUIPE, EQUIPAMENTOS, OPORTUNIDADES E O RESTO.</t>
+          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NADA A DIZER, TUDO MUITO BOM PRA MIM.</t>
+          <t>DEVE TRABALHAR PRESENCIAL EM BH</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[ 0.02645731  0.03645576 -0.03408368 ... -0.02359539 -0.04819452
-  0.01979931]</t>
+          <t>[-0.02447081  0.02239396 -0.0135476  ...  0.02554108 -0.05260482
+  0.02907493]</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -4572,37 +4614,37 @@
         <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>46.63510131835938</v>
+        <v>28.25882530212402</v>
       </c>
       <c r="I103" t="n">
-        <v>-2.183378219604492</v>
+        <v>10.68763828277588</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR DE TRABALHO, CULTURA E CLIMA EXCELENTES | CONTRAS: NAO TEM CONTRAS, EMPRESA EXCELENTE</t>
+          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR | CONTRAS: 100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR DE TRABALHO, CULTURA E CLIMA EXCELENTES</t>
+          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NAO TEM CONTRAS, EMPRESA EXCELENTE</t>
+          <t>100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[-0.02719682 -0.03471213 -0.03360673 ...  0.01544179 -0.0537887
- -0.02222131]</t>
+          <t>[-0.06371853 -0.02129246 -0.03811525 ...  0.04773193 -0.05053665
+ -0.0134103 ]</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4612,37 +4654,37 @@
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>59.06378936767578</v>
+        <v>22.56065368652344</v>
       </c>
       <c r="I104" t="n">
-        <v>2.17431902885437</v>
+        <v>9.810558319091797</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR BACK-END JAVA JUNIOR</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO, DIVERTIDO E PERFEITO PARA CRESCIMENTO PROFISSIONAL | CONTRAS: NAO VEJO NENHUM PONTO NEGATIVO</t>
+          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP. | CONTRAS: EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO, DIVERTIDO E PERFEITO PARA CRESCIMENTO PROFISSIONAL</t>
+          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NAO VEJO NENHUM PONTO NEGATIVO</t>
+          <t>EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[-0.00556963 -0.04001904 -0.0268414  ... -0.01449691 -0.03583763
-  0.0291456 ]</t>
+          <t>[-0.00879673  0.00944173 -0.06147199 ... -0.00978234 -0.05844964
+ -0.02028901]</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -4652,37 +4694,37 @@
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>56.43024063110352</v>
+        <v>22.55442237854004</v>
       </c>
       <c r="I105" t="n">
-        <v>7.004463672637939</v>
+        <v>-14.15257167816162</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE DE TRABALHO E COLEGAS | CONTRAS: NADA, E UM OTIMO LUGAR PARA TRABALHAR</t>
+          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO | CONTRAS: - MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE DE TRABALHO E COLEGAS</t>
+          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NADA, E UM OTIMO LUGAR PARA TRABALHAR</t>
+          <t>- MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[ 0.00114134  0.01491335 -0.05011424 ... -0.02351187 -0.03467099
- -0.03087748]</t>
+          <t>[-0.02167314 -0.01840448 -0.0131838  ...  0.0065007  -0.01866823
+  0.01533075]</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -4692,37 +4734,37 @@
         <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>50.89079666137695</v>
+        <v>20.34240341186523</v>
       </c>
       <c r="I106" t="n">
-        <v>-6.138477325439453</v>
+        <v>5.30105447769165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>PRODUCT ANALYST II</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PROS: BOA EMPRESA, OTIMOS BENEFICIOS, SALARIO MUITO BOM | CONTRAS: NADA CONTRA, EMPRESA PREOCUPADA COM O FUNCIONARIO</t>
+          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS | CONTRAS: MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PROS: BOA EMPRESA, OTIMOS BENEFICIOS, SALARIO MUITO BOM</t>
+          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NADA CONTRA, EMPRESA PREOCUPADA COM O FUNCIONARIO</t>
+          <t>MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[-0.00378482 -0.02920766 -0.05754308 ...  0.01533512 -0.03686416
-  0.01611179]</t>
+          <t>[-0.04137472 -0.01715182 -0.02375365 ...  0.02342626 -0.02254412
+ -0.00943949]</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4732,37 +4774,37 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>61.85701751708984</v>
+        <v>29.57888793945312</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4905536472797394</v>
+        <v>7.796015739440918</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MODERNA , COM OTIMO AMBIENTE DE TRABALHO. | CONTRAS: SEM CONTRAS, EXPERIENCIA BEM POSITIVA</t>
+          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO | CONTRAS: PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MODERNA , COM OTIMO AMBIENTE DE TRABALHO.</t>
+          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SEM CONTRAS, EXPERIENCIA BEM POSITIVA</t>
+          <t>PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[-0.02401017 -0.06906583 -0.05159147 ... -0.00679998 -0.04899309
-  0.02372904]</t>
+          <t>[ 0.02042002 -0.01385194 -0.01056426 ... -0.01452612 -0.03035928
+  0.00743763]</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -4772,41 +4814,37 @@
         <v>6</v>
       </c>
       <c r="H108" t="n">
-        <v>59.62495803833008</v>
+        <v>15.10204982757568</v>
       </c>
       <c r="I108" t="n">
-        <v>9.505522727966309</v>
+        <v>9.73295783996582</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO
-MUITO INOVADOR 
-OTIMO LUGAR PARA TRABALHAR | CONTRAS: NAO VEJO NENHUM PONTO NEGATIVO DE TRABALHO</t>
+          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS. | CONTRAS: EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO
-MUITO INOVADOR 
-OTIMO LUGAR PARA TRABALHAR</t>
+          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NAO VEJO NENHUM PONTO NEGATIVO DE TRABALHO</t>
+          <t>EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[-0.0079355  -0.03987526 -0.04228851 ... -0.00221652 -0.03912769
-  0.01971779]</t>
+          <t>[-0.02765662  0.03541273 -0.04791667 ...  0.03039935 -0.04975749
+  0.01035498]</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -4816,37 +4854,37 @@
         <v>6</v>
       </c>
       <c r="H109" t="n">
-        <v>57.63249206542969</v>
+        <v>32.43630599975586</v>
       </c>
       <c r="I109" t="n">
-        <v>6.194175243377686</v>
+        <v>8.365262985229492</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JAVA DEVELOPER</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PROS: EQUIPAMENTOS DE PONTA (MAC), AMBIENTE SUPER COLABORATIVO | CONTRAS: NAO CONSIGO PENSAR EM UM PONTO NEGATIVO.</t>
+          <t>PROS: TIMES MUITO BONS, SALARIO OK. | CONTRAS: TRABALHO PRESENCIAL EM PLENO 2022.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PROS: EQUIPAMENTOS DE PONTA (MAC), AMBIENTE SUPER COLABORATIVO</t>
+          <t>PROS: TIMES MUITO BONS, SALARIO OK.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NAO CONSIGO PENSAR EM UM PONTO NEGATIVO.</t>
+          <t>TRABALHO PRESENCIAL EM PLENO 2022.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[-0.02034107 -0.00470216 -0.01772109 ... -0.03825814 -0.04132259
- -0.00937886]</t>
+          <t>[-0.0146738   0.03112722  0.00292824 ...  0.01628068 -0.06868504
+  0.02844464]</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -4856,37 +4894,37 @@
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>57.50290679931641</v>
+        <v>25.29677581787109</v>
       </c>
       <c r="I110" t="n">
-        <v>8.136842727661133</v>
+        <v>7.007504463195801</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E EXPERIENCIA SENSACIONAL PARA O MERCADO | CONTRAS: NENHUM. NAO SE APLICA NENHUM CONTRA.</t>
+          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK | CONTRAS: - TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E EXPERIENCIA SENSACIONAL PARA O MERCADO</t>
+          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NENHUM. NAO SE APLICA NENHUM CONTRA.</t>
+          <t>- TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[ 0.009513   -0.00448697 -0.05190663 ... -0.0051905  -0.01463461
- -0.00246435]</t>
+          <t>[-0.01289721 -0.00198538 -0.03400381 ...  0.02002389  0.00223851
+ -0.01363144]</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -4896,37 +4934,37 @@
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>50.67864227294922</v>
+        <v>20.81029319763184</v>
       </c>
       <c r="I111" t="n">
-        <v>5.095568656921387</v>
+        <v>4.95382833480835</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA PREOCUPADO COM O FUNCIONARIO R CULTURA | CONTRAS: NAO TENHO PONTOS CONTRA PARA RELATAR</t>
+          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE | CONTRAS: ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA PREOCUPADO COM O FUNCIONARIO R CULTURA</t>
+          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NAO TENHO PONTOS CONTRA PARA RELATAR</t>
+          <t>ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[ 0.02064141 -0.01257819 -0.03744695 ... -0.01598233 -0.06798513
-  0.01946786]</t>
+          <t>[-0.02440664 -0.0282784  -0.0572704  ... -0.01908379 -0.10085484
+  0.02265542]</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4936,37 +4974,37 @@
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>52.13931274414062</v>
+        <v>36.74209213256836</v>
       </c>
       <c r="I112" t="n">
-        <v>6.492376804351807</v>
+        <v>-8.580870628356934</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AGENTE DE ATENDIMENTO</t>
+          <t>ANALISTA DE QUALIDADE JUNIOR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE BENEFICIOS, OTIMA EMPRESA, GOSTEI DE TUDO | CONTRAS: NAO TIVE NADA QUE PUDESSE RECLAMAR</t>
+          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS. | CONTRAS: NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE BENEFICIOS, OTIMA EMPRESA, GOSTEI DE TUDO</t>
+          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NAO TIVE NADA QUE PUDESSE RECLAMAR</t>
+          <t>NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[ 0.02993793 -0.01181826 -0.02746005 ... -0.00940439 -0.01295066
-  0.01594244]</t>
+          <t>[-0.00086796 -0.00507019 -0.02244265 ...  0.02370061 -0.04316027
+  0.03017524]</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4976,41 +5014,37 @@
         <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>48.2651481628418</v>
+        <v>32.20222091674805</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.08788838982582092</v>
+        <v>1.143354296684265</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROS: - SALARIO
-- BENEFICIOS
-- ESTRUTURA ORGANIZACIONAL | CONTRAS: NENHUM ATE O MOMENTO. TUDO TEM FLUIDO BEM.</t>
+          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS | CONTRAS: NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PROS: - SALARIO
-- BENEFICIOS
-- ESTRUTURA ORGANIZACIONAL</t>
+          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NENHUM ATE O MOMENTO. TUDO TEM FLUIDO BEM.</t>
+          <t>NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[ 0.02580377  0.01035428 -0.06982    ... -0.01880984 -0.03606962
- -0.01808502]</t>
+          <t>[ 0.00814594  0.01920126 -0.01103012 ... -0.01789963 -0.0515185
+ -0.02179357]</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5020,37 +5054,37 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>43.21512222290039</v>
+        <v>33.55188369750977</v>
       </c>
       <c r="I114" t="n">
-        <v>2.310947895050049</v>
+        <v>-7.01090669631958</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO, BENEFICIOS E OPORTUNIDADE DE CRESCIMENTO | CONTRAS: NAO IDENTIFIQUEI CONTRAS, SOMENTE BENEFICIOS.</t>
+          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS | CONTRAS: OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO, BENEFICIOS E OPORTUNIDADE DE CRESCIMENTO</t>
+          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NAO IDENTIFIQUEI CONTRAS, SOMENTE BENEFICIOS.</t>
+          <t>OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[-0.01913534 -0.02091307 -0.08385908 ...  0.02549375 -0.03221065
- -0.01056373]</t>
+          <t>[ 0.01715305  0.03158771 -0.01339981 ...  0.01801623 -0.03493379
+ -0.00524589]</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5060,37 +5094,37 @@
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>55.23404312133789</v>
+        <v>30.99463081359863</v>
       </c>
       <c r="I115" t="n">
-        <v>11.39953804016113</v>
+        <v>12.38663101196289</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>DESENVOLVEDOR MASTER</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM, HOME OFFICE , OTIMOS BENEFICIOS ! | CONTRAS: NENHUM ATE O MOMENTO !</t>
+          <t>PROS: TIMES MUITO BONS DE TRABALHAR | CONTRAS: FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM, HOME OFFICE , OTIMOS BENEFICIOS !</t>
+          <t>PROS: TIMES MUITO BONS DE TRABALHAR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NENHUM ATE O MOMENTO !</t>
+          <t>FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[ 0.03381385  0.00215027 -0.04082858 ... -0.01750872 -0.03312293
- -0.03336524]</t>
+          <t>[ 0.01237566  0.02526124 -0.0216654  ... -0.0212113  -0.05070523
+  0.01640672]</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5100,37 +5134,37 @@
         <v>6</v>
       </c>
       <c r="H116" t="n">
-        <v>42.65059661865234</v>
+        <v>31.32265853881836</v>
       </c>
       <c r="I116" t="n">
-        <v>2.279715538024902</v>
+        <v>11.51765823364258</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROS: INFRA ESTRUTURA OTIMA, TRABALHO HIBRIDO, TIMES MOTIVADOS | CONTRAS: NAO TENHO NENHUMA AVALIACAO NEGATIVA</t>
+          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO | CONTRAS: EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PROS: INFRA ESTRUTURA OTIMA, TRABALHO HIBRIDO, TIMES MOTIVADOS</t>
+          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUMA AVALIACAO NEGATIVA</t>
+          <t>EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[-0.0164078  -0.03199922 -0.02596339 ... -0.00822529 -0.01662433
-  0.01160926]</t>
+          <t>[-0.00082565  0.01328453 -0.04484891 ... -0.01026533 -0.05968096
+ -0.00465793]</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5140,37 +5174,37 @@
         <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>55.96044921875</v>
+        <v>29.31109428405762</v>
       </c>
       <c r="I117" t="n">
-        <v>6.520108222961426</v>
+        <v>8.868295669555664</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA QUE CUIDA DAS PESSOAS | CONTRAS: NADA DE CONTRA A DECLARAR</t>
+          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR. | CONTRAS: ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA QUE CUIDA DAS PESSOAS</t>
+          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NADA DE CONTRA A DECLARAR</t>
+          <t>ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[ 0.02532216 -0.03360294 -0.03653149 ...  0.01159824 -0.0261641
-  0.03529219]</t>
+          <t>[-0.05091276  0.00472459 -0.01887552 ... -0.00660543 -0.04158054
+  0.04279704]</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -5180,37 +5214,37 @@
         <v>6</v>
       </c>
       <c r="H118" t="n">
-        <v>53.26745986938477</v>
+        <v>33.36871337890625</v>
       </c>
       <c r="I118" t="n">
-        <v>4.190699100494385</v>
+        <v>10.46649360656738</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROS: UMA EMPRESA MUITO BOA PARA SE TRABALHAR | CONTRAS: NAO TENHO NADA CONTRA A EMPRESA</t>
+          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA. | CONTRAS: ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PROS: UMA EMPRESA MUITO BOA PARA SE TRABALHAR</t>
+          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA CONTRA A EMPRESA</t>
+          <t>ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[-0.00318821 -0.01674401 -0.04610646 ... -0.00622108 -0.07557582
- -0.00795074]</t>
+          <t>[ 0.00154358 -0.01380547 -0.03980237 ...  0.01621963 -0.04473202
+  0.03675267]</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -5220,37 +5254,37 @@
         <v>6</v>
       </c>
       <c r="H119" t="n">
-        <v>56.48333740234375</v>
+        <v>22.7346076965332</v>
       </c>
       <c r="I119" t="n">
-        <v>1.695823311805725</v>
+        <v>12.12541961669922</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>DESENVOLVEDOR SALESFORCE</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR | CONTRAS: OTIMA EMPRESA PARA SE TRABALHAR, NAO TEM PONTOS FRACOS</t>
+          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS | CONTRAS: VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR</t>
+          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>OTIMA EMPRESA PARA SE TRABALHAR, NAO TEM PONTOS FRACOS</t>
+          <t>VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[-0.01486613 -0.02663592 -0.04748973 ...  0.01069379 -0.06676524
- -0.00148893]</t>
+          <t>[-0.01133411  0.0158622  -0.03747415 ... -0.00860911 -0.06515785
+  0.03789773]</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -5260,37 +5294,37 @@
         <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>59.38611602783203</v>
+        <v>31.14934158325195</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4099926650524139</v>
+        <v>10.05161190032959</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TECH LEAD</t>
+          <t>MACHINE LEARNING ENGINEER</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PROS: OTIMA CULTURA, PESSOAL GENTE BOA E ACELERADO. | CONTRAS: NAO TENHO NADA CONTRA ESSA EMPRESA.</t>
+          <t>PROS: SALARIO E VA + VR | CONTRAS: PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PROS: OTIMA CULTURA, PESSOAL GENTE BOA E ACELERADO.</t>
+          <t>PROS: SALARIO E VA + VR</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA CONTRA ESSA EMPRESA.</t>
+          <t>PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[-0.01585155 -0.01058462 -0.04828421 ...  0.01190701 -0.05456953
- -0.00288258]</t>
+          <t>[-0.00614928 -0.01113769 -0.01551877 ...  0.02746222 -0.04002742
+  0.07076503]</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -5300,37 +5334,37 @@
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>56.35915374755859</v>
+        <v>23.27608299255371</v>
       </c>
       <c r="I121" t="n">
-        <v>1.550042867660522</v>
+        <v>-1.425910711288452</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PROS: CULTURA SENSACIONAL COM OTIMAS OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: NAO VEJO HOJE NENHUM CONTRA.</t>
+          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO | CONTRAS: TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PROS: CULTURA SENSACIONAL COM OTIMAS OPORTUNIDADES DE CRESCIMENTO.</t>
+          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NAO VEJO HOJE NENHUM CONTRA.</t>
+          <t>TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[ 0.00869139 -0.00842026 -0.04915198 ...  0.00111791 -0.04382515
-  0.02511198]</t>
+          <t>[-0.00399277  0.02843204 -0.04088201 ... -0.00011789 -0.02702275
+ -0.02677025]</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -5340,37 +5374,37 @@
         <v>6</v>
       </c>
       <c r="H122" t="n">
-        <v>51.27911758422852</v>
+        <v>19.52303504943848</v>
       </c>
       <c r="I122" t="n">
-        <v>7.343986988067627</v>
+        <v>11.06406402587891</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ASSISTENTE ADMINISTRATIVO</t>
+          <t>COSTUMER SUCCESS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROS: LUGAR DE OPORTUNIDADES E AMBIENTE MARAVILHOSO | CONTRAS: NADA A DIZER DE FORMA NEGATIVA</t>
+          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO. | CONTRAS: TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PROS: LUGAR DE OPORTUNIDADES E AMBIENTE MARAVILHOSO</t>
+          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NADA A DIZER DE FORMA NEGATIVA</t>
+          <t>TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[-0.00379056 -0.00571786 -0.01288949 ... -0.00018595 -0.01883378
-  0.03174504]</t>
+          <t>[-0.02713842  0.03154015 -0.02096049 ...  0.01491471 -0.04526819
+  0.00632536]</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -5380,37 +5414,37 @@
         <v>6</v>
       </c>
       <c r="H123" t="n">
-        <v>54.659912109375</v>
+        <v>19.7409610748291</v>
       </c>
       <c r="I123" t="n">
-        <v>6.296623229980469</v>
+        <v>11.06840133666992</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS</t>
+          <t>PRODUCT ANALYST</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA DE PONTA, BEM ATUAIS. | CONTRAS: NENHUM NO MOMENTO ATUAL DO TRABALHO</t>
+          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS | CONTRAS: NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA DE PONTA, BEM ATUAIS.</t>
+          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NENHUM NO MOMENTO ATUAL DO TRABALHO</t>
+          <t>NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[-0.00492196  0.02635122 -0.05396933 ...  0.01127847 -0.04180238
-  0.00344402]</t>
+          <t>[-0.01442631 -0.02609047 -0.04101552 ... -0.00191921 -0.03204586
+ -0.01195349]</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -5420,37 +5454,37 @@
         <v>6</v>
       </c>
       <c r="H124" t="n">
-        <v>41.77510070800781</v>
+        <v>32.93201065063477</v>
       </c>
       <c r="I124" t="n">
-        <v>2.636005878448486</v>
+        <v>-5.354061126708984</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM E SALARIO OTIMO. | CONTRAS: NAO TEM BANCO DE HORAS.</t>
+          <t>PROS: VR / VA MUITO BOM | CONTRAS: ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM E SALARIO OTIMO.</t>
+          <t>PROS: VR / VA MUITO BOM</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NAO TEM BANCO DE HORAS.</t>
+          <t>ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[ 0.038084   -0.01389424 -0.05020217 ...  0.00412123 -0.02052029
- -0.03298578]</t>
+          <t>[ 0.02481575 -0.01543426 -0.02269316 ... -0.0106864  -0.0668299
+  0.01419806]</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -5460,37 +5494,37 @@
         <v>6</v>
       </c>
       <c r="H125" t="n">
-        <v>39.76195907592773</v>
+        <v>38.03125381469727</v>
       </c>
       <c r="I125" t="n">
-        <v>3.102818250656128</v>
+        <v>-8.823710441589355</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ASSISTANT</t>
+          <t>ANALISTA DE CREDITO IMOBILIARIO</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS VALE REFEICAO, ALIMENTACAO, CONVENIO | CONTRAS: NAO TEM NADA PRA FALAR</t>
+          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS. | CONTRAS: NAO TEM PLR E NEM HOME OFFICE.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS VALE REFEICAO, ALIMENTACAO, CONVENIO</t>
+          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NAO TEM NADA PRA FALAR</t>
+          <t>NAO TEM PLR E NEM HOME OFFICE.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[ 0.01164983  0.01348583 -0.0060342  ... -0.02420479 -0.01753309
-  0.00268181]</t>
+          <t>[-0.03124204 -0.01764332 -0.04039847 ... -0.01542864 -0.06484765
+ -0.0351506 ]</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -5500,45 +5534,37 @@
         <v>6</v>
       </c>
       <c r="H126" t="n">
-        <v>46.25016403198242</v>
+        <v>34.32451629638672</v>
       </c>
       <c r="I126" t="n">
-        <v>0.00504539767280221</v>
+        <v>-6.072965621948242</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DEV III</t>
+          <t>DESENVOLVEDOR</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PROS: SALARIO
-BENEFICIOS
-TECNOLOGIAS NOVAS
-APRENDIZADO DIARIO
-EQUIPE MUITO BOA | CONTRAS: NAO TENHO NADA DE NEGATIVO A DIZER.</t>
+          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA | CONTRAS: EMPRESA E CONTRA O HOME OFFICE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PROS: SALARIO
-BENEFICIOS
-TECNOLOGIAS NOVAS
-APRENDIZADO DIARIO
-EQUIPE MUITO BOA</t>
+          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA DE NEGATIVO A DIZER.</t>
+          <t>EMPRESA E CONTRA O HOME OFFICE</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[-0.00536009 -0.01603113 -0.01680937 ... -0.03008696 -0.0354818
- -0.00430965]</t>
+          <t>[-0.00779152  0.00138982 -0.02820475 ...  0.00566307 -0.06983744
+  0.01581256]</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -5548,37 +5574,37 @@
         <v>6</v>
       </c>
       <c r="H127" t="n">
-        <v>54.84625625610352</v>
+        <v>35.01419067382812</v>
       </c>
       <c r="I127" t="n">
-        <v>6.641671657562256</v>
+        <v>-11.97421646118164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PROGRAMADOR JUNIOR</t>
+          <t>DESENVOLVEDOR FRONT END</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PROS: TUDO DE BOM, AMBIENTE TE INCRIVEL | CONTRAS: SEM NADA A RECLAMAR DA EMPRESA</t>
+          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR. | CONTRAS: AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PROS: TUDO DE BOM, AMBIENTE TE INCRIVEL</t>
+          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SEM NADA A RECLAMAR DA EMPRESA</t>
+          <t>AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[-0.0223448  -0.01084824 -0.04467425 ...  0.01076972 -0.03495386
-  0.02526119]</t>
+          <t>[-0.04158296  0.01349779 -0.05154336 ... -0.00363456 -0.05948676
+  0.01877222]</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -5588,41 +5614,37 @@
         <v>6</v>
       </c>
       <c r="H128" t="n">
-        <v>55.23169708251953</v>
+        <v>28.95574760437012</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.200260043144226</v>
+        <v>-8.060957908630371</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IT SPECIALIST</t>
+          <t>ANALISTA DE CONTEUDO PLENO</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PROS: - AUTONOMIA
-- PROFISSIONAIS CAPACITADOS
-- TECNOLOGIAS DE PONTA | CONTRAS: NAO TENHO NADA A RECLAMAR</t>
+          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO. | CONTRAS: EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PROS: - AUTONOMIA
-- PROFISSIONAIS CAPACITADOS
-- TECNOLOGIAS DE PONTA</t>
+          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NAO TENHO NADA A RECLAMAR</t>
+          <t>EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[ 0.00421884 -0.00511056 -0.02828177 ... -0.01646771 -0.01994656
-  0.01321092]</t>
+          <t>[-0.02804429 -0.01289136 -0.02197671 ...  0.03287745 -0.05620091
+  0.0403828 ]</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -5632,37 +5654,37 @@
         <v>6</v>
       </c>
       <c r="H129" t="n">
-        <v>47.96622467041016</v>
+        <v>32.68592834472656</v>
       </c>
       <c r="I129" t="n">
-        <v>0.8764870762825012</v>
+        <v>1.490823745727539</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE DEVELOPER</t>
+          <t>GERENTE</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROS: BOM TICKET ALIMENTACAO, BOM SALARIO, EMPRESA HUMANIZADA | CONTRAS: SEM CONTRAS PARA O INTER</t>
+          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PROS: BOM TICKET ALIMENTACAO, BOM SALARIO, EMPRESA HUMANIZADA</t>
+          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SEM CONTRAS PARA O INTER</t>
+          <t>BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[ 0.045545   -0.02398009 -0.03583795 ...  0.00349368 -0.02767098
-  0.0209274 ]</t>
+          <t>[-0.00810703  0.01810922 -0.04205522 ... -0.02207538 -0.03479676
+ -0.00278802]</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -5672,37 +5694,37 @@
         <v>6</v>
       </c>
       <c r="H130" t="n">
-        <v>50.37957000732422</v>
+        <v>23.14834976196289</v>
       </c>
       <c r="I130" t="n">
-        <v>11.51623344421387</v>
+        <v>-14.38234806060791</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA. PREOCUPA COM OS FUNCIONARIOS. | CONTRAS: SEM CONTRAS, FOI UMA BOA EXPERIENCIA</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR | CONTRAS: TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA. PREOCUPA COM OS FUNCIONARIOS.</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SEM CONTRAS, FOI UMA BOA EXPERIENCIA</t>
+          <t>TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[-0.00301923 -0.06190179 -0.05734665 ... -0.01259792 -0.05119109
-  0.02922796]</t>
+          <t>[ 0.01873692 -0.00688827 -0.03732348 ... -0.0265513  -0.04326579
+ -0.01364859]</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -5712,37 +5734,37 @@
         <v>6</v>
       </c>
       <c r="H131" t="n">
-        <v>59.74209213256836</v>
+        <v>32.33330535888672</v>
       </c>
       <c r="I131" t="n">
-        <v>9.464760780334473</v>
+        <v>-9.769415855407715</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE, REMUNERACAO, OPORTUNIDADE, INOVADOR. | CONTRAS: SEM APONTAMENTOS ESPECIFICOS PARA ESSA EMPRESA.</t>
+          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES. | CONTRAS: REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE, REMUNERACAO, OPORTUNIDADE, INOVADOR.</t>
+          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SEM APONTAMENTOS ESPECIFICOS PARA ESSA EMPRESA.</t>
+          <t>REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[-0.05717364  0.00692548 -0.0571956  ...  0.01257479 -0.04714464
-  0.01599964]</t>
+          <t>[-0.01090838  0.01649735 -0.02987122 ...  0.00574455 -0.06672423
+ -0.0071907 ]</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -5752,37 +5774,37 @@
         <v>6</v>
       </c>
       <c r="H132" t="n">
-        <v>53.47628021240234</v>
+        <v>29.82781791687012</v>
       </c>
       <c r="I132" t="n">
-        <v>-3.185713529586792</v>
+        <v>-0.2989739775657654</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BANK ASSISTANT</t>
+          <t>ANALISTA DE AUTOMACAO</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, CULTA VOLTADA A INOVACAO. | CONTRAS: NAO VEJO NENHUM CONTRA, OTIMA EMPRESA</t>
+          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO | CONTRAS: RESISTENCIA A ADESAO DE HOME OFFICE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, CULTA VOLTADA A INOVACAO.</t>
+          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NAO VEJO NENHUM CONTRA, OTIMA EMPRESA</t>
+          <t>RESISTENCIA A ADESAO DE HOME OFFICE</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[-0.00331956 -0.00935359 -0.05402158 ... -0.00084959 -0.06473462
-  0.00338275]</t>
+          <t>[ 0.02352476  0.00298274 -0.02973961 ... -0.01641248 -0.09757089
+  0.04234512]</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -5792,37 +5814,37 @@
         <v>6</v>
       </c>
       <c r="H133" t="n">
-        <v>58.29920196533203</v>
+        <v>34.97783279418945</v>
       </c>
       <c r="I133" t="n">
-        <v>1.986948251724243</v>
+        <v>-11.98497295379639</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ANALISTA DE BUSINESS INTELLIGENCE (BI)</t>
+          <t>GERENTE BLACK DIGITAL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM LUGAR PARA SE TRABALHAR | CONTRAS: NADA A RECLAMAR, MUITO BOM</t>
+          <t>PROS: SALARIO COMPATIVEL COM A CLASSE | CONTRAS: PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM LUGAR PARA SE TRABALHAR</t>
+          <t>PROS: SALARIO COMPATIVEL COM A CLASSE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NADA A RECLAMAR, MUITO BOM</t>
+          <t>PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[ 0.02799672  0.01252965 -0.02502802 ...  0.01201674 -0.01894122
-  0.01411086]</t>
+          <t>[-0.0221497  -0.00220614 -0.05247384 ...  0.01842734 -0.06897553
+ -0.02124289]</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -5832,37 +5854,37 @@
         <v>6</v>
       </c>
       <c r="H134" t="n">
-        <v>46.88864135742188</v>
+        <v>28.31215667724609</v>
       </c>
       <c r="I134" t="n">
-        <v>-2.078465461730957</v>
+        <v>14.01551151275635</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTO SENIOR</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PROS: VA E VR EXPRESSIVOS, PL E PLR | CONTRAS: NAO VEJO CONTRAS, GOSTO MUITO</t>
+          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO. | CONTRAS: ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PROS: VA E VR EXPRESSIVOS, PL E PLR</t>
+          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NAO VEJO CONTRAS, GOSTO MUITO</t>
+          <t>ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[ 0.0174118  -0.02056128 -0.04374297 ...  0.02043192 -0.05129892
-  0.0275206 ]</t>
+          <t>[-0.01798563  0.01483086 -0.03935165 ... -0.00319574 -0.05062837
+  0.00664411]</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -5872,37 +5894,37 @@
         <v>6</v>
       </c>
       <c r="H135" t="n">
-        <v>53.86014556884766</v>
+        <v>33.16735076904297</v>
       </c>
       <c r="I135" t="n">
-        <v>9.076980590820312</v>
+        <v>-7.141786575317383</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ATENDIMENTO AO CLIENTE</t>
+          <t>ANALISTA DE AUTOMACAO</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PROS: CLIMA, SALARIO E BENEFICIOS MUITO BONS | CONTRAS: NAO TEM CONTRAS. TUDO OTIMO</t>
+          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO | CONTRAS: NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PROS: CLIMA, SALARIO E BENEFICIOS MUITO BONS</t>
+          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NAO TEM CONTRAS. TUDO OTIMO</t>
+          <t>NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[ 0.02219498 -0.04239604 -0.04524568 ...  0.00365373 -0.0328632
- -0.00029481]</t>
+          <t>[-0.02483857 -0.02323402 -0.02721906 ... -0.02525039 -0.06794938
+ -0.00888783]</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -5912,37 +5934,37 @@
         <v>6</v>
       </c>
       <c r="H136" t="n">
-        <v>54.7582893371582</v>
+        <v>34.25811386108398</v>
       </c>
       <c r="I136" t="n">
-        <v>7.780494213104248</v>
+        <v>-3.454817771911621</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVEDOR</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, TECNOLOGIA, TRANQUILIDADE, SAO PONTOS POSITIVOS | CONTRAS: ACHO QUE NAO HA PONTOS NEGATIVOS</t>
+          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR | CONTRAS: SEM HOME OFFICE PARA TODAS AS AREAS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, TECNOLOGIA, TRANQUILIDADE, SAO PONTOS POSITIVOS</t>
+          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ACHO QUE NAO HA PONTOS NEGATIVOS</t>
+          <t>SEM HOME OFFICE PARA TODAS AS AREAS</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[ 0.00362845 -0.06213826 -0.03741768 ... -0.00431881 -0.03574683
- -0.00375265]</t>
+          <t>[-0.00823566 -0.00909094 -0.02556316 ... -0.01487616 -0.04817134
+  0.0466971 ]</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -5952,37 +5974,37 @@
         <v>6</v>
       </c>
       <c r="H137" t="n">
-        <v>56.3807258605957</v>
+        <v>32.07745361328125</v>
       </c>
       <c r="I137" t="n">
-        <v>8.534356117248535</v>
+        <v>-9.552582740783691</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>DESENVOLVEDOR BACK-END</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PROS: LIDERES PROXIMOS E ACESSIVEIS PARA CONVERSAS | CONTRAS: SEM CONTRAS ATE O MOMENTO.</t>
+          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO | CONTRAS: TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PROS: LIDERES PROXIMOS E ACESSIVEIS PARA CONVERSAS</t>
+          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SEM CONTRAS ATE O MOMENTO.</t>
+          <t>TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[ 0.00717268 -0.01265999 -0.05021759 ... -0.01978401 -0.03542127
- -0.04642694]</t>
+          <t>[-0.02757346  0.01426283 -0.05709538 ...  0.0435817  -0.07922854
+ -0.00097827]</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -5992,37 +6014,37 @@
         <v>6</v>
       </c>
       <c r="H138" t="n">
-        <v>51.12383651733398</v>
+        <v>28.33926963806152</v>
       </c>
       <c r="I138" t="n">
-        <v>9.909923553466797</v>
+        <v>7.948827266693115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>JUNIOR DATA ENGINEER</t>
+          <t>ANALISTA DE SEGURANCA SENIOR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DIVERSIFICADA, PROJETOS INTERESSANTES, BOAS TECNOLOGIAS | CONTRAS: SEM CONTRAS ATE O MOMENTO</t>
+          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO. | CONTRAS: FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DIVERSIFICADA, PROJETOS INTERESSANTES, BOAS TECNOLOGIAS</t>
+          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SEM CONTRAS ATE O MOMENTO</t>
+          <t>FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[ 0.00692168 -0.01578028 -0.03726298 ... -0.02715523 -0.03384749
- -0.03941152]</t>
+          <t>[-0.00818676 -0.00670805 -0.04241085 ...  0.05029869 -0.03450729
+  0.04296849]</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -6032,37 +6054,37 @@
         <v>6</v>
       </c>
       <c r="H139" t="n">
-        <v>51.19974136352539</v>
+        <v>31.22777557373047</v>
       </c>
       <c r="I139" t="n">
-        <v>10.38743591308594</v>
+        <v>-1.513180017471313</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA DE SUPORTE TECNICO</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO BOM E CRESCIMENTO PESSOAL | CONTRAS: NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE | CONTRAS: E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO BOM E CRESCIMENTO PESSOAL</t>
+          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+          <t>E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[ 0.02034525  0.00168528 -0.04251616 ... -0.02473557 -0.04975003
- -0.0168595 ]</t>
+          <t>[ 0.00903034 -0.01091116 -0.01051751 ...  0.00192728 -0.07829177
+  0.03459215]</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -6072,37 +6094,37 @@
         <v>6</v>
       </c>
       <c r="H140" t="n">
-        <v>50.28750610351562</v>
+        <v>22.73345756530762</v>
       </c>
       <c r="I140" t="n">
-        <v>7.831425666809082</v>
+        <v>1.624954342842102</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ANALISTA DE SUPORTE JUNIOR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BONS, BOAS TECNOLOGIAS, BONS BENEFICIOS | CONTRAS: AINDA NAO ENCONTREI PROBLEMAS NO INTER</t>
+          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO. | CONTRAS: NAO ADEPTO A 100% HOME OFFICE.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BONS, BOAS TECNOLOGIAS, BONS BENEFICIOS</t>
+          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>AINDA NAO ENCONTREI PROBLEMAS NO INTER</t>
+          <t>NAO ADEPTO A 100% HOME OFFICE.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[ 0.03308766 -0.01201759 -0.04965022 ...  0.01028065 -0.01590337
- -0.01564407]</t>
+          <t>[-0.0048993  -0.03060398 -0.0431377  ... -0.01348948 -0.04893927
+ -0.01833846]</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -6112,656 +6134,10 @@
         <v>6</v>
       </c>
       <c r="H141" t="n">
-        <v>62.49405288696289</v>
+        <v>32.03485488891602</v>
       </c>
       <c r="I141" t="n">
-        <v>6.861223697662354</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR | CONTRAS: NAO HA. OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>NAO HA. OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[-0.01080524  0.01381171 -0.05010581 ...  0.0197253  -0.06085664
- -0.01028265]</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>6</v>
-      </c>
-      <c r="G142" t="n">
-        <v>6</v>
-      </c>
-      <c r="H142" t="n">
-        <v>51.53523254394531</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-6.567611694335938</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA TEM PESSOAS EXCELENTES NO TIME | CONTRAS: NENHUM CONTRA ATE O MOMENTO.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA TEM PESSOAS EXCELENTES NO TIME</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>NENHUM CONTRA ATE O MOMENTO.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[ 0.03126408 -0.0128083  -0.0677307  ... -0.00779675 -0.04180322
- -0.03755186]</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>6</v>
-      </c>
-      <c r="G143" t="n">
-        <v>6</v>
-      </c>
-      <c r="H143" t="n">
-        <v>49.57932662963867</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.200072288513184</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SEGURANCA DA INFORMACAO</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>PROS: A CULTURA DA EMPRESA E SENSACIONAL | CONTRAS: NAO TEM PONTOS NEGATIVOS AINDA.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>PROS: A CULTURA DA EMPRESA E SENSACIONAL</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>NAO TEM PONTOS NEGATIVOS AINDA.</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[-0.00937013 -0.02628042 -0.0372352  ... -0.0175275  -0.03998631
-  0.00068922]</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>6</v>
-      </c>
-      <c r="G144" t="n">
-        <v>6</v>
-      </c>
-      <c r="H144" t="n">
-        <v>56.31554794311523</v>
-      </c>
-      <c r="I144" t="n">
-        <v>9.018251419067383</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>ASSISTENTE COMERCIAL</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>PROS: OPORTUNIDADE DE CRESCIMENTO NA INSTITUICAO. | CONTRAS: NADA CONTRA ATE O MOMENTO.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>PROS: OPORTUNIDADE DE CRESCIMENTO NA INSTITUICAO.</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>NADA CONTRA ATE O MOMENTO.</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[ 0.03074194 -0.01761167 -0.06956672 ... -0.0142843  -0.05017399
- -0.04577418]</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>6</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6</v>
-      </c>
-      <c r="H145" t="n">
-        <v>49.62461090087891</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.645634174346924</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO JUNIOR</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>PROS: OPORTUNIDADE DE CRESCIMENTO, CULTURA EMPRESARIAL | CONTRAS: NAO HA CONTRAS PARA CITAR</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>PROS: OPORTUNIDADE DE CRESCIMENTO, CULTURA EMPRESARIAL</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>NAO HA CONTRAS PARA CITAR</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[-0.00634334 -0.03596305 -0.02081198 ... -0.00061116 -0.03117582
-  0.00946253]</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>6</v>
-      </c>
-      <c r="H146" t="n">
-        <v>52.9625129699707</v>
-      </c>
-      <c r="I146" t="n">
-        <v>6.340914249420166</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>DESENVOLVEDOR</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>PROS: UMA OTIMA EMPRESA PARA TRABALHAR. | CONTRAS: NADA A RECLAMAR DESSA EMPRESA.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>PROS: UMA OTIMA EMPRESA PARA TRABALHAR.</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>NADA A RECLAMAR DESSA EMPRESA.</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[-0.02166207 -0.00445436 -0.05399318 ...  0.02412094 -0.0152065
-  0.02744515]</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>6</v>
-      </c>
-      <c r="G147" t="n">
-        <v>6</v>
-      </c>
-      <c r="H147" t="n">
-        <v>55.12561798095703</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-0.9878674745559692</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>ANALISTA</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO
-AMBIENTE DE SE TRABALHAR NA EMPRESA | CONTRAS: NAO TEM CONTRA NO MOMENTO</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO
-AMBIENTE DE SE TRABALHAR NA EMPRESA</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>NAO TEM CONTRA NO MOMENTO</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[ 0.02004955 -0.00056415 -0.03918704 ... -0.00987893 -0.03259249
- -0.01359622]</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>6</v>
-      </c>
-      <c r="G148" t="n">
-        <v>6</v>
-      </c>
-      <c r="H148" t="n">
-        <v>46.78403472900391</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7.453695774078369</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA BEM BACA DE TRABALHAR | CONTRAS: NAO TENHO NADA CONTRA ELA</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA BEM BACA DE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>NAO TENHO NADA CONTRA ELA</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[ 0.01859427 -0.01879196 -0.04122776 ...  0.01838025 -0.05640257
-  0.02121988]</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>6</v>
-      </c>
-      <c r="G149" t="n">
-        <v>6</v>
-      </c>
-      <c r="H149" t="n">
-        <v>51.9667854309082</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7.947501659393311</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>ADVISOR</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR | CONTRAS: NADA A RECLAMAR SOBRE A EMPRESA</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>NADA A RECLAMAR SOBRE A EMPRESA</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>[-0.01989736 -0.00653208 -0.05196741 ...  0.02011688 -0.02904275
-  0.02507386]</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>6</v>
-      </c>
-      <c r="G150" t="n">
-        <v>6</v>
-      </c>
-      <c r="H150" t="n">
-        <v>55.02135467529297</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-1.012935400009155</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>ANALISTA</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO CONFORTAVEL | CONTRAS: NAO TENHO MUITO COISA CONTRA</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO CONFORTAVEL</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>NAO TENHO MUITO COISA CONTRA</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[ 0.00430951  0.00663212 -0.03900719 ... -0.03855388 -0.0381607
-  0.00606102]</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>6</v>
-      </c>
-      <c r="G151" t="n">
-        <v>6</v>
-      </c>
-      <c r="H151" t="n">
-        <v>47.88018035888672</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9.300333976745605</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CLOSER</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE E GESTORES MUITO BONS | CONTRAS: NAO TENHO O QUE RECLAMAR</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE E GESTORES MUITO BONS</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>NAO TENHO O QUE RECLAMAR</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[-0.00238022  0.0024515  -0.02641116 ... -0.03453985 -0.02255066
-  0.00118171]</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>6</v>
-      </c>
-      <c r="G152" t="n">
-        <v>6</v>
-      </c>
-      <c r="H152" t="n">
-        <v>47.82936096191406</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.688206195831299</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>GERENTE COMERCIAL</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>PROS: UM OTIMO AMBIENTE DE TRABALHO. | CONTRAS: NAO ENCONTREI NENHUM PONTO NEGATIVO.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>PROS: UM OTIMO AMBIENTE DE TRABALHO.</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>NAO ENCONTREI NENHUM PONTO NEGATIVO.</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[-0.00822875 -0.04323642 -0.05227539 ...  0.00424205 -0.0378639
-  0.01371055]</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>6</v>
-      </c>
-      <c r="G153" t="n">
-        <v>6</v>
-      </c>
-      <c r="H153" t="n">
-        <v>56.01154708862305</v>
-      </c>
-      <c r="I153" t="n">
-        <v>7.050381183624268</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>PRODUCT DESIGNER/ANALISTA UX PLENO</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO SALARIO, EQUIPE E AMBIENTE | CONTRAS: NENHUM CONTRA, NADA A COMENTAR</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO SALARIO, EQUIPE E AMBIENTE</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>NENHUM CONTRA, NADA A COMENTAR</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>[ 0.02009608 -0.02410754 -0.03586387 ...  0.00849163 -0.00709712
-  0.04842799]</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>6</v>
-      </c>
-      <c r="G154" t="n">
-        <v>6</v>
-      </c>
-      <c r="H154" t="n">
-        <v>51.05546569824219</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.426382303237915</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>TECH ANALYST</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>PROS: VALE ALIMENTACAO 
-SEM PONTO ELETRONICO | CONTRAS: NADA A DECLARAR OTIMA EMPRESA</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>PROS: VALE ALIMENTACAO 
-SEM PONTO ELETRONICO</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>NADA A DECLARAR OTIMA EMPRESA</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[-0.00557797  0.01065791 -0.03305839 ...  0.00692695 -0.03827785
-  0.01535658]</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>6</v>
-      </c>
-      <c r="G155" t="n">
-        <v>6</v>
-      </c>
-      <c r="H155" t="n">
-        <v>53.18412017822266</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-1.752652287483215</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SOFWARE DEVELOPER</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS E AMBIENTE. AS PESSOAS COM QUEM TRABALHEI ERAM MUITO COMPETENTES | CONTRAS: NADA CONTRA A DECLARAR PARA A EMPRESA</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS E AMBIENTE. AS PESSOAS COM QUEM TRABALHEI ERAM MUITO COMPETENTES</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>NADA CONTRA A DECLARAR PARA A EMPRESA</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[-0.00843767 -0.01176435 -0.04206159 ...  0.01938022 -0.06396533
-  0.03888856]</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>6</v>
-      </c>
-      <c r="G156" t="n">
-        <v>6</v>
-      </c>
-      <c r="H156" t="n">
-        <v>53.81329345703125</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.640349626541138</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>ANALISTA JUNIOR</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>PROS: DESENVOLVIMENTO DE NOVAS HABILIDADES
-CRESCIMENTO RAPIDO | CONTRAS: SEM CONTRAS PARA ADICIONAR AQUI</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>PROS: DESENVOLVIMENTO DE NOVAS HABILIDADES
-CRESCIMENTO RAPIDO</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>SEM CONTRAS PARA ADICIONAR AQUI</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[-0.03774032 -0.00572255 -0.0227914  ... -0.00168588 -0.04449869
-  0.02537723]</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>6</v>
-      </c>
-      <c r="G157" t="n">
-        <v>6</v>
-      </c>
-      <c r="H157" t="n">
-        <v>52.16939926147461</v>
-      </c>
-      <c r="I157" t="n">
-        <v>11.90234756469727</v>
+        <v>-5.448617458343506</v>
       </c>
     </row>
   </sheetData>

--- a/clusters/cluster6.xlsx
+++ b/clusters/cluster6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>pros</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>contras</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>embeddings</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cluster_encoded</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tsne_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tsne_2</t>
         </is>
@@ -483,813 +488,907 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS PLENO</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA) | CONTRAS: OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
+          <t>PROS: AMBIENTE ACOLHEDOR, APRENDI MUITO LA. | CONTRAS: NADA QUE ME INCOMODASSE, OS PROBLEMAS ERAM COISAS DO COTIDIANO DE QUALQUER EMPRESA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA)</t>
+          <t>19 de mai. de 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
+          <t>PROS: AMBIENTE ACOLHEDOR, APRENDI MUITO LA.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.0438258  -0.00311728 -0.00894987 ...  0.02227183 -0.03338858
-  0.00369538]</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>NADA QUE ME INCOMODASSE, OS PROBLEMAS ERAM COISAS DO COTIDIANO DE QUALQUER EMPRESA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[ 0.01452693 -0.03652281 -0.06559645 ...  0.0204829  -0.02950551
+ -0.00645044]</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>20.49922752380371</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>11.06302738189697</v>
+        <v>58.97648620605469</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.04392147064209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HUMAN RESOURCES BUSINESS PARTNER</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS | CONTRAS: EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
+          <t>PROS: * CAPACITACAO DE PESSOAS 
+*PROJETOS REAIS | CONTRAS: NADA A RECLAMAR E UMA EMPRESA MUITO COMPLETA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS</t>
+          <t>23 de abr. de 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
+          <t>PROS: * CAPACITACAO DE PESSOAS 
+*PROJETOS REAIS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.03251415 -0.00936428 -0.04371278 ...  0.0382624  -0.07405568
- -0.00853541]</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR E UMA EMPRESA MUITO COMPLETA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[-0.00787972 -0.01808268 -0.03894053 ...  0.01861824 -0.04487384
+  0.03241472]</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>26.09270858764648</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>12.76523876190186</v>
+        <v>58.92082595825195</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.378228187561035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>INTERN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO | CONTRAS: PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
+          <t>PROS: TIME COLABORATIVO, BOA ESTRUTURA E AMBIENTE MOTIVADOR PARA EVOLUCAO PROFISSIONAL. | CONTRAS: NAO EXPERENCIEI DESVANTAGENS NA EMPRESA.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO</t>
+          <t>2 de abr. de 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
+          <t>PROS: TIME COLABORATIVO, BOA ESTRUTURA E AMBIENTE MOTIVADOR PARA EVOLUCAO PROFISSIONAL.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.00990793 -0.03213819 -0.0118666  ...  0.04356232 -0.02674963
-  0.05688834]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>NAO EXPERENCIEI DESVANTAGENS NA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[-0.01981613 -0.03246632 -0.06537274 ...  0.02963523 -0.05923722
+ -0.02889588]</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>23.63278579711914</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.057344436645508</v>
+        <v>57.3970947265625</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.648942947387695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER II</t>
+          <t>ESPECIALISTA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS | CONTRAS: PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
+          <t>PROS: EMPRESA QUE OFERECE MUITAS OPORTUNIDADES DE CRESCIMENTO E TEM EXCELENTES BENEFICIOS. | CONTRAS: ATE O MOMENTO NAO TENHO MADA CONTRA.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS</t>
+          <t>18 de fev. de 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
+          <t>PROS: EMPRESA QUE OFERECE MUITAS OPORTUNIDADES DE CRESCIMENTO E TEM EXCELENTES BENEFICIOS.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.02789134 -0.05470479 -0.00926266 ...  0.04395519 -0.02808792
-  0.02634586]</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>ATE O MOMENTO NAO TENHO MADA CONTRA.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[ 0.02535765  0.00173774 -0.05404264 ... -0.02230474 -0.05055038
+ -0.01950244]</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>15.12967681884766</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>14.49475383758545</v>
+        <v>49.17123031616211</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.876072883605957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TECH COORDINATOR</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS | CONTRAS: MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
+          <t>PROS: SAO VARIOS OS PROS, MAS O QUE EU QUERO DESTACAR E O TRABALHO EM EQUIPE. | CONTRAS: NADA A DECLARAR SOBRE A EMPRESA...
+ESTOU GOTANDO BATANTE DA EMPRESA.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA E AS PESSOAS SAO MUITO BACANAS</t>
+          <t>11 de jan. de 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO TOTALMENTE PRESENCIAL</t>
+          <t>PROS: SAO VARIOS OS PROS, MAS O QUE EU QUERO DESTACAR E O TRABALHO EM EQUIPE.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.00762256  0.02584735 -0.02923491 ...  0.03026718 -0.0541398
-  0.00995226]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR SOBRE A EMPRESA...
+ESTOU GOTANDO BATANTE DA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[-0.03782263  0.04199183 -0.05128176 ... -0.00313018 -0.04997594
+ -0.0084773 ]</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>26.14797782897949</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>8.037781715393066</v>
+        <v>59.61779403686523</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.3606906533241272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COORDINATOR</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS | CONTRAS: POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
+          <t>PROS: UM BANCO ACOLHEDOR, SUPEROU MINHAS EXPECTATIVAS, POIS TRABALHAVA COM METAS, E QUANTO A COBRANCAS DE METAS ERAM SEMPRE OBJETIVAS E RESPEITOSAS, OS SUPERIORES TEM UM LADO HUMANO QUE ENTENDE OS COLABORADORES. | CONTRAS: NADA A DECLARAR SOBRE PONTOS NEGATIVOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, BENEFICIOS MUITO BONS</t>
+          <t>13 de nov. de 2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POUCO PLANO DE CARREIRA, 100% PRESENCIAL</t>
+          <t>PROS: UM BANCO ACOLHEDOR, SUPEROU MINHAS EXPECTATIVAS, POIS TRABALHAVA COM METAS, E QUANTO A COBRANCAS DE METAS ERAM SEMPRE OBJETIVAS E RESPEITOSAS, OS SUPERIORES TEM UM LADO HUMANO QUE ENTENDE OS COLABORADORES.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.01766855 -0.01510581 -0.02672902 ... -0.00175118 -0.011671
- -0.00609165]</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR SOBRE PONTOS NEGATIVOS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[ 0.01037934 -0.02775578 -0.02143641 ... -0.01824668 -0.00653428
+  0.0416858 ]</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>20.56953430175781</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>5.458317756652832</v>
+        <v>52.26971817016602</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.09402942657471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ESPECIALISTA EM TI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL. | CONTRAS: MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
+          <t>PROS: AREA BANCARIA TEM MUITOS BENEFICIOS E NA TI E BEM DINAMICA, MUITOS PROJETOS DESAFIADORES. | CONTRAS: NENHUM PONTO CONTRA TEM QUE ENTENDER O DINAMISMO DA EMPRESA E VER SE VOCE ENCAIXA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL.</t>
+          <t>20 de nov. de 2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
+          <t>PROS: AREA BANCARIA TEM MUITOS BENEFICIOS E NA TI E BEM DINAMICA, MUITOS PROJETOS DESAFIADORES.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.00688614  0.00202477 -0.05271452 ...  0.02446244 -0.04235929
-  0.02272051]</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>NENHUM PONTO CONTRA TEM QUE ENTENDER O DINAMISMO DA EMPRESA E VER SE VOCE ENCAIXA.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[-0.00086932  0.00028602 -0.03190619 ...  0.0299276  -0.0402564
+  0.01031047]</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>26.54965019226074</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>9.337906837463379</v>
+        <v>60.36510467529297</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.462761878967285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS. | CONTRAS: 100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
+          <t>PROS: SALARIO, TIME, OPORTUNIDADES, DESAFIOS E FLEXIBILIDADE. | CONTRAS: NAO VEJO NENHUM PROBLEMA AQUI NA EMPRESA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO, BENEFICIOS E CLIMA DE TRABALHO. BOA STACK TECNICA E GRANDES DESAFIOS.</t>
+          <t>16 de out. de 2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL SEM NECESSIDADE, DECISOES ARBITRARIAS QUE SO PREJUDICAM OS COLABORADORES, SEM DIALOGO. DECISOES QUE PREJUDICAM O COLABORAR MESMO APOS LUCRO RECORDE.</t>
+          <t>PROS: SALARIO, TIME, OPORTUNIDADES, DESAFIOS E FLEXIBILIDADE.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.03402437  0.03298153 -0.0103257  ...  0.01243446  0.00779956
-  0.00623011]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>NAO VEJO NENHUM PROBLEMA AQUI NA EMPRESA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[-0.00046937 -0.0220095  -0.05465712 ...  0.03625809 -0.04200906
+  0.01841302]</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40802383422852</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>13.7266321182251</v>
+        <v>58.30062484741211</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.780756950378418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR DE SOFTWARE SENIOR</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO | CONTRAS: PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
+          <t>PROS: AMBIENTE COLABORATIVO E TECNOLOGICO, MUITAS OPORTUNIDADES DE CRESCIMENTO E TROCA DE EXPERIENCIAS | CONTRAS: NADA A RECLAMAR. ATE O PROCESSO DE DESLIGAMENTO E RAPIDO E DIGITAL.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROS: MUITA NOVIDADE E AMBIENTE MUITO DINAMICO PARA TRABALHO</t>
+          <t>20 de set. de 2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRESENCIAL, ALGUMAS DECISOES DA DIRETORIA NAO LEVAM EM CONSIDERACAO O BEM ESTAR DOS FUNCIONARIOS</t>
+          <t>PROS: AMBIENTE COLABORATIVO E TECNOLOGICO, MUITAS OPORTUNIDADES DE CRESCIMENTO E TROCA DE EXPERIENCIAS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.03871137 -0.01252955 -0.03639006 ...  0.0327953  -0.01594206
- -0.03042865]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR. ATE O PROCESSO DE DESLIGAMENTO E RAPIDO E DIGITAL.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[-0.02574201 -0.00201918 -0.07118837 ...  0.00805803 -0.04827897
+  0.01497405]</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>18.33345031738281</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>14.47093486785889</v>
+        <v>54.73883056640625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5210597515106201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SOLUTION ANALYST I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA. | CONTRAS: MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
+          <t>PROS: BENEFICIOS, SALARIOS BONS, AMBIENTE DE APRENDIZADO | CONTRAS: NADA CONTRA ATE ESTE MOMENTO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROS: TIME COLABORATIVO, TECNOLOGIAS ATUAIS, AMBIENTE DE CRESCIMENTO ACELERADO, AUTONOMIA.</t>
+          <t>23 de set. de 2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO E TOTALMENTE PRESENCIAL.</t>
+          <t>PROS: BENEFICIOS, SALARIOS BONS, AMBIENTE DE APRENDIZADO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.00924593 -0.00519514 -0.0475946  ...  0.04141428 -0.04628262
-  0.0101373 ]</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>NADA CONTRA ATE ESTE MOMENTO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[ 0.04473936 -0.00448954 -0.04852573 ...  0.00542023 -0.01891005
+ -0.04133012]</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>26.21185493469238</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>8.540972709655762</v>
+        <v>48.14591217041016</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.828001976013184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UX DESIGNER</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO). | CONTRAS: SEM HOME OFFICE, 100 PRESENCIAL.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, TIME TECNICO DE ALTISSIMO NIVEL COM DIVERSAS OPORTUNIDADES DE CRESCIMENTO E LIBERDADE PARA QUEM QUER COLOCAR A MAO NA MASSA. | CONTRAS: NAO HA CONTRAS ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO).</t>
+          <t>27 de ago. de 2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE, 100 PRESENCIAL.</t>
+          <t>PROS: AMBIENTE DESAFIADOR, TIME TECNICO DE ALTISSIMO NIVEL COM DIVERSAS OPORTUNIDADES DE CRESCIMENTO E LIBERDADE PARA QUEM QUER COLOCAR A MAO NA MASSA.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.02140414 -0.01167127 -0.02985343 ...  0.00217901 -0.03268855
-  0.04798231]</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>NAO HA CONTRAS ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[ 0.01387804 -0.00783748 -0.05009683 ... -0.0020629  -0.0214489
+ -0.02937333]</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>31.14571952819824</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.756618499755859</v>
+        <v>48.78355407714844</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.128686904907227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TECH ASSISTANT</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROS: - BONS BENEFICIOS
-- AMBIENTE OK | CONTRAS: - 100% PRESENCIAL
-- PROGRESSAO DE CARREIRA CONGELADO
-- CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
+          <t>PROS: SALARIO DE ACORDO COM O MERCADO, OTIMO AMBIENTE, ACOLHEDOR E CONFORTAVEL, COLABORADORES DISPOSTOS A AJUDAR E ENSINAR | CONTRAS: NADA A DECLARAR CONTRA A EMPRESA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROS: - BONS BENEFICIOS
-- AMBIENTE OK</t>
+          <t>28 de ago. de 2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>- 100% PRESENCIAL
-- PROGRESSAO DE CARREIRA CONGELADO
-- CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
+          <t>PROS: SALARIO DE ACORDO COM O MERCADO, OTIMO AMBIENTE, ACOLHEDOR E CONFORTAVEL, COLABORADORES DISPOSTOS A AJUDAR E ENSINAR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.05445588  0.00044722 -0.02549184 ... -0.00351998  0.02360301
- -0.01220965]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR CONTRA A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[ 5.2430034e-05 -4.4336622e-03 -2.6465790e-02 ...  2.2905258e-02
+ -4.0412929e-02  1.3329092e-02]</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>17.9405689239502</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.557045936584473</v>
+        <v>57.08417892456055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.129515171051025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESPECIALISTA</t>
+          <t>ANALISTA DE RECURSOS HUMANOS (RH)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM. | CONTRAS: PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
+          <t>PROS: EMPRESA COM BOM CLIMA, BOA ESTRUTURA E BONS EQUIPAMENTOS | CONTRAS: NAO TENHO NADA A DECLARAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PROS: VR, VA, SALARIO, PAO DE QUEIJO MUITO BOM.</t>
+          <t>29 de ago. de 2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRESENCIAL, FALTA FLEXIBILIDADE PARA HIBRIDO, NAO OUVEM A OPINIAO DOS FUNCIONARIOS</t>
+          <t>PROS: EMPRESA COM BOM CLIMA, BOA ESTRUTURA E BONS EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.022436   -0.01992768 -0.02905043 ...  0.03599719 -0.02396398
-  0.0473819 ]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A DECLARAR</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[ 0.01460013 -0.00221936 -0.02364453 ... -0.01948495 -0.02503704
+  0.00131923]</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>31.18086051940918</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.019586324691772</v>
+        <v>50.60367584228516</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1.223122835159302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST I</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-VA E VR
-PLR
-PLANO DE SAUDE | CONTRAS: PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
+          <t>PROS: CLIMA AGRADAVEL E DE OTIMA HARMONIA | CONTRAS: NENHUM CONTRA POR ENQUANTO, ATE POR TER POUCO TEMPO DE CASA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-VA E VR
-PLR
-PLANO DE SAUDE</t>
+          <t>18 de ago. de 2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
+          <t>PROS: CLIMA AGRADAVEL E DE OTIMA HARMONIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.00253259 -0.01500531 -0.02015976 ... -0.01365368 -0.05068402
-  0.02543421]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA POR ENQUANTO, ATE POR TER POUCO TEMPO DE CASA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[ 0.01133658 -0.01883429 -0.05534294 ... -0.00595058 -0.04936017
+ -0.01051465]</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>23.61557006835938</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>11.67743873596191</v>
+        <v>50.17819213867188</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.903894662857056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SYSTEM ANALYST</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE | CONTRAS: VOLTA DO TRABALHO PRESENCIAL E PLR</t>
+          <t>PROS: VALE REFEICAO, AMBIENTE SUPER ACOLHEDOR | CONTRAS: NAO HA CONTRAS NA MINHA VISAO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE</t>
+          <t>1 de jul. de 2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VOLTA DO TRABALHO PRESENCIAL E PLR</t>
+          <t>PROS: VALE REFEICAO, AMBIENTE SUPER ACOLHEDOR</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.0200634   0.02876732 -0.01769434 ... -0.00282977 -0.06236354
-  0.01729666]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>NAO HA CONTRAS NA MINHA VISAO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[ 0.0130279  -0.03927266 -0.03972061 ...  0.00197288 -0.03687624
+ -0.00561335]</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>27.95774269104004</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>5.796682834625244</v>
+        <v>51.18799209594727</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.724339485168457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS SENIOR</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO. | CONTRAS: ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
+          <t>PROS: PESSOAL E MUITO LEGAL E ACOLHEDOR LA | CONTRAS: NADA A DECLARAR, NAO POSSO RECLAMAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO.</t>
+          <t>8 de jun. de 2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
+          <t>PROS: PESSOAL E MUITO LEGAL E ACOLHEDOR LA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.01172285  0.02411461 -0.01829123 ...  0.00542515 -0.04848177
- -0.00593545]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR, NAO POSSO RECLAMAR</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[ 0.01956422  0.02344313 -0.01537918 ... -0.01666108  0.00088776
+  0.0171763 ]</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>21.95746994018555</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>13.17204570770264</v>
+        <v>51.1454963684082</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.903244614601135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO | CONTRAS: REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
+          <t>PROS: EXCELENTES BENEFICIOS.
+BOA EMPRESA PARA SE TRABALHAR | CONTRAS: NAO TENHO NADA A RECLAMAR.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO</t>
+          <t>31 de mai. de 2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
+          <t>PROS: EXCELENTES BENEFICIOS.
+BOA EMPRESA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[ 7.9652509e-03  3.1094398e-02 -1.3423052e-02 ...  1.8924277e-02
- -5.1967811e-02 -5.6111367e-05]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A RECLAMAR.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[ 0.00264665 -0.00599658 -0.03570063 ... -0.02134025 -0.02199212
+  0.00613713]</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>16.75957107543945</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.719043731689453</v>
+        <v>51.29330825805664</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.3359324932098389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ATENDIMENTO</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM. | CONTRAS: TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>PROS: MUITO BOM TRABALHAR NO BANCO | CONTRAS: NAO TENHO NADA PARA FALAR.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM.</t>
+          <t>4 de jun. de 2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>PROS: MUITO BOM TRABALHAR NO BANCO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[ 0.01441871  0.00776831 -0.07184187 ... -0.00066556 -0.05942653
- -0.00812852]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA PARA FALAR.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[ 0.02451327  0.03045979 -0.01229673 ... -0.03223708 -0.02989824
+ -0.00242323]</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>36.63257217407227</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.824623107910156</v>
+        <v>49.43044281005859</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.519953012466431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOFTWARE ENGINEER I</t>
+          <t>ENGENHEIRO DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM. | CONTRAS: TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
+          <t>PROS: MUITO BOM, GOSTO MUITO DA EMPRESA | CONTRAS: NADA A DECLARAR, EMPRESA MUITO BOA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM.</t>
+          <t>27 de mai. de 2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
+          <t>PROS: MUITO BOM, GOSTO MUITO DA EMPRESA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[ 0.03236371  0.01399432 -0.06004817 ...  0.00564406 -0.03995465
- -0.0107003 ]</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR, EMPRESA MUITO BOA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[-0.02361506 -0.0019777  -0.04119215 ...  0.01405601 -0.03702303
+  0.0048838 ]</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>29.56142425537109</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>6.248080253601074</v>
+        <v>58.20046234130859</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9797599315643311</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLUTION ANALYST</t>
+          <t>SENIOR SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO | CONTRAS: O MODELO DE TRABALHO E PRESENCIAL</t>
+          <t>PROS: SALARIO, PLR , BENEFICIOS , CARRERIA | CONTRAS: NADA CONTRA. OTIMA EMPRESA PRA TRABALHAR.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ORGANIZADA E EM GRANDE EXPANSAO</t>
+          <t>30 de abr. de 2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O MODELO DE TRABALHO E PRESENCIAL</t>
+          <t>PROS: SALARIO, PLR , BENEFICIOS , CARRERIA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-0.0058362  -0.00183759 -0.04115825 ...  0.0335162  -0.03881507
-  0.00181562]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>NADA CONTRA. OTIMA EMPRESA PRA TRABALHAR.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[-0.02018963  0.00049575 -0.06527117 ...  0.01357999 -0.06529307
+  0.00130658]</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>27.55909156799316</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.146690368652344</v>
+        <v>60.54409408569336</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.020719528198242</v>
       </c>
     </row>
     <row r="22">
@@ -1300,4844 +1399,5379 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO | CONTRAS: CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
+          <t>PROS: CHANCES DE CRESCIMENTO E ESTA NUMA EMPRESA NUMA CRESCENTE | CONTRAS: NADA A ACRESCENTAR DE CONTRA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO</t>
+          <t>2 de abr. de 2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
+          <t>PROS: CHANCES DE CRESCIMENTO E ESTA NUMA EMPRESA NUMA CRESCENTE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-0.00043166 -0.01386358 -0.03909747 ...  0.00539202 -0.03425965
-  0.0146108 ]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>NADA A ACRESCENTAR DE CONTRA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[ 0.02269069 -0.01624697 -0.02509054 ...  0.00867862 -0.01084271
+  0.04571559]</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>25.98324775695801</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>14.29172801971436</v>
+        <v>52.31841278076172</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.292198896408081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR. | CONTRAS: 100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
+          <t>PROS: EXCELENTE EMPRESA QUE VALORIZA AS PESSOAS E AS DESAFIAS DIARIAMENTE. | CONTRAS: NAO VEJO PROBLEMAS RELEVANTES A SEREM CONSIDERADOS.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR.</t>
+          <t>3 de mar. de 2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
+          <t>PROS: EXCELENTE EMPRESA QUE VALORIZA AS PESSOAS E AS DESAFIAS DIARIAMENTE.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.00708406 -0.01625802 -0.03750843 ...  0.01130126 -0.02051
- -0.0089985 ]</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>NAO VEJO PROBLEMAS RELEVANTES A SEREM CONSIDERADOS.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[ 0.02889354 -0.02869408 -0.03189548 ...  0.02777488  0.0063195
+ -0.00287149]</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>24.60717964172363</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>12.36594581604004</v>
+        <v>55.72407913208008</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.452639579772949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>ENGENHEIRO DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS. | CONTRAS: 100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
+          <t>PROS: TEMOS MUITA LIBERDADE E BOM AMBIENTE. | CONTRAS: POR ENQUANTO NADA CONTA A EMPRESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS.</t>
+          <t>6 de mar. de 2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
+          <t>PROS: TEMOS MUITA LIBERDADE E BOM AMBIENTE.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-0.02547093 -0.01929995 -0.0313032  ... -0.00465169 -0.02023621
-  0.02151981]</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>POR ENQUANTO NADA CONTA A EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[-0.02122522  0.03642613 -0.04174011 ...  0.00914089 -0.04348097
+ -0.01738569]</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>24.00044822692871</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>11.8871955871582</v>
+        <v>59.88687133789062</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.1598513424396515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>TECH LEAD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR | CONTRAS: 100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
+          <t>PROS: BOM AMBIENTE, QUE FAVORECE O CRESCIMENTO PROFISSIONAL | CONTRAS: SEM NEGATIVAS, AMBIENTE MUITO BOM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR</t>
+          <t>29 de fev. de 2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
+          <t>PROS: BOM AMBIENTE, QUE FAVORECE O CRESCIMENTO PROFISSIONAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[ 0.00110986 -0.01979508 -0.0535312  ...  0.02560485 -0.00948574
-  0.0272726 ]</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>SEM NEGATIVAS, AMBIENTE MUITO BOM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[-0.0205219  -0.00564955 -0.03672867 ... -0.01978544 -0.02810378
+ -0.02481566]</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56113243103027</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>14.62997722625732</v>
+        <v>54.27164077758789</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13.52972412109375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO | CONTRAS: TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
+          <t>PROS: E UMA EMPRESA MARAVILHOSA PARA SE TRABALHAR | CONTRAS: NAO TENHO OQUE RECLAMAR DO INTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO</t>
+          <t>5 de out. de 2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
+          <t>PROS: E UMA EMPRESA MARAVILHOSA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-0.01757893  0.01576287 -0.04012255 ...  0.02515227 -0.04236136
-  0.04911643]</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>NAO TENHO OQUE RECLAMAR DO INTER</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[ 0.02602442 -0.00847965 -0.04516036 ... -0.00970611 -0.0174784
+  0.00648418]</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>24.11562538146973</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>8.791925430297852</v>
+        <v>49.93017578125</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7156201601028442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>ANALISTA DE RECURSOS HUMANOS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS)
-USO DE TECNOLOGIAS DE PONTA | CONTRAS: RETORNO A 100% PRESENCIAL (LAYOFF FORCADO)
-PLANO DE CARREIRA NEBULOSO
-POUCO RECONHECIMENTO</t>
+          <t>PROS: EXCELENTE ORGANIZACAO PARA SE TRABALHAR. | CONTRAS: NENHUMA AVALIACAO CONTRA ESTA ORGANIZACAO.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS)
-USO DE TECNOLOGIAS DE PONTA</t>
+          <t>3 de out. de 2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RETORNO A 100% PRESENCIAL (LAYOFF FORCADO)
-PLANO DE CARREIRA NEBULOSO
-POUCO RECONHECIMENTO</t>
+          <t>PROS: EXCELENTE ORGANIZACAO PARA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[ 0.01199566  0.01893803 -0.01301699 ...  0.00274754 -0.00437767
-  0.02387016]</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>NENHUMA AVALIACAO CONTRA ESTA ORGANIZACAO.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[ 0.0100752  -0.03734778 -0.05872737 ...  0.02135812  0.01063412
+  0.01029956]</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>19.72633171081543</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.279922962188721</v>
+        <v>55.9551887512207</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.521648406982422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS SENIOR</t>
+          <t>ESTAGIO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS. | CONTRAS: INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PROS: GRANDE CHANCE DE SER CONTRATADO | CONTRAS: NAO VEJO PONTO NEGATIVO, TEM QUE SE ESFORCAR COMO EM QUALQUER OUTRO EMPREGO.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS.</t>
+          <t>28 de jun. de 2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PROS: GRANDE CHANCE DE SER CONTRATADO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[-0.03905979 -0.01892735 -0.04387609 ... -0.02559904 -0.05607947
- -0.00620377]</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>NAO VEJO PONTO NEGATIVO, TEM QUE SE ESFORCAR COMO EM QUALQUER OUTRO EMPREGO.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[-0.00945722 -0.01147991 -0.04065632 ... -0.00047861 -0.0228692
+  0.02800057]</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>34.20361709594727</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>-9.070182800292969</v>
+        <v>56.77461624145508</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.36775779724121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA DE TI PLENO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS. | CONTRAS: SEM HOME OFFICE NA ESCALA.</t>
+          <t>PROS: SALARIO NA FAIXA DE MERCADO BENEFICIOS MUITO BONS AMBIENTE AGRADAVEL | CONTRAS: NENHUMA RELEVANTE VISTO QUE A EMPRESA TEM CRESCIDO E MANTIDO OS PROS.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS.</t>
+          <t>25 de abr. de 2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NA ESCALA.</t>
+          <t>PROS: SALARIO NA FAIXA DE MERCADO BENEFICIOS MUITO BONS AMBIENTE AGRADAVEL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[-0.0144873  -0.00390625 -0.04008721 ... -0.00473012 -0.01181669
-  0.04208991]</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>NENHUMA RELEVANTE VISTO QUE A EMPRESA TEM CRESCIDO E MANTIDO OS PROS.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[-0.03377223  0.02264182 -0.04045385 ...  0.02740509 -0.01244121
+  0.02598388]</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>31.22425270080566</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.198022842407227</v>
+        <v>60.9581298828125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.06394000351428986</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>PAYROLL SPECIALIST</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES. | CONTRAS: TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
+          <t>PROS: MUITAS OPORTUNIDADES DE CONHECIMENTO E CRESCIMENTO. | CONTRAS: NAO TENHO NADA CONTRA TRABALHAR NO INTER.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES.</t>
+          <t>4 de mai. de 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
+          <t>PROS: MUITAS OPORTUNIDADES DE CONHECIMENTO E CRESCIMENTO.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[ 0.00363109  0.01176187 -0.05575768 ...  0.030246   -0.03092512
-  0.02623926]</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA CONTRA TRABALHAR NO INTER.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[ 0.02487562 -0.0165646  -0.06246758 ...  0.01254813 -0.05124482
+  0.01206818]</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>3.581512212753296</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>-11.09129524230957</v>
+        <v>58.89921951293945</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.71140289306641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DEV JUNIOR</t>
+          <t>DESENVOLVEDOR DE SOFTWARE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA | CONTRAS: PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
+          <t>PROS: O SALARIO E OS BENEFICIOS SAO MUITO BONS. | CONTRAS: SEM CONTRAS ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA</t>
+          <t>12 de abr. de 2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
+          <t>PROS: O SALARIO E OS BENEFICIOS SAO MUITO BONS.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[-0.01787235  0.00643799 -0.01736414 ...  0.03730499 -0.04226557
-  0.02513584]</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[ 0.00717268 -0.01265999 -0.05021759 ... -0.01978401 -0.03542127
+ -0.04642694]</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>25.91458892822266</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>11.29129695892334</v>
+        <v>48.35688018798828</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.739561080932617</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO | CONTRAS: 100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
+          <t>PROS: BOA PRA TRABALHAR HOJE EM DIA | CONTRAS: SEM DETALHES A FALAR NO MOMENTO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO</t>
+          <t>12 de abr. de 2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
+          <t>PROS: BOA PRA TRABALHAR HOJE EM DIA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[-0.04350725 -0.00287309 -0.02427576 ... -0.01688447 -0.03493161
-  0.00302849]</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>SEM DETALHES A FALAR NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[-0.00628163  0.04979985 -0.05953295 ... -0.02524439 -0.03239506
+ -0.01368659]</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>21.2242431640625</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>7.922753810882568</v>
+        <v>46.23820495605469</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.028256893157959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DEV III</t>
+          <t>ADVOGADO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO CONTINUO
-VL E VR MUITO BONS | CONTRAS: FULL PRESENCIAL
-REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
+          <t>PROS: TICKET ALTISSIMO E MUITAS OPORTUNIDADES PARA QUEM ESTA INICIANDO NA CARREIRA. | CONTRAS: NADA RELACIONADO A INSTITUICAO / EMPRESA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO CONTINUO
-VL E VR MUITO BONS</t>
+          <t>18 de mar. de 2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FULL PRESENCIAL
-REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
+          <t>PROS: TICKET ALTISSIMO E MUITAS OPORTUNIDADES PARA QUEM ESTA INICIANDO NA CARREIRA.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[-0.010778   -0.03392081 -0.03182153 ...  0.02591266 -0.05815608
-  0.04350714]</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>NADA RELACIONADO A INSTITUICAO / EMPRESA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[ 0.00326537  0.00866162 -0.0309525  ...  0.02328753 -0.0282864
+  0.00925309]</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>23.65350341796875</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>6.45112133026123</v>
+        <v>56.40188217163086</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1.172365427017212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>SQUAD LEAD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS | CONTRAS: - PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
+          <t>PROS: OPORTUNIDADE DE CONSTRUIR, CLIMA AGRADAVEL. | CONTRAS: NADA RELACIONADO A INSTITUICAO / EMPRESA.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS</t>
+          <t>21 de mar. de 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>- PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
+          <t>PROS: OPORTUNIDADE DE CONSTRUIR, CLIMA AGRADAVEL.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[-0.02541626  0.02196439 -0.04190537 ... -0.01536224 -0.0488499
-  0.00873388]</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>NADA RELACIONADO A INSTITUICAO / EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[-0.0126322   0.00284063 -0.03937019 ...  0.02479248 -0.02906416
+  0.00067149]</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>13.32884407043457</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>5.715915679931641</v>
+        <v>56.45347595214844</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1.141256332397461</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE INVESTIMENTOS</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO | CONTRAS: PRESENCIAL, MAS NO GERAL E BEM BOM</t>
+          <t>PROS: OPORTUNIDADES FLEXIBILIDADE CONSTANTE MUDANCA AMBIENTE AGRADAVEL | CONTRAS: NAO TENHO NENHUM CONTRA EM RELACAO A TRABALHAR NA INSTITUICAO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO</t>
+          <t>10 de mar. de 2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PRESENCIAL, MAS NO GERAL E BEM BOM</t>
+          <t>PROS: OPORTUNIDADES FLEXIBILIDADE CONSTANTE MUDANCA AMBIENTE AGRADAVEL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[ 0.00030224 -0.01368882 -0.04453738 ...  0.02075723 -0.03951803
- -0.03395725]</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUM CONTRA EM RELACAO A TRABALHAR NA INSTITUICAO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[ 0.01693775 -0.02108627 -0.04265674 ... -0.01393125 -0.04055355
+  0.02188512]</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>28.90815544128418</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>12.15354633331299</v>
+        <v>58.61848831176758</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.481535911560059</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ESPECIALISTA PRODUTOS</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO | CONTRAS: NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
+          <t>PROS: TOPISSIMO MELHOR EMPRESA DO PAIS | CONTRAS: NENHUM NADA A RECLAMAR DESSA EMPRESA MARAVILHOSA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO</t>
+          <t>8 de fev. de 2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
+          <t>PROS: TOPISSIMO MELHOR EMPRESA DO PAIS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[ 0.00732761 -0.03277314 -0.01279992 ...  0.0139608  -0.06537861
- -0.03167481]</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>NENHUM NADA A RECLAMAR DESSA EMPRESA MARAVILHOSA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[-0.02694438 -0.00067832 -0.01861421 ...  0.02573176 -0.05127363
+  0.03840299]</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>34.40410614013672</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.885645389556885</v>
+        <v>59.39637756347656</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.556848526000977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ESPECIALISTA ANDROID DEVELOPER</t>
+          <t>DIRETOR GERAL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM
-EQUIPE AGRADAVEL DE TRABALHAR | CONTRAS: 100% PRESENCIAL
-DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
+          <t>PROS: DINAMICA E AGIL, MARCA EMPREGADORA E TIME IOVEM | CONTRAS: NAO TENHO NADA A DECLARAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM
-EQUIPE AGRADAVEL DE TRABALHAR</t>
+          <t>2 de fev. de 2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL
-DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
+          <t>PROS: DINAMICA E AGIL, MARCA EMPREGADORA E TIME IOVEM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[-0.02801224 -0.00712489 -0.04093913 ...  0.01233824 -0.01299394
- -0.01588033]</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A DECLARAR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[ 0.01460013 -0.00221936 -0.02364453 ... -0.01948495 -0.02503704
+  0.00131923]</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>18.73393821716309</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>13.9360466003418</v>
+        <v>50.60166168212891</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.223407387733459</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS</t>
+          <t>CUSTOMER ADVISOR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS. | CONTRAS: DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>PROS: AMBIENTE, COLEGAS, SALARIO, BENEFICIOS, OPORTUNIDADES. | CONTRAS: NAO HA CONTRAS A SER RELATADO.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS.</t>
+          <t>26 de dez. de 2022</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>PROS: AMBIENTE, COLEGAS, SALARIO, BENEFICIOS, OPORTUNIDADES.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[-0.00751774 -0.0080816  -0.05902507 ... -0.00833176 -0.0856968
-  0.02625751]</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>NAO HA CONTRAS A SER RELATADO.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[ 0.00551439 -0.02232239 -0.03380834 ...  0.01394022 -0.01522824
+  0.04262925]</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>36.31041717529297</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.445346832275391</v>
+        <v>52.08975982666016</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.633402347564697</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR | CONTRAS: SEM HOME OFFICE NO MOMENTO</t>
+          <t>PROS: TECNOLOGIAS DE PONTA NO MERCADO | CONTRAS: SEM NADA CONTRA PRA FALAR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR</t>
+          <t>7 de jan. de 2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NO MOMENTO</t>
+          <t>PROS: TECNOLOGIAS DE PONTA NO MERCADO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[-0.02944578  0.0173924  -0.02663165 ... -0.0101181  -0.07891993
- -0.01868301]</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
+          <t>SEM NADA CONTRA PRA FALAR</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[ 0.02266148  0.00286421 -0.01236751 ... -0.02025331 -0.00909454
+  0.04189113]</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>31.73666000366211</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>-9.436236381530762</v>
+        <v>52.19802093505859</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.015454769134521</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS. | CONTRAS: DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
+          <t>PROS: BOA EMPRESA PARA SE TRABALHAR | CONTRAS: SEM GRANDES CONTRAS PARA COMENTAR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS.</t>
+          <t>26 de dez. de 2022</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
+          <t>PROS: BOA EMPRESA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[-0.01602102  0.00126419  0.01252013 ... -0.00280203 -0.0302542
-  0.05500225]</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>SEM GRANDES CONTRAS PARA COMENTAR</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[-0.01724212 -0.00781752 -0.02740469 ... -0.00267956 -0.04169679
+  0.01401913]</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>14.21165370941162</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>7.315498352050781</v>
+        <v>48.91772079467773</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10.15733337402344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASSISTENTE JURIDICO</t>
+          <t>DESENOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO | CONTRAS: ENGESSADO
-POUCO INCLUSIVO
-PRESENCIAL
-HOSTIL</t>
+          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE, GESTAO E LIDERANCA | CONTRAS: NAO TEM NADA A DESEJAR NOS CONTRAS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO</t>
+          <t>25 de nov. de 2022</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ENGESSADO
-POUCO INCLUSIVO
-PRESENCIAL
-HOSTIL</t>
+          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE, GESTAO E LIDERANCA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[ 0.00894576 -0.00388305  0.02473573 ... -0.00192661 -0.05435414
-  0.01708661]</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>NAO TEM NADA A DESEJAR NOS CONTRAS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[ 0.02781919  0.00207463 -0.02122035 ... -0.00419425 -0.02863678
+ -0.01181388]</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>23.94898223876953</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.087709665298462</v>
+        <v>50.82601547241211</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.075255870819092</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANALISTA CX</t>
+          <t>SENIOR DEVELOPER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS | CONTRAS: AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>PROS: - BOM AMBIENTE DE TRABALHO - SALARIO COMPETITIVO - BONS BENEFICIOS | CONTRAS: NENHUM CONTRA ATE O MOMENTO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS</t>
+          <t>11 de nov. de 2022</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>PROS: - BOM AMBIENTE DE TRABALHO - SALARIO COMPETITIVO - BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[-0.01684366  0.00100497 -0.07823515 ... -0.00793744 -0.07085627
- -0.03130072]</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA ATE O MOMENTO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[ 0.04036127 -0.01543321 -0.05677567 ... -0.00670984 -0.04535154
+ -0.02008173]</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>31.49416732788086</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>-10.6739444732666</v>
+        <v>49.06647109985352</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.712606430053711</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ANALISTA PLD JR.</t>
+          <t>ANALISTA FINANCEIRO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO | CONTRAS: EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
+          <t>PROS: OTIMO CONVIVIO E RECONHECIMENTO DE FUNCIONARIO. | CONTRAS: NADA A RECLAMAR. EMPRESA OTIMA DE TRABALHAR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO</t>
+          <t>11 de nov. de 2022</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
+          <t>PROS: OTIMO CONVIVIO E RECONHECIMENTO DE FUNCIONARIO.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[-0.01021104 -0.00791429 -0.07070427 ...  0.0288446  -0.03560557
-  0.01936547]</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR. EMPRESA OTIMA DE TRABALHAR</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[-0.02309656  0.00036437 -0.06303891 ...  0.01691145 -0.02799484
+ -0.01130971]</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>24.10695648193359</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>13.54149532318115</v>
+        <v>58.90790557861328</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.664944171905518</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>JUNIOR IOS DEVELOPER</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS | CONTRAS: RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PROS: E MUITO TRANQUILO O AMBIENTE DE TRABALHO E TAMBEM POSSUI BASTANTE LIBERDADE PARA TRABALHAR | CONTRAS: NAO VEJO NENHUM CONTRA DE TRABALHAR NA EMPRESA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS</t>
+          <t>13 de out. de 2022</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PROS: E MUITO TRANQUILO O AMBIENTE DE TRABALHO E TAMBEM POSSUI BASTANTE LIBERDADE PARA TRABALHAR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[-0.02452936  0.05529533  0.00593045 ...  0.01231852 -0.03857494
-  0.00633162]</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>NAO VEJO NENHUM CONTRA DE TRABALHAR NA EMPRESA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[-0.00094667 -0.01300235 -0.05979402 ...  0.01605358 -0.07490977
+  0.03184723]</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>26.09322166442871</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.637841701507568</v>
+        <v>58.71195602416992</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.952773094177246</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CONSULTOR DE CREDITO IMOBILIARIO</t>
+          <t>SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
+          <t>PROS: BENEFICIOS DO SIDICATO BANCARIO COMO VR,VA | CONTRAS: NAO TENHO CONTRAS NO MOMENTO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL</t>
+          <t>17 de out. de 2022</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
+          <t>PROS: BENEFICIOS DO SIDICATO BANCARIO COMO VR,VA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[-0.02797371 -0.02313296 -0.02991615 ...  0.01230501 -0.05130238
-  0.02245873]</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>NAO TENHO CONTRAS NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[-0.00335878  0.00010328 -0.05070563 ... -0.02304706 -0.05300623
+ -0.04379369]</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>30.91649627685547</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.032783508300781</v>
+        <v>48.46064758300781</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.839984893798828</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DEV PLENO</t>
+          <t>TALENT MANAGEMENT SPECIALIST</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO | CONTRAS: VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
+          <t>PROS: EXCELENTE - EMPRESA COM MINDSET DE REALMENTE SIMPLIFICAR AS COISAS, ALEM DE TIMES COM OLHAR MUITO COLABORATIVO, PARCERIA E RESULTADOS. ALEM DE UMA OTIMA ESTRUTURA FISICA, INTER CAFE E AMBIENTE SAUDAVEL, DIVERSO E DINAMICO. | CONTRAS: NADA A DECLARAR SOBRE CONTRAS ATE O MOMENTO. SOU APAIXONADO POR TUDO ISSO AQUI!</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO</t>
+          <t>3 de fev. de 2022</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
+          <t>PROS: EXCELENTE - EMPRESA COM MINDSET DE REALMENTE SIMPLIFICAR AS COISAS, ALEM DE TIMES COM OLHAR MUITO COLABORATIVO, PARCERIA E RESULTADOS. ALEM DE UMA OTIMA ESTRUTURA FISICA, INTER CAFE E AMBIENTE SAUDAVEL, DIVERSO E DINAMICO.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[ 0.01611797  0.01080743 -0.037294   ... -0.01419023 -0.06588516
- -0.03491707]</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR SOBRE CONTRAS ATE O MOMENTO. SOU APAIXONADO POR TUDO ISSO AQUI!</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[ 0.0019329  -0.01431299 -0.02804563 ... -0.00359239 -0.0164415
+  0.00590643]</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>31.56978416442871</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>10.65482425689697</v>
+        <v>47.45591354370117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.683848857879639</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ESPECIALISTA JAVA</t>
+          <t>DESENVOLVEDORA SALESFORCE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO
-SALARIO COMPETITIVO | CONTRAS: A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
+          <t>PROS: PROJETOS MUITO ATRATIVOS E CONTRUTIVOS PESSOAS EXECELENTES PARA TRABALHAR EM EQUIPE SALARIO E BENEFICIOS MUITO BONS E MUITOS OUTRAS BENEFICIOS DE SE TRABALHAR NO INTER | CONTRAS: EMPRESA OTIMA NAO TEM NENHUM TOPICO CONTRA PARA APONTAR, TUDO MUITO BOM, ADORO TRABALHAR NO INTER, SANGUE LARANJA NA VEIA KKKK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO
-SALARIO COMPETITIVO</t>
+          <t>28 de jul. de 2021</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
+          <t>PROS: PROJETOS MUITO ATRATIVOS E CONTRUTIVOS PESSOAS EXECELENTES PARA TRABALHAR EM EQUIPE SALARIO E BENEFICIOS MUITO BONS E MUITOS OUTRAS BENEFICIOS DE SE TRABALHAR NO INTER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[-0.03676634  0.01169682 -0.02794434 ...  0.01770367 -0.07985572
-  0.00353923]</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
+          <t>EMPRESA OTIMA NAO TEM NENHUM TOPICO CONTRA PARA APONTAR, TUDO MUITO BOM, ADORO TRABALHAR NO INTER, SANGUE LARANJA NA VEIA KKKK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[-0.00605169 -0.00537091 -0.05363655 ...  0.03804055 -0.0527777
+ -0.00101652]</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>31.48137855529785</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>7.737504959106445</v>
+        <v>59.69161987304688</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.23639583587646</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR ESPECIALISTA</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM. | CONTRAS: IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
+          <t>PROS: EMPRESA EXCELENTE, AMBIENTE SUPER AGRADAVEL, PESSOAS COMPETENTES E ATENCIOSAS, LUGAR MUITO BACANA PARA TRABALHAR E PARA TER UM CRESCIMENTO DE CARREIRA. | CONTRAS: ATE O MOMENTO NAO PUDE PERCEBER NENHUM PONTO NEGATIVO DA EMPRESA, ESTOU GOSTANDO MUITO DE TRABALHAR LA E ESPERO QUE CONTINUE ASSIM, ESTA SENDO UMA EXPERIENCIA INCRIVEL.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM.</t>
+          <t>21 de nov. de 2018</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
+          <t>PROS: EMPRESA EXCELENTE, AMBIENTE SUPER AGRADAVEL, PESSOAS COMPETENTES E ATENCIOSAS, LUGAR MUITO BACANA PARA TRABALHAR E PARA TER UM CRESCIMENTO DE CARREIRA.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[-0.0061265   0.0424964   0.00132409 ...  0.02722853 -0.05162622
-  0.00306863]</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>ATE O MOMENTO NAO PUDE PERCEBER NENHUM PONTO NEGATIVO DA EMPRESA, ESTOU GOSTANDO MUITO DE TRABALHAR LA E ESPERO QUE CONTINUE ASSIM, ESTA SENDO UMA EXPERIENCIA INCRIVEL.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[-0.05754082  0.01617067 -0.01828755 ...  0.01800535 -0.08044073
+  0.00548339]</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>31.60236930847168</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.653406620025635</v>
+        <v>61.49394607543945</v>
+      </c>
+      <c r="J48" t="n">
+        <v>10.20849323272705</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE SOFTWARE</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO | CONTRAS: NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>PROS: LEGAL TRABALHAR LA,TECNOLOGIA E UM OTIMO APRENDIZADO COM PESSOAS PARA TE AJUDAR EM TODOS OS MOMENTOS E EM VARIAS AREAS DE CONHECIMENTO PARA A VIDA E CARREIRA | CONTRAS: NADA A RECLAMAR,ELES SEMPRE FAZEM O MELHIR PARA OS FUNCIONARIOS E SEMPRE ESTAO PREOCUPADOS COM O BEM ESTAR DE CADA UM,COM VARIOS ENSINAMENTOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO</t>
+          <t>21 de abr. de 2019</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>PROS: LEGAL TRABALHAR LA,TECNOLOGIA E UM OTIMO APRENDIZADO COM PESSOAS PARA TE AJUDAR EM TODOS OS MOMENTOS E EM VARIAS AREAS DE CONHECIMENTO PARA A VIDA E CARREIRA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[-0.0176176   0.00220679 -0.04976745 ... -0.01403018 -0.08203598
-  0.00976108]</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR,ELES SEMPRE FAZEM O MELHIR PARA OS FUNCIONARIOS E SEMPRE ESTAO PREOCUPADOS COM O BEM ESTAR DE CADA UM,COM VARIOS ENSINAMENTOS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[-0.03714947 -0.02310717 -0.05130471 ...  0.02036811  0.00019609
+ -0.00834062]</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>31.56018447875977</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>-5.897038459777832</v>
+        <v>63.5847053527832</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.708011150360107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUCESSO DO CLIENTE</t>
+          <t>ATENDENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES | CONTRAS: AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>PROS: UMA EXCELENTE EMPRESA PARA TRABALHAR. CARGA HORARIA REDUZIDA, SALARIO, COMISSAO, VT, VR, VA, VALE CULTURA, PLANO DE SAUDE E ODONTOLOGICO E PL. | CONTRAS: SEM PONTOS NEGATIVOS PARA RESSALTAR. COBRANCA EM RELACAO A META E FEITA COMO EM OUTRAS INSTITUICOES FINANCEIRAS. MELHORAR UM POUCO A GESTAO.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES</t>
+          <t>6 de dez. de 2018</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>PROS: UMA EXCELENTE EMPRESA PARA TRABALHAR. CARGA HORARIA REDUZIDA, SALARIO, COMISSAO, VT, VR, VA, VALE CULTURA, PLANO DE SAUDE E ODONTOLOGICO E PL.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[-0.02494424 -0.01219768 -0.07671119 ...  0.00949674 -0.04595485
- -0.0012539 ]</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
+          <t>SEM PONTOS NEGATIVOS PARA RESSALTAR. COBRANCA EM RELACAO A META E FEITA COMO EM OUTRAS INSTITUICOES FINANCEIRAS. MELHORAR UM POUCO A GESTAO.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[-0.01305362 -0.00663625 -0.03060005 ... -0.00158138 -0.04706544
+ -0.01772551]</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>31.65691947937012</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>-11.50908660888672</v>
+        <v>51.31371307373047</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17.04819869995117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE DEVELOPER</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS | CONTRAS: PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
+          <t>PROS: OS PONTOS POSITIVOS DA EMPRESA QUE EU DESTACO SAO: CULTURA ORGANIZACIONAL, VALORIZACAO DOS COLABORADORES, AMBIENTE AGRADAVEL, BOA REMUNERACAO E OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: EU ENTREI NA EMPRESA RECENTEMENTE E AINDA NAO IDENTIFIQUEI OS PONTOS NEGATIVOS, ESTOU MUITO SATISFEITO E RECOMENDO ESTA EMPRESA PARA OS FUTUROS COLABORADORES.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS</t>
+          <t>17 de abr. de 2018</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
+          <t>PROS: OS PONTOS POSITIVOS DA EMPRESA QUE EU DESTACO SAO: CULTURA ORGANIZACIONAL, VALORIZACAO DOS COLABORADORES, AMBIENTE AGRADAVEL, BOA REMUNERACAO E OPORTUNIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[-0.029526    0.01786759 -0.00287653 ...  0.02043194 -0.03840799
-  0.00841968]</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>6</v>
+          <t>EU ENTREI NA EMPRESA RECENTEMENTE E AINDA NAO IDENTIFIQUEI OS PONTOS NEGATIVOS, ESTOU MUITO SATISFEITO E RECOMENDO ESTA EMPRESA PARA OS FUTUROS COLABORADORES.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[-0.05181232 -0.00413186 -0.059106   ... -0.00165482 -0.0532917
+ -0.0130949 ]</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>11.48367881774902</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>-17.47047233581543</v>
+        <v>61.54703140258789</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10.33084392547607</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BUSINESS INTELLIGENCE ANALYST</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROS: * CULTURA,
-* VALE ALIMENTACAO E REFEICAO | CONTRAS: * TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
+          <t>PROS: BOM LOCAL DE TRABALHO, REMUNERACAO COMPATIVEL COM OUTROS BANCO, HORARIO DE TRABALHO DIFERENCIADO, AREA PARA OS FUNCIONARIOS, MAQUINAS DE CAFE E CHA GRATIS | CONTRAS: NAO HA VALE REFEICAO IGUAL OUTROS BANCOS. NAO HA MUITO PONTOS NEGATIVOS, O BANCO ESTA CRESCENDO MUITO, JUNTO COM TODOS OS FUNCIONARIOS!!!!!!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PROS: * CULTURA,
-* VALE ALIMENTACAO E REFEICAO</t>
+          <t>18 de jun. de 2019</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>* TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
+          <t>PROS: BOM LOCAL DE TRABALHO, REMUNERACAO COMPATIVEL COM OUTROS BANCO, HORARIO DE TRABALHO DIFERENCIADO, AREA PARA OS FUNCIONARIOS, MAQUINAS DE CAFE E CHA GRATIS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[-0.01669043  0.01544436 -0.03681854 ...  0.03294783 -0.03137436
-  0.0255557 ]</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
+          <t>NAO HA VALE REFEICAO IGUAL OUTROS BANCOS. NAO HA MUITO PONTOS NEGATIVOS, O BANCO ESTA CRESCENDO MUITO, JUNTO COM TODOS OS FUNCIONARIOS!!!!!!</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[-0.01952742  0.00517956 -0.03575438 ...  0.0082107  -0.0319976
+  0.00978453]</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>31.91829109191895</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>2.200096607208252</v>
+        <v>51.52486801147461</v>
+      </c>
+      <c r="J52" t="n">
+        <v>16.71889686584473</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL | CONTRAS: MODELO PRESENCIAL NAO E O IDEAL</t>
+          <t>PROS: AMBIENTE DE TRABALHO MUITO BOM, LEVE, SEM MUITA PRESSAO, MESMO COM O HOME OFFICE, NAO HA MICROGERENCIAMENTO DOS FUNCIONARIOS. GESTORES HUMANOS E QUE SABEM LIDAR COM OS DEMAIS TRABALHADORES. SALARIO E BENEFICIOS COMPETITIVOS. | CONTRAS: NAO TENHO NENHUM CONTRA PARA PONTUAR ATE ENTAO.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL</t>
+          <t>21 de mar. de 2022</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MODELO PRESENCIAL NAO E O IDEAL</t>
+          <t>PROS: AMBIENTE DE TRABALHO MUITO BOM, LEVE, SEM MUITA PRESSAO, MESMO COM O HOME OFFICE, NAO HA MICROGERENCIAMENTO DOS FUNCIONARIOS. GESTORES HUMANOS E QUE SABEM LIDAR COM OS DEMAIS TRABALHADORES. SALARIO E BENEFICIOS COMPETITIVOS.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.02130434 -0.01228214 -0.02957812 ...  0.02286534 -0.04956627
- -0.01770853]</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUM CONTRA PARA PONTUAR ATE ENTAO.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[ 0.01794802 -0.01955577 -0.03009034 ... -0.0271298  -0.0449717
+  0.0175282 ]</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>26.42032814025879</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>5.576284408569336</v>
+        <v>50.70907211303711</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.563352584838867</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IT ANALYST</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO | CONTRAS: DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR. ALEM DE SALARIOS E BENEFICIOS HA UM CLIMA MUITO BOM. FACIL ACESSO AOS GESTORES. OTIMA ESTRUTURA E EQUIPAMENTOS. OS PROCESSOS SAO SEMPRE REVISTOS EM FUNCAO DO CRESCIMENTO DA EMPRESA. ISSO NOS FAZ BUSCAR APERFEICOAMENTO TAMBEM. | CONTRAS: NADA A OPINAR NO MOMENTO.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO</t>
+          <t>16 de jan. de 2022</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR. ALEM DE SALARIOS E BENEFICIOS HA UM CLIMA MUITO BOM. FACIL ACESSO AOS GESTORES. OTIMA ESTRUTURA E EQUIPAMENTOS. OS PROCESSOS SAO SEMPRE REVISTOS EM FUNCAO DO CRESCIMENTO DA EMPRESA. ISSO NOS FAZ BUSCAR APERFEICOAMENTO TAMBEM.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.00903472 -0.0430213  -0.03302381 ... -0.00499433 -0.04782555
- -0.06385677]</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
+          <t>NADA A OPINAR NO MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[-0.0010522   0.0237767  -0.04969539 ... -0.00077463 -0.01659535
+ -0.01524745]</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>32.63411712646484</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>-4.443916797637939</v>
+        <v>47.27544021606445</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.306144654750824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
+          <t>NETWORK ENGINNER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM. | CONTRAS: NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
+          <t>PROS: EXCELENTE EMPRESA. LIBERDADE EM PROPOR SOLUCOES DE MELHORIA PARA O NEGOCIO, CRIATIVIDADE, EMPREENDEDORISMO, E MUITO MAIS. BOM RELACIONAMENTO COM AS LIDERANCAS, COORDENACAO E GESTAO. PROXIMIDADE QUE FACILITA O ECOSSISTEMA DO INTER. BENEFICIOS NO GERAL SAO OTIMOS. | CONTRAS: SEM PODER DE AVALIACAO PARA INFORMAR UM CONTRA. SO TENHO PROS.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM.</t>
+          <t>4 de ago. de 2021</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
+          <t>PROS: EXCELENTE EMPRESA. LIBERDADE EM PROPOR SOLUCOES DE MELHORIA PARA O NEGOCIO, CRIATIVIDADE, EMPREENDEDORISMO, E MUITO MAIS. BOM RELACIONAMENTO COM AS LIDERANCAS, COORDENACAO E GESTAO. PROXIMIDADE QUE FACILITA O ECOSSISTEMA DO INTER. BENEFICIOS NO GERAL SAO OTIMOS.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-0.0048904   0.02640477 -0.02015734 ...  0.00309795 -0.0738818
-  0.01202965]</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>6</v>
+          <t>SEM PODER DE AVALIACAO PARA INFORMAR UM CONTRA. SO TENHO PROS.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[-0.02347242  0.00950549 -0.01057544 ... -0.03010832 -0.04246168
+  0.01852705]</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>26.29502105712891</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.536371231079102</v>
+        <v>49.9160041809082</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12.75607872009277</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>DESENVOLVEDOR FULLSTACK</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO. | CONTRAS: REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
+          <t>PROS: ESTOU AQUI FAZ 1 ANO, E ATE AGORA ESTA MARAVILHOSO. AS PESSOAS ESTAO DISPOSTAS A TE AJUDAR, MESMO SENDO DE OUTRA SQUAD. VALORIZAM SEU TRABALHO | CONTRAS: NENHUM PONTO CONTRA NADA A RECLAMAR POR ENQUANTO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO.</t>
+          <t>21 de fev. de 2022</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
+          <t>PROS: ESTOU AQUI FAZ 1 ANO, E ATE AGORA ESTA MARAVILHOSO. AS PESSOAS ESTAO DISPOSTAS A TE AJUDAR, MESMO SENDO DE OUTRA SQUAD. VALORIZAM SEU TRABALHO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[-0.02016704  0.00849408 -0.02590217 ...  0.05731423 -0.04219189
-  0.01139898]</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>6</v>
+          <t>NENHUM PONTO CONTRA NADA A RECLAMAR POR ENQUANTO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[ 0.02588512 -0.02983158 -0.04747744 ...  0.00161669  0.00238258
+  0.02074116]</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>30.02121925354004</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>3.331588983535767</v>
+        <v>53.50226974487305</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.95059609413147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>SR TECH MANAGER</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO | CONTRAS: TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
+          <t>PROS: * SALARIO COMPATIVEL COM O MERCADO;
+* EXCELENTE CLIMA ORGANIZACIONAL; | CONTRAS: NAO TENHO NENHUM ITEM CONTRA, A EMPRESA OFERECE TUDO QUE UM PROFISSIONAL PRECISA PARA EXERCER SUA FUNCAO.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO</t>
+          <t>14 de jun. de 2022</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
+          <t>PROS: * SALARIO COMPATIVEL COM O MERCADO;
+* EXCELENTE CLIMA ORGANIZACIONAL;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[-0.01095673  0.00585248 -0.05050302 ...  0.01934971 -0.02732784
-  0.01088443]</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUM ITEM CONTRA, A EMPRESA OFERECE TUDO QUE UM PROFISSIONAL PRECISA PARA EXERCER SUA FUNCAO.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[-0.02237243 -0.03104247 -0.05650573 ... -0.00687553 -0.0779082
+  0.01181178]</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>24.75686645507812</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>11.05401134490967</v>
+        <v>61.19609832763672</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7.255533218383789</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ANALISTA COMPLIANCE PL</t>
+          <t>SOFTWARE DEV III</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO . | CONTRAS: SER 100% PRESENCIAL, ELEVADORES, .</t>
+          <t>PROS: EMPRESA EXCELENTE PARA SE TRABALHAR E CRESCER PROFISSIONALMENTE. TIME DE ALTA PERFORMANCE E TECNOLOGIAS DE PONTA EM TODOS OS PRODUTOS. | CONTRAS: BANCO INTER NAO POSSUI CONTRAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO .</t>
+          <t>17 de nov. de 2021</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SER 100% PRESENCIAL, ELEVADORES, .</t>
+          <t>PROS: EMPRESA EXCELENTE PARA SE TRABALHAR E CRESCER PROFISSIONALMENTE. TIME DE ALTA PERFORMANCE E TECNOLOGIAS DE PONTA EM TODOS OS PRODUTOS.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[-0.00590224 -0.01635947 -0.03692302 ...  0.02030727  0.00050024
-  0.03071524]</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>6</v>
+          <t>BANCO INTER NAO POSSUI CONTRAS</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[ 0.03112891 -0.02511198 -0.03829128 ...  0.02349353 -0.03793884
+ -0.03044363]</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>24.44738388061523</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>11.9696798324585</v>
+        <v>44.28356552124023</v>
+      </c>
+      <c r="J58" t="n">
+        <v>7.77442455291748</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS | CONTRAS: PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
+          <t>PROS: EMPRESA MUITO BOA PARA SE TRABALHAR, LUGAR DE MUITO APRENDIZADO E TROCA DE CONHECIMENTO! EXCELENTE | CONTRAS: AINDA NAO POSSUO CONTRAS SOBRE A EMPRESA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS</t>
+          <t>22 de jan. de 2022</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
+          <t>PROS: EMPRESA MUITO BOA PARA SE TRABALHAR, LUGAR DE MUITO APRENDIZADO E TROCA DE CONHECIMENTO! EXCELENTE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[-0.00155248  0.00417445 -0.0323936  ... -0.01322622  0.01064199
-  0.00918604]</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>6</v>
+          <t>AINDA NAO POSSUO CONTRAS SOBRE A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[-0.03489363 -0.01664465 -0.03094447 ... -0.01251909 -0.0760366
+ -0.02982908]</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>18.16805267333984</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>13.50238227844238</v>
+        <v>57.27466583251953</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6.334592819213867</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ADVISOR</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA | CONTRAS: 100% PRESENCIAL PARA UM BANCO DIGITAL
-COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
+          <t>PROS: EQUIPE DIVERSA E SEMPRE DISPOSTA A AJUDAR NAS TAREFAS DO DIA A DIA | CONTRAS: NAO FOI ENCONTRADO NENHUM CONTRA ATE O MOMENTO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA</t>
+          <t>1 de abr. de 2022</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL PARA UM BANCO DIGITAL
-COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
+          <t>PROS: EQUIPE DIVERSA E SEMPRE DISPOSTA A AJUDAR NAS TAREFAS DO DIA A DIA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[-0.01730546 -0.04033493 -0.04737912 ...  0.01170828 -0.03661618
- -0.01998857]</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
+          <t>NAO FOI ENCONTRADO NENHUM CONTRA ATE O MOMENTO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[ 0.03902613 -0.00530011 -0.05339208 ...  0.01992047 -0.01825104
+ -0.00907073]</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>26.42802810668945</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>13.61470222473145</v>
+        <v>48.58866119384766</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.281501054763794</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA | CONTRAS: SISTEMA HIBRIDO PARA A TI</t>
+          <t>PROS: PLR, COMISSAO DE VENDAS, VR E VA, PLANO DE SAUDE. | CONTRAS: NAO VEJO PONTOS NEGATIVOS PARA A EMPRESA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA</t>
+          <t>11 de mai. de 2022</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SISTEMA HIBRIDO PARA A TI</t>
+          <t>PROS: PLR, COMISSAO DE VENDAS, VR E VA, PLANO DE SAUDE.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[-0.03604996 -0.01304029 -0.03730661 ...  0.02044741 -0.00815835
-  0.03348633]</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>6</v>
+          <t>NAO VEJO PONTOS NEGATIVOS PARA A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[-0.02298694 -0.03133165 -0.04063221 ...  0.02749797 -0.04522668
+  0.00874282]</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>28.62464332580566</v>
+        <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.2451537102460861</v>
+        <v>57.01337814331055</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.66617488861084</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL
-BENEFICIOS COMPATIVEIS COM A CATEGORIA | CONTRAS: TRABALHO PRESENCIAL E HORARIO FIXO</t>
+          <t>PROS: EXCELENTE LUGAR PARA TRABALHAR, COM VALORIZACAO E CARREIRA ACELERADA. BOAS LIDERANCAS. BACKGROUND TECNOLOGICO PRONTO PARA FACILITAR AS ENTREGAS. | CONTRAS: SEM PONTOS CONTRAS PARA ADICIONAR.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE SAUDAVEL
-BENEFICIOS COMPATIVEIS COM A CATEGORIA</t>
+          <t>11 de jul. de 2022</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E HORARIO FIXO</t>
+          <t>PROS: EXCELENTE LUGAR PARA TRABALHAR, COM VALORIZACAO E CARREIRA ACELERADA. BOAS LIDERANCAS. BACKGROUND TECNOLOGICO PRONTO PARA FACILITAR AS ENTREGAS.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[-0.00211129 -0.00563196 -0.03501553 ...  0.02274149 -0.0361327
-  0.02899092]</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>6</v>
+          <t>SEM PONTOS CONTRAS PARA ADICIONAR.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[ 0.00193805 -0.01023214 -0.04096591 ... -0.01472588 -0.0739591
+  0.01504261]</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>28.77200317382812</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>6.845802307128906</v>
+        <v>47.96877670288086</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.05282020568848</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IOS DEVELOPER</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS | CONTRAS: QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
+          <t>PROS: OTIMO AMBIENTE. TANTO A EMPRESA QUANTO OS FUNCIONARIOS SEMPRE TENTANDO O MELHOR. | CONTRAS: NAO TIVE NENHUMA EXPERIENCIA NEGATIVA ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS</t>
+          <t>20 de abr. de 2021</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
+          <t>PROS: OTIMO AMBIENTE. TANTO A EMPRESA QUANTO OS FUNCIONARIOS SEMPRE TENTANDO O MELHOR.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[-0.00886755  0.00672509 -0.04435385 ...  0.02535574 -0.05670657
-  0.029976  ]</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>6</v>
+          <t>NAO TIVE NENHUMA EXPERIENCIA NEGATIVA ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[-0.00537813 -0.04495493 -0.04832702 ... -0.00081677 -0.03732028
+ -0.0164359 ]</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>32.55181121826172</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>14.29541492462158</v>
+        <v>54.93498611450195</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.577577590942383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO, | CONTRAS: NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROS: EXCELENTES LOCAL DE TRABALHO E CLIMA, OPORTUNIDADE DE DESENVOLVIMENTO | CONTRAS: NENHUMA SITUACAO QUE EU ME RECORDE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO,</t>
+          <t>29 de jun. de 2022</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROS: EXCELENTES LOCAL DE TRABALHO E CLIMA, OPORTUNIDADE DE DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[-0.00621002 -0.01614256 -0.04314301 ...  0.01560406 -0.0659321
-  0.00651388]</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>6</v>
+          <t>NENHUMA SITUACAO QUE EU ME RECORDE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[ 0.03736997 -0.01044365 -0.06316953 ... -0.03228462 -0.02428067
+ -0.01740513]</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>31.55323791503906</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>-2.039183616638184</v>
+        <v>48.65867614746094</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.7470253109931946</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>SENIOR FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS. | CONTRAS: A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
+          <t>PROS: PARTICIPO DE UMA EQUIPE BACANA COM CLIMA AGRADAVEL. FLEXIBILIDADE E BOM VALE REFEICAO ALIMENTACAO. | CONTRAS: NENHUM CONTRA ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE DE TI MUITO BOA E ENGAJADA, COM LIBERDADE PRA PROPOR SOLUCOES E TECNOLOGIAS. BONS BENEFICIOS (VA+VR), MAS MAIS DEVIDO AO SINDICATO QUE A EMPRESA EM SI. GESTORES PROXIMOS AOS DESENVOLVEDORES ACESSIVEIS E COMPREENSIVOS.</t>
+          <t>27 de out. de 2021</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A EMPRESA SIMPLESMENTE REVOGOU COMPLETAMENTE O HOME OFFICE PRATICAMENTE SEM AVISO PREVIO, FORAM MENOS DE 5 DIAS ENTRE O ANUNCIO OFICIAL E A DATA EM QUE DEVERIAMOS ESTAR PRESENTES NO ESCRITORIO. ESSA REGRA, INCLUSIVE NAO VALE PRA TODOS OS FUNCIONARIOS, APENAS PROS QUE MORAM EM BELO HORIZONTE E RECIFE. SE VOCE MORA NAS REGIOES METROPOLITANAS OU CIDADES EM QUE NAO HA ESCRITORIO, CONTINUA NO HOME OFFICE, OU SEJA, A NOVA "CULTURA" DO INTER NAO E PARA TODOS. A JA PROBLEMATICA DECISAO FICA AINDA PIOR NA EXECUCAO, TANTO NO PRAZO DADO PARA NOS ORGANIZARMOS, NA ESTRUTURA DO PREDIO QUE NAO SUPORTA COM CONFORTO O NUMERO DE FUNCIONARIOS QUANTO NA CARA LAVADA QUE O CEO DEU A NOTICIA. SE E UMA TENTATIVA DE USAR O MERCADO CHEIO DE LAYOFFS PARA GARANTIR QUE AS PESSOAS NAO VAO SAIR, VAI SE PROVAR UM GRANDE TIRO NO PE, JA QUE OS PRIMEIROS A SAIR SERAO OS QUE DETEM A MAIOR PARTE DO CONHECIMENTO DOS SISTEMAS.</t>
+          <t>PROS: PARTICIPO DE UMA EQUIPE BACANA COM CLIMA AGRADAVEL. FLEXIBILIDADE E BOM VALE REFEICAO ALIMENTACAO.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[-0.02092     0.00450584 -0.01262232 ... -0.00884494 -0.03947626
-  0.00902032]</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[ 0.03126408 -0.0128083  -0.0677307  ... -0.00779675 -0.04180322
+ -0.03755186]</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>-44.53565216064453</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>-6.01927661895752</v>
+        <v>49.35705184936523</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.92970609664917</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER I</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROS: LIDERANCAS MUITO BOAS
-FEEDBACK PRODUTIVO
-EMPRESA BEM ORGANIZADA
-PRIORIZA SEGURANCA | CONTRAS: TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
+          <t>PROS: EMPRESA INCRIVEL E COM VARIOS BENEFICIOS. | CONTRAS: SEM CONTRAS, EMPRESA COM O AMBIENTE MUITO BOM E QUE SE PREOCUPA COM SEUS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PROS: LIDERANCAS MUITO BOAS
-FEEDBACK PRODUTIVO
-EMPRESA BEM ORGANIZADA
-PRIORIZA SEGURANCA</t>
+          <t>11 de fev. de 2022</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
+          <t>PROS: EMPRESA INCRIVEL E COM VARIOS BENEFICIOS.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[-0.03022974  0.01149145 -0.0239025  ...  0.00643007 -0.04882653
- -0.0148055 ]</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS, EMPRESA COM O AMBIENTE MUITO BOM E QUE SE PREOCUPA COM SEUS FUNCIONARIOS.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[-0.0377121  -0.01693768 -0.058035   ...  0.0012931  -0.04556588
+ -0.04440925]</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>28.36406707763672</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>8.752964019775391</v>
+        <v>62.43932342529297</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.825284957885742</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS | CONTRAS: PODERIA SER 100% HOME OFFICE</t>
+          <t>PROS: BOM PLANO DE CARREIRA, OTIMOS BENEFICIOS, CLIMA BOM ENTRE AS EQUIPES. | CONTRAS: NAO VEJO PONTOS NEGATIVOS EM SE TRABALHAR NO INTER.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS</t>
+          <t>13 de fev. de 2022</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PODERIA SER 100% HOME OFFICE</t>
+          <t>PROS: BOM PLANO DE CARREIRA, OTIMOS BENEFICIOS, CLIMA BOM ENTRE AS EQUIPES.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[ 0.00423396  0.01900599 -0.04799246 ... -0.02205734 -0.04497654
-  0.01368951]</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>6</v>
+          <t>NAO VEJO PONTOS NEGATIVOS EM SE TRABALHAR NO INTER.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[-0.00343181 -0.02447688 -0.05251987 ...  0.02357467 -0.04290602
+  0.01644644]</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>30.95514106750488</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>-6.717596530914307</v>
+        <v>58.56534576416016</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.57719135284424</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CARREIRA
-AMBIENTE DESAFIADOR
-BONS BENEFICIOS | CONTRAS: PLR
-NAO POSSUI PREVIDENCIA COMPLEMENTAR
-100% PRESENCIAL</t>
+          <t>PROS: UMA EMPRESA MARAVILHOSA QUE BUSCA SEMPRE O MELHOR PARA O COLABORADOR. | CONTRAS: NAO TENHO NADA A ADICIONAR COMO UM CONTRA DA EMPRESA.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIDADE DE CARREIRA
-AMBIENTE DESAFIADOR
-BONS BENEFICIOS</t>
+          <t>12 de abr. de 2022</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PLR
-NAO POSSUI PREVIDENCIA COMPLEMENTAR
-100% PRESENCIAL</t>
+          <t>PROS: UMA EMPRESA MARAVILHOSA QUE BUSCA SEMPRE O MELHOR PARA O COLABORADOR.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[-0.05710358  0.00225257 -0.00689728 ...  0.00310535 -0.0468839
-  0.01529546]</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A ADICIONAR COMO UM CONTRA DA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[-0.00369512 -0.00496678 -0.03197233 ... -0.00623591 -0.05567763
+  0.00481512]</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>22.30398178100586</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>6.907236099243164</v>
+        <v>57.21589279174805</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.645509719848633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>MOBILE SPECIALIST</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR. | CONTRAS: PRESENCIAL AQUI EM BELO HORIZONTE</t>
+          <t>PROS: UM DOS MELHORES LUGARES PARA SE TRABALHAR, RECONHECIMENTO E VALORIZACAO DO PROFISSIONAL | CONTRAS: NO PERIODO DE UM ANO, NADA AINDA A QUESTIONAR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR.</t>
+          <t>13 de jul. de 2022</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PRESENCIAL AQUI EM BELO HORIZONTE</t>
+          <t>PROS: UM DOS MELHORES LUGARES PARA SE TRABALHAR, RECONHECIMENTO E VALORIZACAO DO PROFISSIONAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[-0.0267741   0.01040121 -0.01733412 ...  0.01923434 -0.00520305
-  0.02066994]</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>6</v>
+          <t>NO PERIODO DE UM ANO, NADA AINDA A QUESTIONAR</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[ 0.01346618  0.00315222 -0.05222229 ...  0.00995943 -0.00272474
+  0.00707788]</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>28.82066535949707</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>10.78156661987305</v>
+        <v>54.34637451171875</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.960957169532776</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ASSISTENTE DE MESA NEGOCIOS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES . | CONTRAS: SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
+          <t>PROS: AMBIENTE LEVE, SUPORTE DE SUPERIORES, FERRAMENTAS DE TRABALHO COMPATIVEIS. | CONTRAS: NENHUMA INSATISFACAO A RELATAR NO PERIODO DE TRABALHO.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES .</t>
+          <t>28 de abr. de 2022</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
+          <t>PROS: AMBIENTE LEVE, SUPORTE DE SUPERIORES, FERRAMENTAS DE TRABALHO COMPATIVEIS.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[-0.06325245 -0.01610595 -0.02022112 ...  0.00908009 -0.03945377
-  0.00033766]</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>6</v>
+          <t>NENHUMA INSATISFACAO A RELATAR NO PERIODO DE TRABALHO.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[-0.00979424 -0.05601176 -0.07397158 ...  0.00864422 -0.03498738
+ -0.01076533]</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>22.1751651763916</v>
+        <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>9.549093246459961</v>
+        <v>55.87319183349609</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7.330031394958496</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>UI/UX DESIGNER PLENO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS | CONTRAS: TRABALHO E NA MODALIDADE PRESENCIAL</t>
+          <t>PROS: POSSUI UMA CULTURA DE VALORIZACAO INTERNA MUITO INTERESSANTE, COM PROMOCOES E MERITOS. | CONTRAS: SEM NADA PARA CONSTAR NO MOMENTO.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS</t>
+          <t>2 de mai. de 2022</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TRABALHO E NA MODALIDADE PRESENCIAL</t>
+          <t>PROS: POSSUI UMA CULTURA DE VALORIZACAO INTERNA MUITO INTERESSANTE, COM PROMOCOES E MERITOS.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[ 0.00361396  0.00332042 -0.035672   ...  0.04430081 -0.05610407
-  0.00222194]</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>6</v>
+          <t>SEM NADA PARA CONSTAR NO MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[ 0.00264024  0.03630519 -0.03321252 ... -0.02183647 -0.02919928
+ -0.01739087]</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>27.97001266479492</v>
+        <v>6</v>
       </c>
       <c r="I71" t="n">
-        <v>7.334691047668457</v>
+        <v>46.92155456542969</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-1.108107924461365</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ANALISTA SOLUCOES II</t>
+          <t>ESPECIALISTA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS | CONTRAS: A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
+          <t>PROS: EMPRESA INOVADORA, INSPIRADORA E ALTAMENTE COMPROMETIDA COM SEUS FUNCIONARIOS | CONTRAS: NAO TENHO NENHUM CONTRA NO MOMENTO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PROS: CLIMA AMIGAVEL, OTIMOS BENEFICIOS, BONS EQUIPAMENTOS</t>
+          <t>21 de dez. de 2020</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A EMPRESA OPTOU PELO MODELO DE TRABALHO PRESENCIAL</t>
+          <t>PROS: EMPRESA INOVADORA, INSPIRADORA E ALTAMENTE COMPROMETIDA COM SEUS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[-0.02183793 -0.01178277 -0.04255221 ...  0.02948489 -0.06584557
- -0.00546445]</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[ 0.02034525  0.00168528 -0.04251616 ... -0.02473557 -0.04975003
+ -0.0168595 ]</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>31.24264717102051</v>
+        <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>7.918139934539795</v>
+        <v>49.00405883789062</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6.651979446411133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>ADVOGADO SENIOR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO | CONTRAS: FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
+          <t>PROS: DINAMICO, ALEGRE, INOVADOR, ESTRATEGICO, INSTIGANTE | CONTRAS: EU NAO VEJO PONTOS NEGATIVOS EM TRABALHAR NO INTER</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO</t>
+          <t>28 de mai. de 2021</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
+          <t>PROS: DINAMICO, ALEGRE, INOVADOR, ESTRATEGICO, INSTIGANTE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[ 0.00894982  0.00058856 -0.02626846 ...  0.01054131 -0.0474486
- -0.01670653]</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>6</v>
+          <t>EU NAO VEJO PONTOS NEGATIVOS EM TRABALHAR NO INTER</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[ 0.00267567 -0.03244263 -0.05560921 ...  0.01329052 -0.04778294
+  0.02225502]</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>19.85048866271973</v>
+        <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>8.373468399047852</v>
+        <v>58.541259765625</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11.63075065612793</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ANALISTA FRONT END SENIOR</t>
+          <t>DEV 3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA. | CONTRAS: MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
+          <t>PROS: TRABALHO E PROMOCOES AVALIADOS DE ACORDO COM MERITO DE FORMA JUSTA | CONTRAS: NA A RECLAMAR NO MOMENTO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA.</t>
+          <t>9 de set. de 2021</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
+          <t>PROS: TRABALHO E PROMOCOES AVALIADOS DE ACORDO COM MERITO DE FORMA JUSTA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[-0.03614717  0.00460614 -0.0565142  ...  0.02656751 -0.04347127
-  0.02828675]</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
+          <t>NA A RECLAMAR NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[-0.00304538  0.02970875 -0.05182897 ...  0.00486397 -0.0117377
+ -0.03264209]</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>28.7296199798584</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>1.12258517742157</v>
+        <v>45.25814056396484</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.681973695755005</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>COORDENADOR DE GROWTH</t>
+          <t>SENIOR SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES. | CONTRAS: MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
+          <t>PROS: LIBERDADE, ALTA TECNOLOGIA, COLABORATIVO, INOVACAO, RECONHECIMENTO | CONTRAS: NAO TEM CONTRAS EM TRABALHAR NO INTER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES.</t>
+          <t>29 de out. de 2021</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
+          <t>PROS: LIBERDADE, ALTA TECNOLOGIA, COLABORATIVO, INOVACAO, RECONHECIMENTO</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[-0.0326104   0.00985104 -0.03945314 ...  0.02093988 -0.02085974
- -0.01397331]</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>6</v>
+          <t>NAO TEM CONTRAS EM TRABALHAR NO INTER</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[ 0.02890466 -0.0435391  -0.04895726 ...  0.02177021 -0.03997718
+ -0.01057376]</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>20.72369766235352</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
-        <v>6.320693969726562</v>
+        <v>58.56969451904297</v>
+      </c>
+      <c r="J75" t="n">
+        <v>12.43344879150391</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA. | CONTRAS: NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>PROS: AMBIENTE LEVE PARA TRABALHAR EM QUE SE PODE CRESCER MUITO. | CONTRAS: NAO HA NADA CONTRA A DIZER.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA.</t>
+          <t>24 de ago. de 2022</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>PROS: AMBIENTE LEVE PARA TRABALHAR EM QUE SE PODE CRESCER MUITO.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[-0.00125005 -0.03532332 -0.04551557 ... -0.01581206 -0.06580534
- -0.02316671]</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>6</v>
+          <t>NAO HA NADA CONTRA A DIZER.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[ 0.01477188 -0.02424662 -0.02872089 ... -0.00275835 -0.02182467
+  0.01089822]</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>34.52063751220703</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>-6.497648239135742</v>
+        <v>52.23111724853516</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.907168865203857</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
+          <t>ANALISTA DE FORMALIZACAO JUNIOR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES. | CONTRAS: EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
+          <t>PROS: OTIMA EMPRESA, TRANQUILA DE MAIS, BOA DE TRABALHAR | CONTRAS: NADA A DECLARA, EMPRESA RENOMADA E MUITO BOA DE SE TRABALHAR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES.</t>
+          <t>2 de abr. de 2020</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
+          <t>PROS: OTIMA EMPRESA, TRANQUILA DE MAIS, BOA DE TRABALHAR</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[-0.031213    0.01288762  0.00157697 ...  0.02326969 -0.08787385
-  0.0111258 ]</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>6</v>
+          <t>NADA A DECLARA, EMPRESA RENOMADA E MUITO BOA DE SE TRABALHAR</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[-0.02136526  0.00991865 -0.0529993  ...  0.0180432  -0.04246658
+ -0.01452608]</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>32.55148315429688</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>14.33853054046631</v>
+        <v>58.83276748657227</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-2.568236589431763</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>SOFTWARE ENGINEER</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS | CONTRAS: AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
+          <t>PROS: EXCELENTE EMPRESA PARA TRABALHAR. PARTICIPACAO NOS LUCROS. | CONTRAS: NENHUM CONTRA. E UMA EXCELENTE EMPRESA PARA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS</t>
+          <t>5 de out. de 2021</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
+          <t>PROS: EXCELENTE EMPRESA PARA TRABALHAR. PARTICIPACAO NOS LUCROS.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[-0.00431584  0.01816787 -0.04548356 ... -0.01007666 -0.03827336
-  0.00445132]</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA. E UMA EXCELENTE EMPRESA PARA SE TRABALHAR.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[-0.02669385 -0.00405867 -0.04811706 ...  0.01520141 -0.05577664
+  0.01093063]</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>31.28754997253418</v>
+        <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>10.58742809295654</v>
+        <v>60.47888565063477</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7.108555316925049</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL | CONTRAS: NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR. | CONTRAS: NENHUMA OPINIAO CONTRA SOBRE A EMPRESA.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL</t>
+          <t>21 de dez. de 2021</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[-0.02642378 -0.03322826 -0.03264328 ...  0.00649812 -0.05491585
- -0.01144214]</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>6</v>
+          <t>NENHUMA OPINIAO CONTRA SOBRE A EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[-0.0257869  -0.02253564 -0.04281887 ...  0.01249754 -0.03170429
+  0.00425674]</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>33.87486267089844</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>-6.824520587921143</v>
+        <v>57.04225540161133</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.483524322509766</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA DA INFORMACAO</t>
+          <t>ASSISTENTE DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS | CONTRAS: VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
+          <t>PROS: MUITO BOM TRABALHAR NO INTER | CONTRAS: NAO TEM AVALIACAO NEGATIVA NO PERIODO QUE FIQUEI.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DA OPORTUNIDADE PARA FUNCIONARIOS</t>
+          <t>23 de mai. de 2022</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VOLTA AO PRESENCIAL NAO FAZ SENTIDO.</t>
+          <t>PROS: MUITO BOM TRABALHAR NO INTER</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[-0.00697409  0.01524449 -0.03793512 ... -0.00186482 -0.05585504
-  0.02219568]</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>6</v>
+          <t>NAO TEM AVALIACAO NEGATIVA NO PERIODO QUE FIQUEI.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[-0.01824515 -0.04481698 -0.05610046 ... -0.02707864 -0.0346699
+  0.00093042]</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>33.15145492553711</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>10.96708202362061</v>
+        <v>54.87135696411133</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8.64410400390625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO. | CONTRAS: CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
+          <t>PROS: EMPRESA MUITO BOA QUE VALORIZA OS FUNCIONARIOS | CONTRAS: TODA EMPRESA TEM SEUS CONTRAS, MAS NO MOMENTO ESTOU SATISFEITA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO.</t>
+          <t>7 de jun. de 2022</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
+          <t>PROS: EMPRESA MUITO BOA QUE VALORIZA OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[-0.01730465 -0.00278825 -0.04186657 ...  0.0088452  -0.01794557
-  0.06624416]</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>6</v>
+          <t>TODA EMPRESA TEM SEUS CONTRAS, MAS NO MOMENTO ESTOU SATISFEITA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[-0.00177334 -0.03812392 -0.0617057  ... -0.0145097  -0.08590574
+  0.00015151]</t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>25.03549385070801</v>
+        <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.205379843711853</v>
+        <v>62.45821762084961</v>
+      </c>
+      <c r="J81" t="n">
+        <v>9.612438201904297</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SRE ENGINEER</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO | CONTRAS: 100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
+          <t>PROS: OTIMA EQUIPE, EMPRESA DINAMICA, LIDERANCA ABERTA A DISCUSSAO | CONTRAS: NAO TEM MUITO O QUE RECLAMAR DA EMPRESA EM SI</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO</t>
+          <t>28 de jul. de 2022</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
+          <t>PROS: OTIMA EQUIPE, EMPRESA DINAMICA, LIDERANCA ABERTA A DISCUSSAO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[-0.03840589  0.00696638 -0.03128608 ...  0.02097161 -0.01085034
-  0.00628851]</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>6</v>
+          <t>NAO TEM MUITO O QUE RECLAMAR DA EMPRESA EM SI</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[-0.02315923  0.00278134 -0.03740219 ... -0.00524655 -0.05088712
+  0.0082707 ]</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>21.11562728881836</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>4.271371364593506</v>
+        <v>58.75797271728516</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.514410018920898</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS</t>
+          <t>SENIOR SOFTWARE ENGINEER</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO | CONTRAS: 100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
+          <t>PROS: NOVAS TECNOLOGIAS, EXCELENTE COLEGAS E AUTONOMIA | CONTRAS: NAO TENHO NADA A RECLAMAR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS PROFISSIONAIS COM DIVERSOS NIVEIS DE CONHECIMENTO OTIMOS BENEFICIOS CULTURA DATADRIVEN EM AMADURECIMENTO</t>
+          <t>28 de jun. de 2021</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL DEMORA MAIS PEGAR O ELEVADOR DO QUE O ONIBUS AUMENTO BIZARRO NO PRECO DAS COISAS NO INTERCAFE APOS RETORNO AO PRESENCIAL</t>
+          <t>PROS: NOVAS TECNOLOGIAS, EXCELENTE COLEGAS E AUTONOMIA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[-0.00989991  0.01066394 -0.01530047 ... -0.02314569 -0.03312112
-  0.02320087]</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A RECLAMAR</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[ 0.00421884 -0.00511056 -0.02828177 ... -0.01646771 -0.01994656
+  0.01321092]</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>23.90046310424805</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.38571310043335</v>
+        <v>51.04837417602539</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.5690633654594421</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ASSISTANT MANAGER</t>
+          <t>PRODUCT ANALYST</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR | CONTRAS: PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
+          <t>PROS: TUDO E PRO: AMBIENTE, BENEFICIOS, EQUIPE | CONTRAS: NADA DE RUIM! SINCERAMENTE, MELHOR EMPRESA NA QUAL TRABALHEI.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR</t>
+          <t>3 de set. de 2021</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
+          <t>PROS: TUDO E PRO: AMBIENTE, BENEFICIOS, EQUIPE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[ 0.02672206  0.00530708 -0.03180679 ...  0.02217198 -0.02270452
-  0.02978247]</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>6</v>
+          <t>NADA DE RUIM! SINCERAMENTE, MELHOR EMPRESA NA QUAL TRABALHEI.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[-0.04349823  0.0156697  -0.05002962 ...  0.00639112 -0.03905164
+ -0.02301681]</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>25.23448181152344</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>9.201034545898438</v>
+        <v>60.93570327758789</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.043375492095947</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>ACESSOR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO | CONTRAS: 0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>PROS: BOM SALARIO, AUTONOMIA, TEMPO PARA LAZER | CONTRAS: NADA, SIMPLESMENTE NADA, OTIMO, E ISSO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO</t>
+          <t>25 de dez. de 2021</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>PROS: BOM SALARIO, AUTONOMIA, TEMPO PARA LAZER</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[-0.06224355  0.03625593 -0.03507142 ...  0.00752351 -0.03629234
-  0.00353786]</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>6</v>
+          <t>NADA, SIMPLESMENTE NADA, OTIMO, E ISSO</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[-0.00057782  0.00952421 -0.02970983 ... -0.03437508  0.00091685
+ -0.03279838]</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>30.46943283081055</v>
+        <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>-5.584045886993408</v>
+        <v>53.67628860473633</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-3.764577865600586</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA DA INFORMACAO SENIOR</t>
+          <t>JOVEM APRENDIZ ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
+          <t>PROS: EMPRESA COM OTIMA ESTRUTURA E MUITO CUIDADO COM SEUS FUNCIONARIOS. | CONTRAS: NADA A RECLAMAR, NADA A RECLAMAR,</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO.</t>
+          <t>5 de fev. de 2022</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
+          <t>PROS: EMPRESA COM OTIMA ESTRUTURA E MUITO CUIDADO COM SEUS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[-0.01980272 -0.00165229 -0.03722713 ...  0.01001335 -0.03513224
-  0.03515693]</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR, NADA A RECLAMAR,</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[ 0.01839556  0.00356211 -0.04622479 ...  0.01214139  0.01246567
+  0.01334672]</t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>26.85247611999512</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>8.59781551361084</v>
+        <v>52.68202590942383</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2151808440685272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES. | CONTRAS: O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
+          <t>PROS: STACK ATRATIVA, SALARIO E VENEFICIOS COMPETITIVOS | CONTRAS: NAO HA ITENS QUE ME DESAGRADARAM ATE O MOMENTO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES.</t>
+          <t>8 de fev. de 2022</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
+          <t>PROS: STACK ATRATIVA, SALARIO E VENEFICIOS COMPETITIVOS</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[-0.0431212  -0.0147208  -0.04119771 ...  0.02314336 -0.05330416
-  0.01423836]</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>6</v>
+          <t>NAO HA ITENS QUE ME DESAGRADARAM ATE O MOMENTO</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[ 0.00627667 -0.00754289 -0.05691685 ... -0.03321235 -0.02868444
+ -0.04770098]</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>22.97611045837402</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>6.354546546936035</v>
+        <v>47.54862594604492</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.835715293884277</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ANALISTA DE AUTOMACAO DE PROCESSOS JUNIOR</t>
+          <t>TECH LEAD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR. | CONTRAS: MODELO PRESENCIAL E NAO TEM PLR</t>
+          <t>PROS: EMPRESA REALMENTE FOCADA EM RESOLVER OS PROBLEMAS DOS CLIENTES. | CONTRAS: NADA QUE INCOMODE POR ENQUANTO.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS NA MEDIA DO MERCADO E BENEFICIOS BONS POR SE TRATAR DO SETOR BANCARIO, APESAR DE NAO TER PLR.</t>
+          <t>25 de mar. de 2021</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MODELO PRESENCIAL E NAO TEM PLR</t>
+          <t>PROS: EMPRESA REALMENTE FOCADA EM RESOLVER OS PROBLEMAS DOS CLIENTES.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[-0.04694185 -0.01493592 -0.01786415 ...  0.01757115 -0.0508334
- -0.0149321 ]</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>6</v>
+          <t>NADA QUE INCOMODE POR ENQUANTO.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[-0.00306018 -0.01474355 -0.04707494 ...  0.00728429  0.00932048
+  0.00873215]</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>26.56685066223145</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>5.613861560821533</v>
+        <v>54.02224349975586</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.517848253250122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS SENIOR</t>
+          <t>ANALISTA DESENVOLVEDOR.NET</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS | CONTRAS: ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
+          <t>PROS: AMBIENTE, EQUIPE, EQUIPAMENTOS, OPORTUNIDADES E O RESTO. | CONTRAS: NADA A DIZER, TUDO MUITO BOM PRA MIM.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS</t>
+          <t>29 de jun. de 2021</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
+          <t>PROS: AMBIENTE, EQUIPE, EQUIPAMENTOS, OPORTUNIDADES E O RESTO.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[ 0.01247508  0.01109592 -0.02342064 ...  0.02964051 -0.05869276
-  0.00753827]</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>6</v>
+          <t>NADA A DIZER, TUDO MUITO BOM PRA MIM.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[ 0.02645731  0.03645576 -0.03408368 ... -0.02359539 -0.04819452
+  0.01979931]</t>
+        </is>
       </c>
       <c r="G89" t="n">
         <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>32.18167495727539</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>4.313594341278076</v>
+        <v>51.4789924621582</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-3.86979603767395</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR | CONTRAS: MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
+          <t>PROS: OTIMO LUGAR DE TRABALHO, CULTURA E CLIMA EXCELENTES | CONTRAS: NAO TEM CONTRAS, EMPRESA EXCELENTE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR</t>
+          <t>22 de jul. de 2021</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
+          <t>PROS: OTIMO LUGAR DE TRABALHO, CULTURA E CLIMA EXCELENTES</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[-0.04463721 -0.01792911 -0.05522779 ...  0.01981722 -0.06385035
- -0.02456266]</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>6</v>
+          <t>NAO TEM CONTRAS, EMPRESA EXCELENTE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[-0.02719682 -0.03471213 -0.03360673 ...  0.01544179 -0.0537887
+ -0.02222131]</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>26.80645751953125</v>
+        <v>6</v>
       </c>
       <c r="I90" t="n">
-        <v>7.484464645385742</v>
+        <v>59.30550003051758</v>
+      </c>
+      <c r="J90" t="n">
+        <v>7.38170337677002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>DESENVOLVEDOR BACK-END JAVA JUNIOR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL | CONTRAS: ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
+          <t>PROS: AMBIENTE COLABORATIVO, DIVERTIDO E PERFEITO PARA CRESCIMENTO PROFISSIONAL | CONTRAS: NAO VEJO NENHUM PONTO NEGATIVO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL</t>
+          <t>7 de jun. de 2022</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
+          <t>PROS: AMBIENTE COLABORATIVO, DIVERTIDO E PERFEITO PARA CRESCIMENTO PROFISSIONAL</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[-0.01882992  0.01385336 -0.03216265 ... -0.01331801 -0.06572375
-  0.00095199]</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>6</v>
+          <t>NAO VEJO NENHUM PONTO NEGATIVO</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[-0.00556963 -0.04001904 -0.0268414  ... -0.01449691 -0.03583763
+  0.0291456 ]</t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>37.05435943603516</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>-10.39218902587891</v>
+        <v>53.87432479858398</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.772769927978516</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO | CONTRAS: A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
+          <t>PROS: BOA EMPRESA, OTIMOS BENEFICIOS, SALARIO MUITO BOM | CONTRAS: NADA CONTRA, EMPRESA PREOCUPADA COM O FUNCIONARIO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO</t>
+          <t>18 de jan. de 2021</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
+          <t>PROS: BOA EMPRESA, OTIMOS BENEFICIOS, SALARIO MUITO BOM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[ 4.2562220e-05  3.4675654e-02 -3.8956873e-02 ...  1.0962432e-02
- -5.4139994e-02  2.2035753e-02]</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>6</v>
+          <t>NADA CONTRA, EMPRESA PREOCUPADA COM O FUNCIONARIO</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[-0.00378482 -0.02920766 -0.05754308 ...  0.01533512 -0.03686416
+  0.01611179]</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v>6</v>
       </c>
       <c r="H92" t="n">
-        <v>18.35540962219238</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>10.47652435302734</v>
+        <v>62.54082870483398</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7.719337463378906</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA | CONTRAS: NAO POSSUI HOME DEFORMA DEFINIDA.</t>
+          <t>PROS: EMPRESA MODERNA , COM OTIMO AMBIENTE DE TRABALHO. | CONTRAS: SEM CONTRAS, EXPERIENCIA BEM POSITIVA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA</t>
+          <t>19 de mar. de 2021</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NAO POSSUI HOME DEFORMA DEFINIDA.</t>
+          <t>PROS: EMPRESA MODERNA , COM OTIMO AMBIENTE DE TRABALHO.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[ 0.01055658 -0.01357716 -0.0566688  ... -0.00583292 -0.078072
- -0.00301331]</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS, EXPERIENCIA BEM POSITIVA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[-0.02401017 -0.06906583 -0.05159147 ... -0.00679998 -0.04899309
+  0.02372904]</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>35.64292907714844</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>-6.051323413848877</v>
+        <v>55.65719985961914</v>
+      </c>
+      <c r="J93" t="n">
+        <v>13.57051277160645</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS | CONTRAS: TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
+          <t>PROS: AMBIENTE COLABORATIVO
+MUITO INOVADOR 
+OTIMO LUGAR PARA TRABALHAR | CONTRAS: NAO VEJO NENHUM PONTO NEGATIVO DE TRABALHO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS</t>
+          <t>10 de dez. de 2021</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
+          <t>PROS: AMBIENTE COLABORATIVO
+MUITO INOVADOR 
+OTIMO LUGAR PARA TRABALHAR</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[-0.02923028  0.00997796 -0.02107285 ...  0.01436391 -0.03400201
-  0.07079501]</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>6</v>
+          <t>NAO VEJO NENHUM PONTO NEGATIVO DE TRABALHO</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[-0.0079355  -0.03987526 -0.04228851 ... -0.00221652 -0.03912769
+  0.01971779]</t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v>6</v>
       </c>
       <c r="H94" t="n">
-        <v>24.03276252746582</v>
+        <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>-5.718070983886719</v>
+        <v>55.80571746826172</v>
+      </c>
+      <c r="J94" t="n">
+        <v>9.874951362609863</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>JAVA DEVELOPER</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO. | CONTRAS: PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
+          <t>PROS: EQUIPAMENTOS DE PONTA (MAC), AMBIENTE SUPER COLABORATIVO | CONTRAS: NAO CONSIGO PENSAR EM UM PONTO NEGATIVO.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, BOA EQUIPE, TRABALHO TRANQUILO.</t>
+          <t>20 de set. de 2022</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PLR PODERIA SER MELHOR, MODELO DE TRABALHO FOI OBRIGADO A SER PRESENCIAL, PROMOCOES POSTERGADAS</t>
+          <t>PROS: EQUIPAMENTOS DE PONTA (MAC), AMBIENTE SUPER COLABORATIVO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[-0.04200723 -0.00656604 -0.00972573 ... -0.01036839 -0.02806559
- -0.0252804 ]</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>6</v>
+          <t>NAO CONSIGO PENSAR EM UM PONTO NEGATIVO.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[-0.02034107 -0.00470216 -0.01772109 ... -0.03825814 -0.04132259
+ -0.00937886]</t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>15.6026725769043</v>
+        <v>6</v>
       </c>
       <c r="I95" t="n">
-        <v>10.77883720397949</v>
+        <v>54.45389938354492</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11.34310817718506</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUSTENTACAO PLENO</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE. | CONTRAS: TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
+          <t>PROS: OTIMO AMBIENTE, SALARIO NA MEDIA DO MERCADO | CONTRAS: NAO TENHO NADA A RELATAR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PROS: POSTO DE TRABALHO, ESTRUTURA DO PREDIO EXCELENTE.</t>
+          <t>3 de out. de 2022</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TRABALHO 100% PRESENCIAL SEM A NECESSIDADE</t>
+          <t>PROS: OTIMO AMBIENTE, SALARIO NA MEDIA DO MERCADO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[-0.01390741 -0.00811709 -0.02941687 ...  0.0072409  -0.04422035
- -0.00310236]</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A RELATAR</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[ 0.01136187  0.00436451 -0.02997122 ...  0.00040961 -0.03000084
+  0.016182  ]</t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>24.11123085021973</v>
+        <v>6</v>
       </c>
       <c r="I96" t="n">
-        <v>10.36764907836914</v>
+        <v>49.8526611328125</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.8413021564483643</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO. | CONTRAS: POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
+          <t>PROS: BONS BENEFICIOS E EXPERIENCIA SENSACIONAL PARA O MERCADO | CONTRAS: NENHUM. NAO SE APLICA NENHUM CONTRA.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PROS: VALE ALIMENTACAO/REFEICAO BONS, AMBIENTE TRANQUILO.</t>
+          <t>10 de mai. de 2021</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POUCA PERSPECTIVA DE CRESCIMENTO, 100% PRESENCIAL, NAO PAGA PARTICIPACAO NOS LUCROS</t>
+          <t>PROS: BONS BENEFICIOS E EXPERIENCIA SENSACIONAL PARA O MERCADO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[-0.05795429 -0.00445272 -0.02166495 ... -0.00181581 -0.03352
- -0.01316566]</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>6</v>
+          <t>NENHUM. NAO SE APLICA NENHUM CONTRA.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[ 0.009513   -0.00448697 -0.05190663 ... -0.0051905  -0.01463461
+ -0.00246435]</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>22.47424507141113</v>
+        <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>7.842618942260742</v>
+        <v>50.85448837280273</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4.788474559783936</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR I</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS | CONTRAS: VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
+          <t>PROS: EMPRESA PREOCUPADO COM O FUNCIONARIO R CULTURA | CONTRAS: NAO TENHO PONTOS CONTRA PARA RELATAR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS</t>
+          <t>18 de fev. de 2022</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
+          <t>PROS: EMPRESA PREOCUPADO COM O FUNCIONARIO R CULTURA</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[-0.02572753  0.00813708 -0.03671625 ... -0.00742444 -0.01693461
-  0.02700856]</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>6</v>
+          <t>NAO TENHO PONTOS CONTRA PARA RELATAR</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[ 0.02064141 -0.01257819 -0.03744695 ... -0.01598233 -0.06798513
+  0.01946786]</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>19.07825088500977</v>
+        <v>6</v>
       </c>
       <c r="I98" t="n">
-        <v>6.472733020782471</v>
+        <v>51.28604507446289</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.701259613037109</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>AGENTE DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO | CONTRAS: PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
+          <t>PROS: EXCELENTE BENEFICIOS, OTIMA EMPRESA, GOSTEI DE TUDO | CONTRAS: NAO TIVE NADA QUE PUDESSE RECLAMAR</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO</t>
+          <t>3 de mar. de 2022</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
+          <t>PROS: EXCELENTE BENEFICIOS, OTIMA EMPRESA, GOSTEI DE TUDO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[-0.01219322 -0.03488651 -0.04655115 ...  0.0257562  -0.05618111
-  0.02621965]</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>6</v>
+          <t>NAO TIVE NADA QUE PUDESSE RECLAMAR</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[ 0.02993793 -0.01181826 -0.02746005 ... -0.00940439 -0.01295066
+  0.01594244]</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>23.49826622009277</v>
+        <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>11.32306480407715</v>
+        <v>51.82674026489258</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1.190475463867188</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE CS</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
+          <t>PROS: - SALARIO
+- BENEFICIOS
+- ESTRUTURA ORGANIZACIONAL | CONTRAS: NENHUM ATE O MOMENTO. TUDO TEM FLUIDO BEM.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL</t>
+          <t>22 de mar. de 2022</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
+          <t>PROS: - SALARIO
+- BENEFICIOS
+- ESTRUTURA ORGANIZACIONAL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[ 0.00328592 -0.03843007 -0.03266748 ... -0.01508216 -0.03869961
- -0.04896725]</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>6</v>
+          <t>NENHUM ATE O MOMENTO. TUDO TEM FLUIDO BEM.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[ 0.02580377  0.01035428 -0.06982    ... -0.01880984 -0.03606962
+ -0.01808502]</t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v>6</v>
       </c>
       <c r="H100" t="n">
-        <v>34.82442092895508</v>
+        <v>6</v>
       </c>
       <c r="I100" t="n">
-        <v>-4.790936470031738</v>
+        <v>46.20536804199219</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-1.164960741996765</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA. | CONTRAS: TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO, BENEFICIOS E OPORTUNIDADE DE CRESCIMENTO | CONTRAS: NAO IDENTIFIQUEI CONTRAS, SOMENTE BENEFICIOS.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA.</t>
+          <t>24 de mai. de 2022</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO, BENEFICIOS E OPORTUNIDADE DE CRESCIMENTO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[-0.02146049  0.00858761 -0.00569897 ...  0.01418469 -0.01526345
-  0.03966178]</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>6</v>
+          <t>NAO IDENTIFIQUEI CONTRAS, SOMENTE BENEFICIOS.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[-0.01913534 -0.02091307 -0.08385908 ...  0.02549375 -0.03221065
+ -0.01056373]</t>
+        </is>
       </c>
       <c r="G101" t="n">
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>27.1318416595459</v>
+        <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>11.08401584625244</v>
+        <v>50.30079650878906</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12.62203311920166</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO | CONTRAS: TRABALHO CEM POR CENTO PRESENCIAL</t>
+          <t>PROS: INFRA ESTRUTURA OTIMA, TRABALHO HIBRIDO, TIMES MOTIVADOS | CONTRAS: NAO TENHO NENHUMA AVALIACAO NEGATIVA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO</t>
+          <t>8 de jul. de 2022</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>TRABALHO CEM POR CENTO PRESENCIAL</t>
+          <t>PROS: INFRA ESTRUTURA OTIMA, TRABALHO HIBRIDO, TIMES MOTIVADOS</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[ 0.00547284 -0.00328203 -0.03143762 ... -0.00399434 -0.04723526
-  0.02029747]</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUMA AVALIACAO NEGATIVA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[-0.0164078  -0.03199922 -0.02596339 ... -0.00822529 -0.01662433
+  0.01160926]</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>25.07613754272461</v>
+        <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>10.51534748077393</v>
+        <v>53.98510360717773</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9.148894309997559</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE SOFTWARE</t>
+          <t>SQUAD LEADER</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL | CONTRAS: DEVE TRABALHAR PRESENCIAL EM BH</t>
+          <t>PROS: EMPRESA QUE CUIDA DAS PESSOAS | CONTRAS: NADA DE CONTRA A DECLARAR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PROS: BONS PARCEIROS, AMBIENTE AMIGAVEL E CONFORTAVEL</t>
+          <t>25 de jul. de 2022</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>DEVE TRABALHAR PRESENCIAL EM BH</t>
+          <t>PROS: EMPRESA QUE CUIDA DAS PESSOAS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[-0.02447081  0.02239396 -0.0135476  ...  0.02554108 -0.05260482
-  0.02907493]</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>6</v>
+          <t>NADA DE CONTRA A DECLARAR</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[ 0.02532216 -0.03360294 -0.03653149 ...  0.01159824 -0.0261641
+  0.03529219]</t>
+        </is>
       </c>
       <c r="G103" t="n">
         <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>28.25882530212402</v>
+        <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>10.68763828277588</v>
+        <v>53.48328399658203</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.475244998931885</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR | CONTRAS: 100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
+          <t>PROS: UMA EMPRESA MUITO BOA PARA SE TRABALHAR | CONTRAS: NAO TENHO NADA CONTRA A EMPRESA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR</t>
+          <t>6 de set. de 2022</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
+          <t>PROS: UMA EMPRESA MUITO BOA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[-0.06371853 -0.02129246 -0.03811525 ...  0.04773193 -0.05053665
- -0.0134103 ]</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA CONTRA A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[-0.00318821 -0.01674401 -0.04610646 ... -0.00622108 -0.07557582
+ -0.00795074]</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>22.56065368652344</v>
+        <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>9.810558319091797</v>
+        <v>57.46537780761719</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.449234962463379</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP. | CONTRAS: EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
+          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR | CONTRAS: OTIMA EMPRESA PARA SE TRABALHAR, NAO TEM PONTOS FRACOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP.</t>
+          <t>29 de set. de 2022</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
+          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[-0.00879673  0.00944173 -0.06147199 ... -0.00978234 -0.05844964
- -0.02028901]</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>6</v>
+          <t>OTIMA EMPRESA PARA SE TRABALHAR, NAO TEM PONTOS FRACOS</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[-0.01486613 -0.02663592 -0.04748973 ...  0.01069379 -0.06676524
+ -0.00148893]</t>
+        </is>
       </c>
       <c r="G105" t="n">
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>22.55442237854004</v>
+        <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>-14.15257167816162</v>
+        <v>60.58367156982422</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.179403305053711</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>TECH LEAD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO | CONTRAS: - MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
+          <t>PROS: OTIMA CULTURA, PESSOAL GENTE BOA E ACELERADO. | CONTRAS: NAO TENHO NADA CONTRA ESSA EMPRESA.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO</t>
+          <t>12 de abr. de 2021</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>- MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
+          <t>PROS: OTIMA CULTURA, PESSOAL GENTE BOA E ACELERADO.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[-0.02167314 -0.01840448 -0.0131838  ...  0.0065007  -0.01866823
-  0.01533075]</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA CONTRA ESSA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[-0.01585155 -0.01058462 -0.04828421 ...  0.01190701 -0.05456953
+ -0.00288258]</t>
+        </is>
       </c>
       <c r="G106" t="n">
         <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>20.34240341186523</v>
+        <v>6</v>
       </c>
       <c r="I106" t="n">
-        <v>5.30105447769165</v>
+        <v>57.45265960693359</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5.255023956298828</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRODUCT ANALYST II</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS | CONTRAS: MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
+          <t>PROS: CULTURA SENSACIONAL COM OTIMAS OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: NAO VEJO HOJE NENHUM CONTRA.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS</t>
+          <t>2 de jun. de 2021</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
+          <t>PROS: CULTURA SENSACIONAL COM OTIMAS OPORTUNIDADES DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[-0.04137472 -0.01715182 -0.02375365 ...  0.02342626 -0.02254412
- -0.00943949]</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>6</v>
+          <t>NAO VEJO HOJE NENHUM CONTRA.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[ 0.00869139 -0.00842026 -0.04915198 ...  0.00111791 -0.04382515
+  0.02511198]</t>
+        </is>
       </c>
       <c r="G107" t="n">
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>29.57888793945312</v>
+        <v>6</v>
       </c>
       <c r="I107" t="n">
-        <v>7.796015739440918</v>
+        <v>50.07364273071289</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6.864869594573975</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>ASSISTENTE ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO | CONTRAS: PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
+          <t>PROS: LUGAR DE OPORTUNIDADES E AMBIENTE MARAVILHOSO | CONTRAS: NADA A DIZER DE FORMA NEGATIVA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO</t>
+          <t>5 de set. de 2021</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
+          <t>PROS: LUGAR DE OPORTUNIDADES E AMBIENTE MARAVILHOSO</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[ 0.02042002 -0.01385194 -0.01056426 ... -0.01452612 -0.03035928
-  0.00743763]</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>6</v>
+          <t>NADA A DIZER DE FORMA NEGATIVA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[-0.00379056 -0.00571786 -0.01288949 ... -0.00018595 -0.01883378
+  0.03174504]</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v>6</v>
       </c>
       <c r="H108" t="n">
-        <v>15.10204982757568</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
-        <v>9.73295783996582</v>
+        <v>53.30196762084961</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8.190360069274902</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>ASSISTANT</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS. | CONTRAS: EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
+          <t>PROS: BENEFICIOS VALE REFEICAO, ALIMENTACAO, CONVENIO | CONTRAS: NAO TEM NADA PRA FALAR</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS.</t>
+          <t>12 de mai. de 2022</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
+          <t>PROS: BENEFICIOS VALE REFEICAO, ALIMENTACAO, CONVENIO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[-0.02765662  0.03541273 -0.04791667 ...  0.03039935 -0.04975749
-  0.01035498]</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>6</v>
+          <t>NAO TEM NADA PRA FALAR</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[ 0.01164983  0.01348583 -0.0060342  ... -0.02420479 -0.01753309
+  0.00268181]</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v>6</v>
       </c>
       <c r="H109" t="n">
-        <v>32.43630599975586</v>
+        <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>8.365262985229492</v>
+        <v>49.98929977416992</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-2.225954055786133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>DEV III</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PROS: TIMES MUITO BONS, SALARIO OK. | CONTRAS: TRABALHO PRESENCIAL EM PLENO 2022.</t>
+          <t>PROS: SALARIO
+BENEFICIOS
+TECNOLOGIAS NOVAS
+APRENDIZADO DIARIO
+EQUIPE MUITO BOA | CONTRAS: NAO TENHO NADA DE NEGATIVO A DIZER.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PROS: TIMES MUITO BONS, SALARIO OK.</t>
+          <t>6 de jul. de 2022</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL EM PLENO 2022.</t>
+          <t>PROS: SALARIO
+BENEFICIOS
+TECNOLOGIAS NOVAS
+APRENDIZADO DIARIO
+EQUIPE MUITO BOA</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[-0.0146738   0.03112722  0.00292824 ...  0.01628068 -0.06868504
-  0.02844464]</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA DE NEGATIVO A DIZER.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[-0.00536009 -0.01603113 -0.01680937 ... -0.03008696 -0.0354818
+ -0.00430965]</t>
+        </is>
       </c>
       <c r="G110" t="n">
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>25.29677581787109</v>
+        <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>7.007504463195801</v>
+        <v>53.23716354370117</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8.570250511169434</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>PROGRAMADOR JUNIOR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK | CONTRAS: - TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
+          <t>PROS: TUDO DE BOM, AMBIENTE TE INCRIVEL | CONTRAS: SEM NADA A RECLAMAR DA EMPRESA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK</t>
+          <t>1 de ago. de 2022</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>- TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
+          <t>PROS: TUDO DE BOM, AMBIENTE TE INCRIVEL</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[-0.01289721 -0.00198538 -0.03400381 ...  0.02002389  0.00223851
- -0.01363144]</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>6</v>
+          <t>SEM NADA A RECLAMAR DA EMPRESA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[-0.0223448  -0.01084824 -0.04467425 ...  0.01076972 -0.03495386
+  0.02526119]</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>20.81029319763184</v>
+        <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>4.95382833480835</v>
+        <v>58.12697219848633</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.349375009536743</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>IT SPECIALIST</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE | CONTRAS: ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
+          <t>PROS: - AUTONOMIA
+- PROFISSIONAIS CAPACITADOS
+- TECNOLOGIAS DE PONTA | CONTRAS: NAO TENHO NADA A RECLAMAR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE</t>
+          <t>31 de ago. de 2022</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
+          <t>PROS: - AUTONOMIA
+- PROFISSIONAIS CAPACITADOS
+- TECNOLOGIAS DE PONTA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[-0.02440664 -0.0282784  -0.0572704  ... -0.01908379 -0.10085484
-  0.02265542]</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA A RECLAMAR</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[ 0.00421884 -0.00511056 -0.02828177 ... -0.01646771 -0.01994656
+  0.01321092]</t>
+        </is>
       </c>
       <c r="G112" t="n">
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>36.74209213256836</v>
+        <v>6</v>
       </c>
       <c r="I112" t="n">
-        <v>-8.580870628356934</v>
+        <v>51.04837417602539</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.5690633654594421</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ANALISTA DE QUALIDADE JUNIOR</t>
+          <t>SENIOR SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS. | CONTRAS: NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
+          <t>PROS: BOM TICKET ALIMENTACAO, BOM SALARIO, EMPRESA HUMANIZADA | CONTRAS: SEM CONTRAS PARA O INTER</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS.</t>
+          <t>7 de set. de 2022</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
+          <t>PROS: BOM TICKET ALIMENTACAO, BOM SALARIO, EMPRESA HUMANIZADA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[-0.00086796 -0.00507019 -0.02244265 ...  0.02370061 -0.04316027
-  0.03017524]</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS PARA O INTER</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[ 0.045545   -0.02398009 -0.03583795 ...  0.00349368 -0.02767098
+  0.0209274 ]</t>
+        </is>
       </c>
       <c r="G113" t="n">
         <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>32.20222091674805</v>
+        <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>1.143354296684265</v>
+        <v>46.78701782226562</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9.561656951904297</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS | CONTRAS: NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
+          <t>PROS: OTIMA EMPRESA. PREOCUPA COM OS FUNCIONARIOS. | CONTRAS: SEM CONTRAS, FOI UMA BOA EXPERIENCIA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS</t>
+          <t>15 de set. de 2022</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
+          <t>PROS: OTIMA EMPRESA. PREOCUPA COM OS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[ 0.00814594  0.01920126 -0.01103012 ... -0.01789963 -0.0515185
- -0.02179357]</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS, FOI UMA BOA EXPERIENCIA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[-0.00301923 -0.06190179 -0.05734665 ... -0.01259792 -0.05119109
+  0.02922796]</t>
+        </is>
       </c>
       <c r="G114" t="n">
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>33.55188369750977</v>
+        <v>6</v>
       </c>
       <c r="I114" t="n">
-        <v>-7.01090669631958</v>
+        <v>55.77697372436523</v>
+      </c>
+      <c r="J114" t="n">
+        <v>13.60334205627441</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JUNIOR</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS | CONTRAS: OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
+          <t>PROS: EXCELENTE AMBIENTE, REMUNERACAO, OPORTUNIDADE, INOVADOR. | CONTRAS: SEM APONTAMENTOS ESPECIFICOS PARA ESSA EMPRESA.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS</t>
+          <t>11 de jan. de 2021</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
+          <t>PROS: EXCELENTE AMBIENTE, REMUNERACAO, OPORTUNIDADE, INOVADOR.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[ 0.01715305  0.03158771 -0.01339981 ...  0.01801623 -0.03493379
- -0.00524589]</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>6</v>
+          <t>SEM APONTAMENTOS ESPECIFICOS PARA ESSA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[-0.05717364  0.00692548 -0.0571956  ...  0.01257479 -0.04714464
+  0.01599964]</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>30.99463081359863</v>
+        <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>12.38663101196289</v>
+        <v>57.83024597167969</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.3207825422286987</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR MASTER</t>
+          <t>BANK ASSISTANT</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROS: TIMES MUITO BONS DE TRABALHAR | CONTRAS: FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
+          <t>PROS: AMBIENTE LEVE, CULTA VOLTADA A INOVACAO. | CONTRAS: NAO VEJO NENHUM CONTRA, OTIMA EMPRESA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PROS: TIMES MUITO BONS DE TRABALHAR</t>
+          <t>8 de mar. de 2021</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
+          <t>PROS: AMBIENTE LEVE, CULTA VOLTADA A INOVACAO.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[ 0.01237566  0.02526124 -0.0216654  ... -0.0212113  -0.05070523
-  0.01640672]</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>6</v>
+          <t>NAO VEJO NENHUM CONTRA, OTIMA EMPRESA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[-0.00331956 -0.00935359 -0.05402158 ... -0.00084959 -0.06473462
+  0.00338275]</t>
+        </is>
       </c>
       <c r="G116" t="n">
         <v>6</v>
       </c>
       <c r="H116" t="n">
-        <v>31.32265853881836</v>
+        <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>11.51765823364258</v>
+        <v>58.77602767944336</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.803384780883789</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR JAVA PLENO</t>
+          <t>ANALISTA DE BUSINESS INTELLIGENCE (BI)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO | CONTRAS: EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
+          <t>PROS: MUITO BOM LUGAR PARA SE TRABALHAR | CONTRAS: NADA A RECLAMAR, MUITO BOM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO</t>
+          <t>2 de jul. de 2021</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
+          <t>PROS: MUITO BOM LUGAR PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[-0.00082565  0.01328453 -0.04484891 ... -0.01026533 -0.05968096
- -0.00465793]</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR, MUITO BOM</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[ 0.02799672  0.01252965 -0.02502802 ...  0.01201674 -0.01894122
+  0.01411086]</t>
+        </is>
       </c>
       <c r="G117" t="n">
         <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>29.31109428405762</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>8.868295669555664</v>
+        <v>51.62651443481445</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-3.667650938034058</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ANALISTA DE PRODUTO SENIOR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR. | CONTRAS: ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
+          <t>PROS: VA E VR EXPRESSIVOS, PL E PLR | CONTRAS: NAO VEJO CONTRAS, GOSTO MUITO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR.</t>
+          <t>7 de ago. de 2021</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
+          <t>PROS: VA E VR EXPRESSIVOS, PL E PLR</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[-0.05091276  0.00472459 -0.01887552 ... -0.00660543 -0.04158054
-  0.04279704]</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>6</v>
+          <t>NAO VEJO CONTRAS, GOSTO MUITO</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[ 0.0174118  -0.02056128 -0.04374297 ...  0.02043192 -0.05129892
+  0.0275206 ]</t>
+        </is>
       </c>
       <c r="G118" t="n">
         <v>6</v>
       </c>
       <c r="H118" t="n">
-        <v>33.36871337890625</v>
+        <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>10.46649360656738</v>
+        <v>50.99909210205078</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9.878090858459473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ASSISTENTE DE ATENDIMENTO AO CLIENTE</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA. | CONTRAS: ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
+          <t>PROS: CLIMA, SALARIO E BENEFICIOS MUITO BONS | CONTRAS: NAO TEM CONTRAS. TUDO OTIMO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMO QUALQUER BANCO. E TIROU O GYMPASS E NAO VOLTOU, MESMO POS PANDEMIA.</t>
+          <t>20 de ago. de 2021</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ORDEN DO CEO A TODOS VOLTAREM 100% PRESENCIAL. NAO TEM FLEXIBILIDADE.</t>
+          <t>PROS: CLIMA, SALARIO E BENEFICIOS MUITO BONS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[ 0.00154358 -0.01380547 -0.03980237 ...  0.01621963 -0.04473202
-  0.03675267]</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>6</v>
+          <t>NAO TEM CONTRAS. TUDO OTIMO</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[ 0.02219498 -0.04239604 -0.04524568 ...  0.00365373 -0.0328632
+ -0.00029481]</t>
+        </is>
       </c>
       <c r="G119" t="n">
         <v>6</v>
       </c>
       <c r="H119" t="n">
-        <v>22.7346076965332</v>
+        <v>6</v>
       </c>
       <c r="I119" t="n">
-        <v>12.12541961669922</v>
+        <v>52.46517944335938</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9.454506874084473</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SALESFORCE</t>
+          <t>ANALISTA DESENVOLVEDOR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS | CONTRAS: VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
+          <t>PROS: AMBIENTE, TECNOLOGIA, TRANQUILIDADE, SAO PONTOS POSITIVOS | CONTRAS: ACHO QUE NAO HA PONTOS NEGATIVOS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS</t>
+          <t>13 de set. de 2021</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
+          <t>PROS: AMBIENTE, TECNOLOGIA, TRANQUILIDADE, SAO PONTOS POSITIVOS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[-0.01133411  0.0158622  -0.03747415 ... -0.00860911 -0.06515785
-  0.03789773]</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>6</v>
+          <t>ACHO QUE NAO HA PONTOS NEGATIVOS</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[ 0.00362845 -0.06213826 -0.03741768 ... -0.00431881 -0.03574683
+ -0.00375265]</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>31.14934158325195</v>
+        <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>10.05161190032959</v>
+        <v>53.28937911987305</v>
+      </c>
+      <c r="J120" t="n">
+        <v>11.14287853240967</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MACHINE LEARNING ENGINEER</t>
+          <t>SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E VA + VR | CONTRAS: PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
+          <t>PROS: LIDERES PROXIMOS E ACESSIVEIS PARA CONVERSAS | CONTRAS: SEM CONTRAS ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E VA + VR</t>
+          <t>28 de set. de 2021</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
+          <t>PROS: LIDERES PROXIMOS E ACESSIVEIS PARA CONVERSAS</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[-0.00614928 -0.01113769 -0.01551877 ...  0.02746222 -0.04002742
-  0.07076503]</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[ 0.00717268 -0.01265999 -0.05021759 ... -0.01978401 -0.03542127
+ -0.04642694]</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>23.27608299255371</v>
+        <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>-1.425910711288452</v>
+        <v>48.35688018798828</v>
+      </c>
+      <c r="J121" t="n">
+        <v>8.739561080932617</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>JUNIOR DATA ENGINEER</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO | CONTRAS: TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
+          <t>PROS: EQUIPE DIVERSIFICADA, PROJETOS INTERESSANTES, BOAS TECNOLOGIAS | CONTRAS: SEM CONTRAS ATE O MOMENTO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO</t>
+          <t>29 de set. de 2021</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
+          <t>PROS: EQUIPE DIVERSIFICADA, PROJETOS INTERESSANTES, BOAS TECNOLOGIAS</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[-0.00399277  0.02843204 -0.04088201 ... -0.00011789 -0.02702275
- -0.02677025]</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS ATE O MOMENTO</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[ 0.00692168 -0.01578028 -0.03726298 ... -0.02715523 -0.03384749
+ -0.03941152]</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v>6</v>
       </c>
       <c r="H122" t="n">
-        <v>19.52303504943848</v>
+        <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>11.06406402587891</v>
+        <v>48.10894393920898</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9.157026290893555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>COSTUMER SUCCESS</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO. | CONTRAS: TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
+          <t>PROS: TRABALHO BOM E CRESCIMENTO PESSOAL | CONTRAS: NAO TENHO NENHUM CONTRA NO MOMENTO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE SAUDAVEL, OPORTUNIDADE CRESCIMENTO.</t>
+          <t>17 de fev. de 2022</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL OBRIGATORIO SEM AVISO PREVIO.</t>
+          <t>PROS: TRABALHO BOM E CRESCIMENTO PESSOAL</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[-0.02713842  0.03154015 -0.02096049 ...  0.01491471 -0.04526819
-  0.00632536]</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>6</v>
+          <t>NAO TENHO NENHUM CONTRA NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[ 0.02034525  0.00168528 -0.04251616 ... -0.02473557 -0.04975003
+ -0.0168595 ]</t>
+        </is>
       </c>
       <c r="G123" t="n">
         <v>6</v>
       </c>
       <c r="H123" t="n">
-        <v>19.7409610748291</v>
+        <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>11.06840133666992</v>
+        <v>49.00405883789062</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6.651979446411133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRODUCT ANALYST</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS | CONTRAS: NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
+          <t>PROS: SALARIO BONS, BOAS TECNOLOGIAS, BONS BENEFICIOS | CONTRAS: AINDA NAO ENCONTREI PROBLEMAS NO INTER</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS</t>
+          <t>4 de jul. de 2022</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
+          <t>PROS: SALARIO BONS, BOAS TECNOLOGIAS, BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[-0.01442631 -0.02609047 -0.04101552 ... -0.00191921 -0.03204586
- -0.01195349]</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>6</v>
+          <t>AINDA NAO ENCONTREI PROBLEMAS NO INTER</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[ 0.03308766 -0.01201759 -0.04965022 ...  0.01028065 -0.01590337
+ -0.01564407]</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v>6</v>
       </c>
       <c r="H124" t="n">
-        <v>32.93201065063477</v>
+        <v>6</v>
       </c>
       <c r="I124" t="n">
-        <v>-5.354061126708984</v>
+        <v>59.46744918823242</v>
+      </c>
+      <c r="J124" t="n">
+        <v>13.07293033599854</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROS: VR / VA MUITO BOM | CONTRAS: ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
+          <t>PROS: EMPRESA TEM PESSOAS EXCELENTES NO TIME | CONTRAS: NENHUM CONTRA ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PROS: VR / VA MUITO BOM</t>
+          <t>2 de ago. de 2022</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
+          <t>PROS: EMPRESA TEM PESSOAS EXCELENTES NO TIME</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[ 0.02481575 -0.01543426 -0.02269316 ... -0.0106864  -0.0668299
-  0.01419806]</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[ 0.03126408 -0.0128083  -0.0677307  ... -0.00779675 -0.04180322
+ -0.03755186]</t>
+        </is>
       </c>
       <c r="G125" t="n">
         <v>6</v>
       </c>
       <c r="H125" t="n">
-        <v>38.03125381469727</v>
+        <v>6</v>
       </c>
       <c r="I125" t="n">
-        <v>-8.823710441589355</v>
+        <v>49.35718536376953</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.929736137390137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ANALISTA DE CREDITO IMOBILIARIO</t>
+          <t>ANALISTA DE SEGURANCA DA INFORMACAO</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS. | CONTRAS: NAO TEM PLR E NEM HOME OFFICE.</t>
+          <t>PROS: A CULTURA DA EMPRESA E SENSACIONAL | CONTRAS: NAO TEM PONTOS NEGATIVOS AINDA.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS.</t>
+          <t>5 de ago. de 2022</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NAO TEM PLR E NEM HOME OFFICE.</t>
+          <t>PROS: A CULTURA DA EMPRESA E SENSACIONAL</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[-0.03124204 -0.01764332 -0.04039847 ... -0.01542864 -0.06484765
- -0.0351506 ]</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>6</v>
+          <t>NAO TEM PONTOS NEGATIVOS AINDA.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[-0.00937013 -0.02628042 -0.0372352  ... -0.0175275  -0.03998631
+  0.00068922]</t>
+        </is>
       </c>
       <c r="G126" t="n">
         <v>6</v>
       </c>
       <c r="H126" t="n">
-        <v>34.32451629638672</v>
+        <v>6</v>
       </c>
       <c r="I126" t="n">
-        <v>-6.072965621948242</v>
+        <v>52.96216583251953</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11.52245616912842</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR</t>
+          <t>ASSISTENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA | CONTRAS: EMPRESA E CONTRA O HOME OFFICE</t>
+          <t>PROS: OPORTUNIDADE DE CRESCIMENTO NA INSTITUICAO. | CONTRAS: NADA CONTRA ATE O MOMENTO.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA</t>
+          <t>6 de jan. de 2021</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>EMPRESA E CONTRA O HOME OFFICE</t>
+          <t>PROS: OPORTUNIDADE DE CRESCIMENTO NA INSTITUICAO.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[-0.00779152  0.00138982 -0.02820475 ...  0.00566307 -0.06983744
-  0.01581256]</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>6</v>
+          <t>NADA CONTRA ATE O MOMENTO.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[ 0.03074194 -0.01761167 -0.06956672 ... -0.0142843  -0.05017399
+ -0.04577418]</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v>6</v>
       </c>
       <c r="H127" t="n">
-        <v>35.01419067382812</v>
+        <v>6</v>
       </c>
       <c r="I127" t="n">
-        <v>-11.97421646118164</v>
+        <v>49.12126541137695</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.318857192993164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR FRONT END</t>
+          <t>ANALISTA DE AUTOMACAO JUNIOR</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR. | CONTRAS: AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
+          <t>PROS: OPORTUNIDADE DE CRESCIMENTO, CULTURA EMPRESARIAL | CONTRAS: NAO HA CONTRAS PARA CITAR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR.</t>
+          <t>14 de abr. de 2021</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
+          <t>PROS: OPORTUNIDADE DE CRESCIMENTO, CULTURA EMPRESARIAL</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[-0.04158296  0.01349779 -0.05154336 ... -0.00363456 -0.05948676
-  0.01877222]</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>6</v>
+          <t>NAO HA CONTRAS PARA CITAR</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[-0.00634334 -0.03596305 -0.02081198 ... -0.00061116 -0.03117582
+  0.00946253]</t>
+        </is>
       </c>
       <c r="G128" t="n">
         <v>6</v>
       </c>
       <c r="H128" t="n">
-        <v>28.95574760437012</v>
+        <v>6</v>
       </c>
       <c r="I128" t="n">
-        <v>-8.060957908630371</v>
+        <v>52.01809692382812</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7.069116592407227</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ANALISTA DE CONTEUDO PLENO</t>
+          <t>DESENVOLVEDOR</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO. | CONTRAS: EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
+          <t>PROS: UMA OTIMA EMPRESA PARA TRABALHAR. | CONTRAS: NADA A RECLAMAR DESSA EMPRESA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO.</t>
+          <t>16 de ago. de 2021</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
+          <t>PROS: UMA OTIMA EMPRESA PARA TRABALHAR.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[-0.02804429 -0.01289136 -0.02197671 ...  0.03287745 -0.05620091
-  0.0403828 ]</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR DESSA EMPRESA.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[-0.02166207 -0.00445436 -0.05399318 ...  0.02412094 -0.0152065
+  0.02744515]</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v>6</v>
       </c>
       <c r="H129" t="n">
-        <v>32.68592834472656</v>
+        <v>6</v>
       </c>
       <c r="I129" t="n">
-        <v>1.490823745727539</v>
+        <v>57.90899276733398</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.469573020935059</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
+          <t>PROS: OTIMO
+AMBIENTE DE SE TRABALHAR NA EMPRESA | CONTRAS: NAO TEM CONTRA NO MOMENTO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PROS: CLIMA OTIMO, BOAS CONDICOES DE TRABALHO, OPORTUNIDADE DE CRESCIMENTO.</t>
+          <t>28 de jan. de 2022</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>BENEFICIOS PODERIAM SER MELHORES, HOME OFFICE DEVERIA SER FORMALIZADO COMO DEFINITIVO.</t>
+          <t>PROS: OTIMO
+AMBIENTE DE SE TRABALHAR NA EMPRESA</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[-0.00810703  0.01810922 -0.04205522 ... -0.02207538 -0.03479676
- -0.00278802]</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>6</v>
+          <t>NAO TEM CONTRA NO MOMENTO</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[ 0.02004955 -0.00056415 -0.03918704 ... -0.00987893 -0.03259249
+ -0.01359622]</t>
+        </is>
       </c>
       <c r="G130" t="n">
         <v>6</v>
       </c>
       <c r="H130" t="n">
-        <v>23.14834976196289</v>
+        <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>-14.38234806060791</v>
+        <v>46.49827194213867</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.317636966705322</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>SENIOR SOFTWARE ENGINEER</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR | CONTRAS: TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
+          <t>PROS: EMPRESA BEM BACA DE TRABALHAR | CONTRAS: NAO TENHO NADA CONTRA ELA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR</t>
+          <t>8 de fev. de 2022</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
+          <t>PROS: EMPRESA BEM BACA DE TRABALHAR</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[ 0.01873692 -0.00688827 -0.03732348 ... -0.0265513  -0.04326579
- -0.01364859]</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>6</v>
+          <t>NAO TENHO NADA CONTRA ELA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[ 0.01859427 -0.01879196 -0.04122776 ...  0.01838025 -0.05640257
+  0.02121988]</t>
+        </is>
       </c>
       <c r="G131" t="n">
         <v>6</v>
       </c>
       <c r="H131" t="n">
-        <v>32.33330535888672</v>
+        <v>6</v>
       </c>
       <c r="I131" t="n">
-        <v>-9.769415855407715</v>
+        <v>50.29719161987305</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7.767795085906982</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ADVISOR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES. | CONTRAS: REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
+          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR | CONTRAS: NADA A RECLAMAR SOBRE A EMPRESA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PROS: AUTONOMIA E ESTRUTURA PARA A REALIZACAO DAS ATIVIDADES.</t>
+          <t>30 de abr. de 2022</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>REGIME HIBRIDO E IMPOSTO POR GESTAO, NAO PODENDO SER TOTALMENTE REMOTO.</t>
+          <t>PROS: EXCELENTE EMPRESA PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[-0.01090838  0.01649735 -0.02987122 ...  0.00574455 -0.06672423
- -0.0071907 ]</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>6</v>
+          <t>NADA A RECLAMAR SOBRE A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[-0.01989736 -0.00653208 -0.05196741 ...  0.02011688 -0.02904275
+  0.02507386]</t>
+        </is>
       </c>
       <c r="G132" t="n">
         <v>6</v>
       </c>
       <c r="H132" t="n">
-        <v>29.82781791687012</v>
+        <v>6</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.2989739775657654</v>
+        <v>57.8444938659668</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.372670888900757</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ANALISTA DE AUTOMACAO</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO | CONTRAS: RESISTENCIA A ADESAO DE HOME OFFICE</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO CONFORTAVEL | CONTRAS: NAO TENHO MUITO COISA CONTRA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO</t>
+          <t>30 de nov. de 2021</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RESISTENCIA A ADESAO DE HOME OFFICE</t>
+          <t>PROS: OTIMO AMBIENTE DE TRABALHO CONFORTAVEL</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[ 0.02352476  0.00298274 -0.02973961 ... -0.01641248 -0.09757089
-  0.04234512]</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>6</v>
+          <t>NAO TENHO MUITO COISA CONTRA</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[ 0.00430951  0.00663212 -0.03900719 ... -0.03855388 -0.0381607
+  0.00606102]</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v>6</v>
       </c>
       <c r="H133" t="n">
-        <v>34.97783279418945</v>
+        <v>6</v>
       </c>
       <c r="I133" t="n">
-        <v>-11.98497295379639</v>
+        <v>46.13577651977539</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6.375295162200928</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GERENTE BLACK DIGITAL</t>
+          <t>CLOSER</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM A CLASSE | CONTRAS: PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
+          <t>PROS: AMBIENTE E GESTORES MUITO BONS | CONTRAS: NAO TENHO O QUE RECLAMAR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM A CLASSE</t>
+          <t>30 de dez. de 2021</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PRESENCIAL. APESAR DO BANCO SER DIGITAL, PEDEM PARA IR A AGENCIA</t>
+          <t>PROS: AMBIENTE E GESTORES MUITO BONS</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[-0.0221497  -0.00220614 -0.05247384 ...  0.01842734 -0.06897553
- -0.02124289]</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>6</v>
+          <t>NAO TENHO O QUE RECLAMAR</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[-0.00238022  0.0024515  -0.02641116 ... -0.03453985 -0.02255066
+  0.00118171]</t>
+        </is>
       </c>
       <c r="G134" t="n">
         <v>6</v>
       </c>
       <c r="H134" t="n">
-        <v>28.31215667724609</v>
+        <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>14.01551151275635</v>
+        <v>50.4996223449707</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.06126261502504349</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>GERENTE COMERCIAL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO. | CONTRAS: ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
+          <t>PROS: UM OTIMO AMBIENTE DE TRABALHO. | CONTRAS: NAO ENCONTREI NENHUM PONTO NEGATIVO.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO.</t>
+          <t>6 de jan. de 2022</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
+          <t>PROS: UM OTIMO AMBIENTE DE TRABALHO.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[-0.01798563  0.01483086 -0.03935165 ... -0.00319574 -0.05062837
-  0.00664411]</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>6</v>
+          <t>NAO ENCONTREI NENHUM PONTO NEGATIVO.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[-0.00822875 -0.04323642 -0.05227539 ...  0.00424205 -0.0378639
+  0.01371055]</t>
+        </is>
       </c>
       <c r="G135" t="n">
         <v>6</v>
       </c>
       <c r="H135" t="n">
-        <v>33.16735076904297</v>
+        <v>6</v>
       </c>
       <c r="I135" t="n">
-        <v>-7.141786575317383</v>
+        <v>54.17582702636719</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9.672580718994141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ANALISTA DE AUTOMACAO</t>
+          <t>PRODUCT DESIGNER/ANALISTA UX PLENO</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO | CONTRAS: NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
+          <t>PROS: OTIMO SALARIO, EQUIPE E AMBIENTE | CONTRAS: NENHUM CONTRA, NADA A COMENTAR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO</t>
+          <t>18 de ago. de 2022</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
+          <t>PROS: OTIMO SALARIO, EQUIPE E AMBIENTE</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[-0.02483857 -0.02323402 -0.02721906 ... -0.02525039 -0.06794938
- -0.00888783]</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>6</v>
+          <t>NENHUM CONTRA, NADA A COMENTAR</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[ 0.02009608 -0.02410754 -0.03586387 ...  0.00849163 -0.00709712
+  0.04842799]</t>
+        </is>
       </c>
       <c r="G136" t="n">
         <v>6</v>
       </c>
       <c r="H136" t="n">
-        <v>34.25811386108398</v>
+        <v>6</v>
       </c>
       <c r="I136" t="n">
-        <v>-3.454817771911621</v>
+        <v>52.63812637329102</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.667108297348022</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR | CONTRAS: SEM HOME OFFICE PARA TODAS AS AREAS</t>
+          <t>PROS: VALE ALIMENTACAO 
+SEM PONTO ELETRONICO | CONTRAS: NADA A DECLARAR OTIMA EMPRESA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR</t>
+          <t>23 de ago. de 2022</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE PARA TODAS AS AREAS</t>
+          <t>PROS: VALE ALIMENTACAO 
+SEM PONTO ELETRONICO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[-0.00823566 -0.00909094 -0.02556316 ... -0.01487616 -0.04817134
-  0.0466971 ]</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>6</v>
+          <t>NADA A DECLARAR OTIMA EMPRESA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[-0.00557797  0.01065791 -0.03305839 ...  0.00692695 -0.03827785
+  0.01535658]</t>
+        </is>
       </c>
       <c r="G137" t="n">
         <v>6</v>
       </c>
       <c r="H137" t="n">
-        <v>32.07745361328125</v>
+        <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>-9.552582740783691</v>
+        <v>56.81618118286133</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.649194598197937</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR BACK-END</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO | CONTRAS: TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
+          <t>PROS: BOM AMBIENTE E LUGAR ACOLHEDOR. | CONTRAS: NAO IDENTIFIQUEI NENHUM PONTO NEGATIVO.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DA AREA BANCARIA COMO VALE ALIMENTACAO E REFEICAO</t>
+          <t>2 de out. de 2022</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>TRABALHO PRESENCIAL NA SEDE DA EMPRESA</t>
+          <t>PROS: BOM AMBIENTE E LUGAR ACOLHEDOR.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[-0.02757346  0.01426283 -0.05709538 ...  0.0435817  -0.07922854
- -0.00097827]</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>6</v>
+          <t>NAO IDENTIFIQUEI NENHUM PONTO NEGATIVO.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[-0.00678327 -0.04714917 -0.04727371 ...  0.00136552 -0.01730146
+  0.00519732]</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v>6</v>
       </c>
       <c r="H138" t="n">
-        <v>28.33926963806152</v>
+        <v>6</v>
       </c>
       <c r="I138" t="n">
-        <v>7.948827266693115</v>
+        <v>54.20323944091797</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9.76856803894043</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA SENIOR</t>
+          <t>SOFWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO. | CONTRAS: FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
+          <t>PROS: BENEFICIOS E AMBIENTE. AS PESSOAS COM QUEM TRABALHEI ERAM MUITO COMPETENTES | CONTRAS: NADA CONTRA A DECLARAR PARA A EMPRESA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PROS: LEGAL, JUSTO, PARCEIRO, TRANSPARENTE, SEGURO.</t>
+          <t>10 de mar. de 2025</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FUNCIONAMENTO HIBRIDO, ESCRITO E HOME</t>
+          <t>PROS: BENEFICIOS E AMBIENTE. AS PESSOAS COM QUEM TRABALHEI ERAM MUITO COMPETENTES</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[-0.00818676 -0.00670805 -0.04241085 ...  0.05029869 -0.03450729
-  0.04296849]</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>6</v>
+          <t>NADA CONTRA A DECLARAR PARA A EMPRESA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[-0.00843767 -0.01176435 -0.04206159 ...  0.01938022 -0.06396533
+  0.03888856]</t>
+        </is>
       </c>
       <c r="G139" t="n">
         <v>6</v>
       </c>
       <c r="H139" t="n">
-        <v>31.22777557373047</v>
+        <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>-1.513180017471313</v>
+        <v>54.24465942382812</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5.345070362091064</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE TECNICO</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE | CONTRAS: E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
+          <t>PROS: DESENVOLVIMENTO DE NOVAS HABILIDADES
+CRESCIMENTO RAPIDO | CONTRAS: SEM CONTRAS PARA ADICIONAR AQUI</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS, AUXILIO CRECHE</t>
+          <t>27 de jul. de 2024</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>E PRESENCIAL, PRESSAO, MUITA COBRANCA</t>
+          <t>PROS: DESENVOLVIMENTO DE NOVAS HABILIDADES
+CRESCIMENTO RAPIDO</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[ 0.00903034 -0.01091116 -0.01051751 ...  0.00192728 -0.07829177
-  0.03459215]</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>6</v>
+          <t>SEM CONTRAS PARA ADICIONAR AQUI</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[-0.03774032 -0.00572255 -0.0227914  ... -0.00168588 -0.04449869
+  0.02537723]</t>
+        </is>
       </c>
       <c r="G140" t="n">
         <v>6</v>
       </c>
       <c r="H140" t="n">
-        <v>22.73345756530762</v>
+        <v>6</v>
       </c>
       <c r="I140" t="n">
-        <v>1.624954342842102</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUPORTE JUNIOR</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO. | CONTRAS: NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO.</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[-0.0048993  -0.03060398 -0.0431377  ... -0.01348948 -0.04893927
- -0.01833846]</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>6</v>
-      </c>
-      <c r="G141" t="n">
-        <v>6</v>
-      </c>
-      <c r="H141" t="n">
-        <v>32.03485488891602</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-5.448617458343506</v>
+        <v>48.0079345703125</v>
+      </c>
+      <c r="J140" t="n">
+        <v>10.92496204376221</v>
       </c>
     </row>
   </sheetData>
